--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2905"/>
+  <dimension ref="A1:H2931"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85388,195 +85388,231 @@
     <row r="2639">
       <c r="A2639" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2639" t="inlineStr"/>
-      <c r="C2639" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2639" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C2639" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate YoYJAN</t>
+        </is>
+      </c>
       <c r="D2639" t="inlineStr"/>
-      <c r="E2639" t="inlineStr"/>
+      <c r="E2639" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
       <c r="F2639" t="inlineStr"/>
-      <c r="G2639" t="inlineStr"/>
-      <c r="H2639" t="inlineStr"/>
+      <c r="G2639" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H2639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2640">
       <c r="A2640" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2640" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2640" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2640" t="inlineStr"/>
       <c r="E2640" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F2640" t="inlineStr"/>
       <c r="G2640" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2640" t="n">
-        <v>2</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2640" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2641">
       <c r="A2641" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:15 AM</t>
         </is>
       </c>
       <c r="B2641" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2641" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2641" t="inlineStr"/>
       <c r="E2641" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr">
         <is>
-          <t>$0.9B</t>
-        </is>
-      </c>
-      <c r="H2641" t="n">
-        <v>3</v>
+          <t>18.0%</t>
+        </is>
+      </c>
+      <c r="H2641" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2642">
       <c r="A2642" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2642" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2642" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2642" t="inlineStr"/>
       <c r="E2642" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2642" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2642" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G2642" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2642" t="n">
-        <v>3</v>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H2642" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2643">
       <c r="A2643" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2643" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2643" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2643" t="inlineStr"/>
       <c r="E2643" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F2643" t="inlineStr"/>
       <c r="G2643" t="inlineStr"/>
-      <c r="H2643" t="n">
-        <v>3</v>
+      <c r="H2643" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2644">
       <c r="A2644" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2644" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2644" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2644" t="inlineStr"/>
       <c r="E2644" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2644" t="inlineStr"/>
       <c r="G2644" t="inlineStr"/>
-      <c r="H2644" t="n">
-        <v>2</v>
+      <c r="H2644" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2645">
       <c r="A2645" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2645" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2645" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2645" t="inlineStr"/>
       <c r="E2645" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2645" t="inlineStr"/>
       <c r="G2645" t="inlineStr"/>
-      <c r="H2645" t="n">
-        <v>2</v>
+      <c r="H2645" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2646">
@@ -85592,19 +85628,21 @@
       </c>
       <c r="C2646" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2646" t="inlineStr"/>
       <c r="E2646" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2646" t="inlineStr"/>
       <c r="G2646" t="inlineStr"/>
-      <c r="H2646" t="n">
-        <v>2</v>
+      <c r="H2646" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2647">
@@ -85620,19 +85658,21 @@
       </c>
       <c r="C2647" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2647" t="inlineStr"/>
       <c r="E2647" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2647" t="inlineStr"/>
       <c r="G2647" t="inlineStr"/>
-      <c r="H2647" t="n">
-        <v>3</v>
+      <c r="H2647" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2648">
@@ -85648,19 +85688,21 @@
       </c>
       <c r="C2648" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2648" t="inlineStr"/>
       <c r="E2648" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2648" t="inlineStr"/>
       <c r="G2648" t="inlineStr"/>
-      <c r="H2648" t="n">
-        <v>3</v>
+      <c r="H2648" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2649">
@@ -85676,47 +85718,51 @@
       </c>
       <c r="C2649" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2649" t="inlineStr"/>
       <c r="E2649" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2649" t="inlineStr"/>
       <c r="G2649" t="inlineStr"/>
-      <c r="H2649" t="n">
-        <v>3</v>
+      <c r="H2649" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2650">
       <c r="A2650" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2650" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2650" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2650" t="inlineStr"/>
       <c r="E2650" t="inlineStr">
         <is>
-          <t>-25.3K</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2650" t="inlineStr"/>
       <c r="G2650" t="inlineStr"/>
-      <c r="H2650" t="n">
-        <v>2</v>
+      <c r="H2650" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2651">
@@ -85732,21 +85778,27 @@
       </c>
       <c r="C2651" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2651" t="inlineStr"/>
-      <c r="E2651" t="inlineStr"/>
+      <c r="E2651" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2651" t="inlineStr"/>
       <c r="G2651" t="inlineStr"/>
-      <c r="H2651" t="n">
-        <v>3</v>
+      <c r="H2651" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2652">
       <c r="A2652" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2652" t="inlineStr">
@@ -85756,30 +85808,28 @@
       </c>
       <c r="C2652" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2652" t="inlineStr"/>
-      <c r="E2652" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2652" t="inlineStr"/>
       <c r="F2652" t="inlineStr"/>
       <c r="G2652" t="inlineStr"/>
-      <c r="H2652" t="n">
-        <v>2</v>
+      <c r="H2652" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2653">
       <c r="A2653" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2653" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2653" t="inlineStr">
@@ -85790,60 +85840,56 @@
       <c r="D2653" t="inlineStr"/>
       <c r="E2653" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr"/>
-      <c r="H2653" t="n">
-        <v>2</v>
+      <c r="H2653" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2654" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2654" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2654" t="inlineStr"/>
       <c r="E2654" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2654" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2654" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="H2654" t="n">
-        <v>2</v>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2654" t="inlineStr"/>
+      <c r="G2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
@@ -85854,32 +85900,34 @@
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G2655" t="inlineStr">
         <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="H2655" t="n">
-        <v>2</v>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="H2655" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
@@ -85890,21 +85938,23 @@
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2656" t="inlineStr">
         <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="H2656" t="n">
-        <v>2</v>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="H2656" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2657">
@@ -85915,88 +85965,106 @@
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2657" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2657" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2657" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="H2657" t="n">
-        <v>3</v>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="H2657" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2658" t="inlineStr"/>
+      <c r="G2658" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="F2658" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="H2658" t="n">
-        <v>2</v>
+      <c r="H2658" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
-      <c r="F2659" t="inlineStr"/>
-      <c r="G2659" t="inlineStr"/>
-      <c r="H2659" t="n">
-        <v>1</v>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2659" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="G2659" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="H2659" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2660">
@@ -86012,19 +86080,17 @@
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
       <c r="G2660" t="inlineStr"/>
-      <c r="H2660" t="n">
-        <v>2</v>
+      <c r="H2660" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2661">
@@ -86040,15 +86106,21 @@
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
-      <c r="E2661" t="inlineStr"/>
+      <c r="E2661" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F2661" t="inlineStr"/>
       <c r="G2661" t="inlineStr"/>
-      <c r="H2661" t="n">
-        <v>2</v>
+      <c r="H2661" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2662">
@@ -86064,19 +86136,17 @@
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
-      <c r="E2662" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2662" t="inlineStr"/>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
-      <c r="H2662" t="n">
-        <v>3</v>
+      <c r="H2662" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2663">
@@ -86087,24 +86157,26 @@
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2663" t="inlineStr"/>
       <c r="G2663" t="inlineStr"/>
-      <c r="H2663" t="n">
-        <v>1</v>
+      <c r="H2663" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2664">
@@ -86120,19 +86192,21 @@
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2664" t="inlineStr"/>
       <c r="G2664" t="inlineStr"/>
-      <c r="H2664" t="n">
-        <v>2</v>
+      <c r="H2664" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2665">
@@ -86148,7 +86222,7 @@
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
@@ -86159,8 +86233,10 @@
       </c>
       <c r="F2665" t="inlineStr"/>
       <c r="G2665" t="inlineStr"/>
-      <c r="H2665" t="n">
-        <v>3</v>
+      <c r="H2665" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2666">
@@ -86176,19 +86252,21 @@
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr"/>
-      <c r="H2666" t="n">
-        <v>3</v>
+      <c r="H2666" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2667">
@@ -86199,60 +86277,60 @@
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr"/>
-      <c r="G2667" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
-      <c r="H2667" t="n">
-        <v>3</v>
+      <c r="G2667" t="inlineStr"/>
+      <c r="H2667" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
       <c r="E2668" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2668" t="inlineStr"/>
       <c r="G2668" t="inlineStr">
         <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H2668" t="n">
-        <v>3</v>
+          <t>$ 230B</t>
+        </is>
+      </c>
+      <c r="H2668" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2669">
@@ -86263,52 +86341,64 @@
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
       <c r="G2669" t="inlineStr">
         <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H2669" t="n">
-        <v>3</v>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="H2669" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr"/>
+      <c r="E2670" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="n">
-        <v>3</v>
+      <c r="G2670" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2670" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2671">
@@ -86324,15 +86414,17 @@
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr"/>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="n">
-        <v>3</v>
+      <c r="H2671" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2672">
@@ -86348,85 +86440,79 @@
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr"/>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="n">
-        <v>3</v>
+      <c r="H2672" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
-      <c r="E2673" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2673" t="inlineStr"/>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
-      <c r="H2673" t="n">
-        <v>2</v>
+      <c r="H2673" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2674" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2674" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="H2674" t="n">
-        <v>2</v>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2674" t="inlineStr"/>
+      <c r="G2674" t="inlineStr"/>
+      <c r="H2674" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
@@ -86436,19 +86522,29 @@
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2675" t="inlineStr"/>
-      <c r="G2675" t="inlineStr"/>
-      <c r="H2675" t="n">
-        <v>1</v>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2675" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2675" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="H2675" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2676">
@@ -86464,19 +86560,21 @@
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
       <c r="G2676" t="inlineStr"/>
-      <c r="H2676" t="n">
-        <v>2</v>
+      <c r="H2676" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2677">
@@ -86492,23 +86590,21 @@
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2677" t="n">
-        <v>3</v>
+      <c r="G2677" t="inlineStr"/>
+      <c r="H2677" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2678">
@@ -86524,15 +86620,25 @@
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
-      <c r="E2678" t="inlineStr"/>
+      <c r="E2678" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
-      <c r="H2678" t="n">
-        <v>3</v>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2678" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2679">
@@ -86548,21 +86654,23 @@
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
       <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
-      <c r="H2679" t="n">
-        <v>3</v>
+      <c r="H2679" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
@@ -86572,15 +86680,17 @@
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
       <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
-      <c r="H2680" t="n">
-        <v>3</v>
+      <c r="H2680" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2681">
@@ -86596,21 +86706,23 @@
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
       <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="n">
-        <v>3</v>
+      <c r="H2681" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
@@ -86620,217 +86732,229 @@
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
       <c r="E2682" t="inlineStr"/>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
-      <c r="H2682" t="n">
-        <v>2</v>
+      <c r="H2682" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2683">
-      <c r="A2683" t="inlineStr"/>
+      <c r="A2683" t="inlineStr">
+        <is>
+          <t>11:00 PM</t>
+        </is>
+      </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>BCB Focus Market Readout</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr"/>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
-      <c r="H2683" t="n">
-        <v>2</v>
+      <c r="H2683" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2684">
       <c r="A2684" t="inlineStr"/>
       <c r="B2684" t="inlineStr">
         <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2684" t="inlineStr">
+        <is>
+          <t>BCB Focus Market Readout</t>
+        </is>
+      </c>
+      <c r="D2684" t="inlineStr"/>
+      <c r="E2684" t="inlineStr"/>
+      <c r="F2684" t="inlineStr"/>
+      <c r="G2684" t="inlineStr"/>
+      <c r="H2684" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" t="inlineStr"/>
+      <c r="B2685" t="inlineStr">
+        <is>
           <t>ZA</t>
         </is>
       </c>
-      <c r="C2684" t="inlineStr">
+      <c r="C2685" t="inlineStr">
         <is>
           <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
-      <c r="D2684" t="inlineStr"/>
-      <c r="E2684" t="inlineStr">
+      <c r="D2685" t="inlineStr"/>
+      <c r="E2685" t="inlineStr">
         <is>
           <t>41.27K</t>
         </is>
       </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr">
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr">
         <is>
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2684" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2685">
-      <c r="A2685" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2685" t="inlineStr"/>
-      <c r="C2685" t="inlineStr"/>
-      <c r="D2685" t="inlineStr"/>
-      <c r="E2685" t="inlineStr"/>
-      <c r="F2685" t="inlineStr"/>
-      <c r="G2685" t="inlineStr"/>
-      <c r="H2685" t="inlineStr"/>
+      <c r="H2685" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2686" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2686" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2686" t="inlineStr"/>
+      <c r="C2686" t="inlineStr"/>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr"/>
       <c r="F2686" t="inlineStr"/>
       <c r="G2686" t="inlineStr"/>
-      <c r="H2686" t="n">
-        <v>3</v>
-      </c>
+      <c r="H2686" t="inlineStr"/>
     </row>
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
-      <c r="E2687" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2687" t="inlineStr"/>
       <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr"/>
-      <c r="H2687" t="n">
-        <v>3</v>
+      <c r="H2687" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
       <c r="E2688" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr"/>
-      <c r="H2688" t="n">
-        <v>3</v>
+      <c r="H2688" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
       <c r="E2689" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2689" t="inlineStr"/>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="H2689" t="n">
-        <v>3</v>
+      <c r="G2689" t="inlineStr"/>
+      <c r="H2689" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
       <c r="E2690" t="inlineStr">
         <is>
-          <t>3.08%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2690" t="inlineStr"/>
-      <c r="G2690" t="inlineStr"/>
-      <c r="H2690" t="n">
-        <v>3</v>
+      <c r="G2690" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H2690" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2691">
@@ -86846,19 +86970,21 @@
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
       <c r="E2691" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="n">
-        <v>3</v>
+      <c r="H2691" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2692">
@@ -86869,134 +86995,148 @@
       </c>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
       <c r="E2692" t="inlineStr">
         <is>
-          <t>2.705%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="n">
-        <v>3</v>
+      <c r="H2692" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2693" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2693" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2693" t="inlineStr"/>
       <c r="E2693" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="n">
-        <v>3</v>
+      <c r="H2693" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
       <c r="E2694" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>€-172.5B</t>
         </is>
       </c>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
-      <c r="H2694" t="n">
-        <v>3</v>
+      <c r="H2694" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
-      <c r="E2695" t="inlineStr"/>
+      <c r="E2695" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
-      <c r="H2695" t="n">
-        <v>3</v>
+      <c r="H2695" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr"/>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
-      <c r="H2696" t="n">
-        <v>2</v>
+      <c r="H2696" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
@@ -87006,23 +87146,17 @@
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
-      <c r="E2697" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2697" t="inlineStr"/>
       <c r="F2697" t="inlineStr"/>
-      <c r="G2697" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2697" t="n">
-        <v>3</v>
+      <c r="G2697" t="inlineStr"/>
+      <c r="H2697" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2698">
@@ -87038,23 +87172,25 @@
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
       <c r="E2698" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2698" t="inlineStr"/>
       <c r="G2698" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2698" t="n">
-        <v>3</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2698" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2699">
@@ -87065,80 +87201,90 @@
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
       <c r="E2699" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr"/>
-      <c r="H2699" t="n">
-        <v>2</v>
+      <c r="G2699" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="H2699" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="n">
-        <v>3</v>
+      <c r="H2700" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
       <c r="E2701" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="n">
-        <v>3</v>
+      <c r="H2701" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2702">
@@ -87149,24 +87295,26 @@
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
-      <c r="G2702" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="H2702" t="n">
-        <v>1</v>
+      <c r="G2702" t="inlineStr"/>
+      <c r="H2702" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2703">
@@ -87182,23 +87330,21 @@
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
-      <c r="E2703" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2703" t="inlineStr"/>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2703" t="n">
-        <v>2</v>
+          <t>7.6M</t>
+        </is>
+      </c>
+      <c r="H2703" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2704">
@@ -87214,23 +87360,25 @@
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
       <c r="E2704" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2704" t="n">
-        <v>3</v>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2704" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2705">
@@ -87246,21 +87394,31 @@
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
-      <c r="E2705" t="inlineStr"/>
+      <c r="E2705" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="n">
-        <v>3</v>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H2705" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:40 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
@@ -87270,25 +87428,23 @@
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
-      <c r="E2706" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2706" t="inlineStr"/>
       <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr"/>
-      <c r="H2706" t="n">
-        <v>3</v>
+      <c r="H2706" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:40 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
@@ -87298,35 +87454,47 @@
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
-      <c r="E2707" t="inlineStr"/>
+      <c r="E2707" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
-      <c r="H2707" t="n">
-        <v>2</v>
+      <c r="H2707" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2708">
-      <c r="A2708" t="inlineStr"/>
+      <c r="A2708" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
       <c r="B2708" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
       <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
-      <c r="H2708" t="n">
-        <v>2</v>
+      <c r="H2708" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2709">
@@ -87338,15 +87506,17 @@
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr"/>
       <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr"/>
-      <c r="H2709" t="n">
-        <v>2</v>
+      <c r="H2709" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2710">
@@ -87358,149 +87528,157 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
       <c r="G2710" t="inlineStr"/>
-      <c r="H2710" t="n">
-        <v>2</v>
+      <c r="H2710" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2711">
       <c r="A2711" t="inlineStr"/>
       <c r="B2711" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
+      <c r="E2711" t="inlineStr"/>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
-      <c r="H2711" t="n">
-        <v>2</v>
+      <c r="H2711" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2712">
-      <c r="A2712" t="inlineStr">
-        <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2712" t="inlineStr"/>
-      <c r="C2712" t="inlineStr"/>
+      <c r="A2712" t="inlineStr"/>
+      <c r="B2712" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2712" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexJAN</t>
+        </is>
+      </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
       <c r="G2712" t="inlineStr"/>
-      <c r="H2712" t="inlineStr"/>
+      <c r="H2712" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2713" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2713" t="inlineStr">
-        <is>
-          <t>Fed Daly Speech</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2713" t="inlineStr"/>
+      <c r="C2713" t="inlineStr"/>
       <c r="D2713" t="inlineStr"/>
       <c r="E2713" t="inlineStr"/>
       <c r="F2713" t="inlineStr"/>
       <c r="G2713" t="inlineStr"/>
-      <c r="H2713" t="n">
-        <v>2</v>
-      </c>
+      <c r="H2713" t="inlineStr"/>
     </row>
     <row r="2714">
       <c r="A2714" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr"/>
       <c r="F2714" t="inlineStr"/>
       <c r="G2714" t="inlineStr"/>
-      <c r="H2714" t="n">
-        <v>3</v>
+      <c r="H2714" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2715">
       <c r="A2715" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2715" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2715" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="n">
-        <v>2</v>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2716">
       <c r="A2716" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
       <c r="E2716" t="inlineStr"/>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
-      <c r="H2716" t="n">
-        <v>2</v>
+      <c r="H2716" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2717">
@@ -87516,43 +87694,43 @@
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
       <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
-      <c r="H2717" t="n">
-        <v>3</v>
+      <c r="H2717" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2718">
       <c r="A2718" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
-      <c r="E2718" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E2718" t="inlineStr"/>
       <c r="F2718" t="inlineStr"/>
       <c r="G2718" t="inlineStr"/>
-      <c r="H2718" t="n">
-        <v>2</v>
+      <c r="H2718" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2719">
@@ -87568,75 +87746,81 @@
       </c>
       <c r="C2719" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2719" t="inlineStr"/>
       <c r="E2719" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="n">
-        <v>3</v>
+      <c r="H2719" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
-      <c r="E2720" t="inlineStr"/>
+      <c r="E2720" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2720" t="inlineStr"/>
-      <c r="G2720" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="H2720" t="n">
-        <v>3</v>
+      <c r="G2720" t="inlineStr"/>
+      <c r="H2720" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
-      <c r="E2721" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="E2721" t="inlineStr"/>
       <c r="F2721" t="inlineStr"/>
-      <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="n">
-        <v>3</v>
+      <c r="G2721" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="H2721" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2722">
@@ -87647,32 +87831,26 @@
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
       <c r="E2722" t="inlineStr">
         <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2722" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2722" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="H2722" t="n">
-        <v>2</v>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F2722" t="inlineStr"/>
+      <c r="G2722" t="inlineStr"/>
+      <c r="H2722" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2723">
@@ -87688,23 +87866,29 @@
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
       <c r="E2723" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2723" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2723" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="G2723" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="H2723" t="n">
-        <v>3</v>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="H2723" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2724">
@@ -87715,56 +87899,60 @@
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
       <c r="E2724" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="F2724" t="inlineStr"/>
-      <c r="G2724" t="inlineStr"/>
-      <c r="H2724" t="n">
-        <v>3</v>
+      <c r="G2724" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="H2724" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
       <c r="E2725" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2725" t="inlineStr"/>
-      <c r="G2725" t="inlineStr">
-        <is>
-          <t>51.8</t>
-        </is>
-      </c>
-      <c r="H2725" t="n">
-        <v>2</v>
+      <c r="G2725" t="inlineStr"/>
+      <c r="H2725" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2726">
@@ -87780,51 +87968,59 @@
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
       <c r="E2726" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="H2726" t="n">
-        <v>3</v>
+          <t>51.8</t>
+        </is>
+      </c>
+      <c r="H2726" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr"/>
+      <c r="E2727" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2727" t="n">
-        <v>2</v>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="H2727" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2728">
@@ -87840,7 +88036,7 @@
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
@@ -87851,8 +88047,10 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2728" t="n">
-        <v>3</v>
+      <c r="H2728" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2729">
@@ -87868,7 +88066,7 @@
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
@@ -87876,47 +88074,43 @@
       <c r="F2729" t="inlineStr"/>
       <c r="G2729" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2729" t="n">
-        <v>3</v>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="H2729" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr">
-        <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2730" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+      <c r="E2730" t="inlineStr"/>
+      <c r="F2730" t="inlineStr"/>
       <c r="G2730" t="inlineStr">
         <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="H2730" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2730" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2731">
@@ -87932,27 +88126,29 @@
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
       <c r="E2731" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="F2731" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="G2731" t="inlineStr">
         <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="H2731" t="n">
-        <v>3</v>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="H2731" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2732">
@@ -87963,28 +88159,34 @@
       </c>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
       <c r="E2732" t="inlineStr">
         <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="F2732" t="inlineStr"/>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2732" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="G2732" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2732" t="n">
-        <v>3</v>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="H2732" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2733">
@@ -88000,51 +88202,59 @@
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
       <c r="E2733" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr">
         <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H2733" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2733" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2734">
       <c r="A2734" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2734" t="inlineStr"/>
       <c r="E2734" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2734" t="inlineStr"/>
-      <c r="G2734" t="inlineStr"/>
-      <c r="H2734" t="n">
-        <v>3</v>
+      <c r="G2734" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H2734" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2735">
@@ -88060,107 +88270,115 @@
       </c>
       <c r="C2735" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2735" t="inlineStr"/>
       <c r="E2735" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2735" t="inlineStr"/>
       <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="n">
-        <v>3</v>
+      <c r="H2735" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>12:45 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2736" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2736" t="inlineStr"/>
       <c r="E2736" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2736" t="inlineStr"/>
       <c r="G2736" t="inlineStr"/>
-      <c r="H2736" t="n">
-        <v>3</v>
+      <c r="H2736" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2737">
       <c r="A2737" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B2737" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2737" t="inlineStr"/>
       <c r="E2737" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2737" t="n">
-        <v>2</v>
+      <c r="G2737" t="inlineStr"/>
+      <c r="H2737" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2738">
       <c r="A2738" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2738" t="inlineStr"/>
       <c r="E2738" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="n">
-        <v>2</v>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2738" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2739">
@@ -88176,30 +88394,32 @@
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2739" t="inlineStr"/>
       <c r="E2739" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2739" t="inlineStr"/>
       <c r="G2739" t="inlineStr"/>
-      <c r="H2739" t="n">
-        <v>3</v>
+      <c r="H2739" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2740">
       <c r="A2740" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
@@ -88210,13 +88430,15 @@
       <c r="D2740" t="inlineStr"/>
       <c r="E2740" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F2740" t="inlineStr"/>
       <c r="G2740" t="inlineStr"/>
-      <c r="H2740" t="n">
-        <v>2</v>
+      <c r="H2740" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2741">
@@ -88232,55 +88454,51 @@
       </c>
       <c r="C2741" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2741" t="inlineStr"/>
       <c r="E2741" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="n">
-        <v>2</v>
+      <c r="H2741" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2742">
       <c r="A2742" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2742" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2742" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2742" t="inlineStr"/>
       <c r="E2742" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2742" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2742" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="H2742" t="n">
-        <v>2</v>
+          <t>50.7</t>
+        </is>
+      </c>
+      <c r="F2742" t="inlineStr"/>
+      <c r="G2742" t="inlineStr"/>
+      <c r="H2742" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2743">
@@ -88296,38 +88514,40 @@
       </c>
       <c r="C2743" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2743" t="inlineStr"/>
       <c r="E2743" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2743" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="G2743" t="inlineStr">
         <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="H2743" t="n">
-        <v>3</v>
+          <t>48.9</t>
+        </is>
+      </c>
+      <c r="H2743" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2744">
       <c r="A2744" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2744" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2744" t="inlineStr">
@@ -88338,21 +88558,23 @@
       <c r="D2744" t="inlineStr"/>
       <c r="E2744" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="F2744" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="G2744" t="inlineStr">
         <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="H2744" t="n">
-        <v>2</v>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="H2744" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2745">
@@ -88368,63 +88590,67 @@
       </c>
       <c r="C2745" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2745" t="inlineStr"/>
       <c r="E2745" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F2745" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2745" t="inlineStr">
         <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="H2745" t="n">
-        <v>2</v>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="H2745" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2746">
       <c r="A2746" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2746" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2746" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2746" t="inlineStr"/>
       <c r="E2746" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2746" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="G2746" t="inlineStr">
         <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="H2746" t="n">
-        <v>2</v>
+          <t>52.5</t>
+        </is>
+      </c>
+      <c r="H2746" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2747">
@@ -88440,27 +88666,29 @@
       </c>
       <c r="C2747" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2747" t="inlineStr"/>
       <c r="E2747" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="F2747" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="G2747" t="inlineStr">
         <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H2747" t="n">
-        <v>2</v>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="H2747" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2748">
@@ -88471,28 +88699,34 @@
       </c>
       <c r="B2748" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2748" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2748" t="inlineStr"/>
       <c r="E2748" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2748" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2748" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G2748" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2748" t="n">
-        <v>2</v>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2748" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2749">
@@ -88508,23 +88742,25 @@
       </c>
       <c r="C2749" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2749" t="inlineStr"/>
       <c r="E2749" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2749" t="inlineStr"/>
       <c r="G2749" t="inlineStr">
         <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H2749" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2749" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2750">
@@ -88535,34 +88771,36 @@
       </c>
       <c r="B2750" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2750" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2750" t="inlineStr"/>
       <c r="E2750" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F2750" t="inlineStr"/>
       <c r="G2750" t="inlineStr">
         <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="H2750" t="n">
-        <v>3</v>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H2750" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2751">
       <c r="A2751" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2751" t="inlineStr">
@@ -88572,27 +88810,25 @@
       </c>
       <c r="C2751" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2751" t="inlineStr"/>
       <c r="E2751" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2751" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F2751" t="inlineStr"/>
       <c r="G2751" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="H2751" t="n">
-        <v>2</v>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="H2751" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2752">
@@ -88608,59 +88844,67 @@
       </c>
       <c r="C2752" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2752" t="inlineStr"/>
       <c r="E2752" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2752" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="G2752" t="inlineStr">
         <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="H2752" t="n">
-        <v>3</v>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="H2752" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2753">
       <c r="A2753" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2753" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2753" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2753" t="inlineStr"/>
       <c r="E2753" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2753" t="inlineStr">
+        <is>
+          <t>50.9</t>
+        </is>
+      </c>
       <c r="G2753" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2753" t="n">
-        <v>3</v>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="H2753" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2754">
@@ -88676,23 +88920,25 @@
       </c>
       <c r="C2754" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2754" t="inlineStr"/>
       <c r="E2754" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2754" t="inlineStr"/>
       <c r="G2754" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="H2754" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2754" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2755">
@@ -88703,52 +88949,60 @@
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2755" t="inlineStr"/>
       <c r="E2755" t="inlineStr">
         <is>
-          <t>4.831%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2755" t="inlineStr"/>
-      <c r="G2755" t="inlineStr"/>
-      <c r="H2755" t="n">
-        <v>3</v>
+      <c r="G2755" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="H2755" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2756">
       <c r="A2756" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2756" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2756" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2756" t="inlineStr"/>
       <c r="E2756" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="n">
-        <v>3</v>
+      <c r="H2756" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2757">
@@ -88764,79 +89018,81 @@
       </c>
       <c r="C2757" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2757" t="inlineStr"/>
       <c r="E2757" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr"/>
-      <c r="H2757" t="n">
-        <v>3</v>
+      <c r="H2757" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2758">
       <c r="A2758" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2758" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2758" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2758" t="inlineStr"/>
       <c r="E2758" t="inlineStr">
         <is>
-          <t>10.1%</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2758" t="inlineStr"/>
       <c r="G2758" t="inlineStr"/>
-      <c r="H2758" t="n">
-        <v>3</v>
+      <c r="H2758" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2759">
       <c r="A2759" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2759" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2759" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2759" t="inlineStr"/>
       <c r="E2759" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2759" t="inlineStr"/>
-      <c r="G2759" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2759" t="n">
-        <v>2</v>
+      <c r="G2759" t="inlineStr"/>
+      <c r="H2759" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2760">
@@ -88852,23 +89108,25 @@
       </c>
       <c r="C2760" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2760" t="inlineStr"/>
       <c r="E2760" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr">
         <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2760" t="n">
-        <v>3</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2760" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2761">
@@ -88879,24 +89137,30 @@
       </c>
       <c r="B2761" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2761" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2761" t="inlineStr"/>
       <c r="E2761" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2761" t="inlineStr"/>
-      <c r="G2761" t="inlineStr"/>
-      <c r="H2761" t="n">
-        <v>3</v>
+      <c r="G2761" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="H2761" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2762">
@@ -88912,19 +89176,21 @@
       </c>
       <c r="C2762" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2762" t="inlineStr"/>
       <c r="E2762" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2762" t="inlineStr"/>
       <c r="G2762" t="inlineStr"/>
-      <c r="H2762" t="n">
-        <v>3</v>
+      <c r="H2762" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2763">
@@ -88935,20 +89201,26 @@
       </c>
       <c r="B2763" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2763" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2763" t="inlineStr"/>
-      <c r="E2763" t="inlineStr"/>
+      <c r="E2763" t="inlineStr">
+        <is>
+          <t>-2.6%</t>
+        </is>
+      </c>
       <c r="F2763" t="inlineStr"/>
       <c r="G2763" t="inlineStr"/>
-      <c r="H2763" t="n">
-        <v>2</v>
+      <c r="H2763" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2764">
@@ -88964,15 +89236,17 @@
       </c>
       <c r="C2764" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2764" t="inlineStr"/>
       <c r="E2764" t="inlineStr"/>
       <c r="F2764" t="inlineStr"/>
       <c r="G2764" t="inlineStr"/>
-      <c r="H2764" t="n">
-        <v>3</v>
+      <c r="H2764" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2765">
@@ -88988,15 +89262,17 @@
       </c>
       <c r="C2765" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2765" t="inlineStr"/>
       <c r="E2765" t="inlineStr"/>
       <c r="F2765" t="inlineStr"/>
       <c r="G2765" t="inlineStr"/>
-      <c r="H2765" t="n">
-        <v>3</v>
+      <c r="H2765" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2766">
@@ -89012,15 +89288,17 @@
       </c>
       <c r="C2766" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2766" t="inlineStr"/>
       <c r="E2766" t="inlineStr"/>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr"/>
-      <c r="H2766" t="n">
-        <v>3</v>
+      <c r="H2766" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2767">
@@ -89036,47 +89314,43 @@
       </c>
       <c r="C2767" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2767" t="inlineStr"/>
       <c r="E2767" t="inlineStr"/>
       <c r="F2767" t="inlineStr"/>
       <c r="G2767" t="inlineStr"/>
-      <c r="H2767" t="n">
-        <v>3</v>
+      <c r="H2767" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2768">
       <c r="A2768" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2768" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2768" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2768" t="inlineStr"/>
-      <c r="E2768" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2768" t="inlineStr"/>
       <c r="F2768" t="inlineStr"/>
-      <c r="G2768" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="H2768" t="n">
-        <v>2</v>
+      <c r="G2768" t="inlineStr"/>
+      <c r="H2768" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2769">
@@ -89092,83 +89366,89 @@
       </c>
       <c r="C2769" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2769" t="inlineStr"/>
       <c r="E2769" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H2769" t="n">
-        <v>3</v>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="H2769" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2770">
       <c r="A2770" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2770" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2770" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2770" t="inlineStr"/>
       <c r="E2770" t="inlineStr">
         <is>
-          <t>122K</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2770" t="inlineStr"/>
-      <c r="G2770" t="inlineStr"/>
-      <c r="H2770" t="n">
-        <v>2</v>
+      <c r="G2770" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H2770" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2771">
       <c r="A2771" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2771" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2771" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2771" t="inlineStr"/>
       <c r="E2771" t="inlineStr">
         <is>
-          <t>C$-0.32B</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2771" t="inlineStr"/>
-      <c r="G2771" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
-      <c r="H2771" t="n">
-        <v>1</v>
+      <c r="G2771" t="inlineStr"/>
+      <c r="H2771" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2772">
@@ -89184,23 +89464,25 @@
       </c>
       <c r="C2772" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2772" t="inlineStr"/>
       <c r="E2772" t="inlineStr">
         <is>
-          <t>C$66.11B</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2772" t="inlineStr"/>
       <c r="G2772" t="inlineStr">
         <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
-      <c r="H2772" t="n">
-        <v>3</v>
+          <t>C$ -1.6B</t>
+        </is>
+      </c>
+      <c r="H2772" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2773">
@@ -89216,23 +89498,25 @@
       </c>
       <c r="C2773" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2773" t="inlineStr"/>
       <c r="E2773" t="inlineStr">
         <is>
-          <t>C$66.43B</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2773" t="inlineStr"/>
       <c r="G2773" t="inlineStr">
         <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
-      <c r="H2773" t="n">
-        <v>3</v>
+          <t>C$ 65.8B</t>
+        </is>
+      </c>
+      <c r="H2773" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2774">
@@ -89243,28 +89527,30 @@
       </c>
       <c r="B2774" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2774" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2774" t="inlineStr"/>
       <c r="E2774" t="inlineStr">
         <is>
-          <t>$-78.2B</t>
+          <t>C$66.43B</t>
         </is>
       </c>
       <c r="F2774" t="inlineStr"/>
       <c r="G2774" t="inlineStr">
         <is>
-          <t>$ -68B</t>
-        </is>
-      </c>
-      <c r="H2774" t="n">
-        <v>2</v>
+          <t>C$ 64.5B</t>
+        </is>
+      </c>
+      <c r="H2774" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2775">
@@ -89280,23 +89566,25 @@
       </c>
       <c r="C2775" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2775" t="inlineStr"/>
       <c r="E2775" t="inlineStr">
         <is>
-          <t>$273.4B</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr">
         <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
-      <c r="H2775" t="n">
-        <v>2</v>
+          <t>$ -68B</t>
+        </is>
+      </c>
+      <c r="H2775" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2776">
@@ -89312,23 +89600,25 @@
       </c>
       <c r="C2776" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2776" t="inlineStr"/>
       <c r="E2776" t="inlineStr">
         <is>
-          <t>$351.6B</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr">
         <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
-      <c r="H2776" t="n">
-        <v>2</v>
+          <t>$ 275.0B</t>
+        </is>
+      </c>
+      <c r="H2776" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2777">
@@ -89344,47 +89634,51 @@
       </c>
       <c r="C2777" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2777" t="inlineStr"/>
-      <c r="E2777" t="inlineStr"/>
+      <c r="E2777" t="inlineStr">
+        <is>
+          <t>$351.6B</t>
+        </is>
+      </c>
       <c r="F2777" t="inlineStr"/>
-      <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="n">
-        <v>3</v>
+      <c r="G2777" t="inlineStr">
+        <is>
+          <t>$ 338B</t>
+        </is>
+      </c>
+      <c r="H2777" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2778">
       <c r="A2778" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2778" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2778" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2778" t="inlineStr"/>
-      <c r="E2778" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2778" t="inlineStr"/>
       <c r="F2778" t="inlineStr"/>
-      <c r="G2778" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
-      <c r="H2778" t="n">
-        <v>3</v>
+      <c r="G2778" t="inlineStr"/>
+      <c r="H2778" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2779">
@@ -89400,59 +89694,59 @@
       </c>
       <c r="C2779" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2779" t="inlineStr"/>
       <c r="E2779" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="H2779" t="n">
-        <v>3</v>
+          <t>48.5</t>
+        </is>
+      </c>
+      <c r="H2779" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2780">
       <c r="A2780" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2780" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2780" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2780" t="inlineStr"/>
       <c r="E2780" t="inlineStr">
         <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2780" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr">
         <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="H2780" t="n">
-        <v>2</v>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H2780" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2781">
@@ -89468,33 +89762,35 @@
       </c>
       <c r="C2781" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2781" t="inlineStr"/>
       <c r="E2781" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="F2781" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="G2781" t="inlineStr">
         <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="H2781" t="n">
-        <v>2</v>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="H2781" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2782">
       <c r="A2782" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2782" t="inlineStr">
@@ -89504,15 +89800,29 @@
       </c>
       <c r="C2782" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2782" t="inlineStr"/>
-      <c r="E2782" t="inlineStr"/>
-      <c r="F2782" t="inlineStr"/>
-      <c r="G2782" t="inlineStr"/>
-      <c r="H2782" t="n">
-        <v>1</v>
+      <c r="E2782" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2782" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
+      <c r="G2782" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
+      <c r="H2782" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2783">
@@ -89528,19 +89838,17 @@
       </c>
       <c r="C2783" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2783" t="inlineStr"/>
-      <c r="E2783" t="inlineStr">
-        <is>
-          <t>58.2</t>
-        </is>
-      </c>
+      <c r="E2783" t="inlineStr"/>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="n">
-        <v>3</v>
+      <c r="H2783" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2784">
@@ -89556,19 +89864,21 @@
       </c>
       <c r="C2784" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentJAN</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2784" t="inlineStr"/>
       <c r="E2784" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="n">
-        <v>3</v>
+      <c r="H2784" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2785">
@@ -89584,19 +89894,21 @@
       </c>
       <c r="C2785" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2785" t="inlineStr"/>
       <c r="E2785" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="n">
-        <v>3</v>
+      <c r="H2785" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2786">
@@ -89612,25 +89924,27 @@
       </c>
       <c r="C2786" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2786" t="inlineStr"/>
       <c r="E2786" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="n">
-        <v>3</v>
+      <c r="H2786" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2787">
       <c r="A2787" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2787" t="inlineStr">
@@ -89640,15 +89954,21 @@
       </c>
       <c r="C2787" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2787" t="inlineStr"/>
-      <c r="E2787" t="inlineStr"/>
+      <c r="E2787" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2787" t="inlineStr"/>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="n">
-        <v>2</v>
+      <c r="H2787" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2788">
@@ -89664,15 +89984,17 @@
       </c>
       <c r="C2788" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2788" t="inlineStr"/>
       <c r="E2788" t="inlineStr"/>
       <c r="F2788" t="inlineStr"/>
       <c r="G2788" t="inlineStr"/>
-      <c r="H2788" t="n">
-        <v>2</v>
+      <c r="H2788" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2789">
@@ -89688,15 +90010,17 @@
       </c>
       <c r="C2789" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2789" t="inlineStr"/>
       <c r="E2789" t="inlineStr"/>
       <c r="F2789" t="inlineStr"/>
       <c r="G2789" t="inlineStr"/>
-      <c r="H2789" t="n">
-        <v>3</v>
+      <c r="H2789" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2790">
@@ -89712,15 +90036,17 @@
       </c>
       <c r="C2790" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2790" t="inlineStr"/>
       <c r="E2790" t="inlineStr"/>
       <c r="F2790" t="inlineStr"/>
       <c r="G2790" t="inlineStr"/>
-      <c r="H2790" t="n">
-        <v>3</v>
+      <c r="H2790" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2791">
@@ -89736,15 +90062,17 @@
       </c>
       <c r="C2791" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2791" t="inlineStr"/>
       <c r="E2791" t="inlineStr"/>
       <c r="F2791" t="inlineStr"/>
       <c r="G2791" t="inlineStr"/>
-      <c r="H2791" t="n">
-        <v>3</v>
+      <c r="H2791" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2792">
@@ -89760,15 +90088,17 @@
       </c>
       <c r="C2792" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2792" t="inlineStr"/>
       <c r="E2792" t="inlineStr"/>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
-      <c r="H2792" t="n">
-        <v>3</v>
+      <c r="H2792" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2793">
@@ -89784,15 +90114,17 @@
       </c>
       <c r="C2793" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2793" t="inlineStr"/>
       <c r="E2793" t="inlineStr"/>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
-      <c r="H2793" t="n">
-        <v>3</v>
+      <c r="H2793" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2794">
@@ -89808,15 +90140,17 @@
       </c>
       <c r="C2794" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2794" t="inlineStr"/>
       <c r="E2794" t="inlineStr"/>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="n">
-        <v>3</v>
+      <c r="H2794" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2795">
@@ -89832,43 +90166,43 @@
       </c>
       <c r="C2795" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2795" t="inlineStr"/>
       <c r="E2795" t="inlineStr"/>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="n">
-        <v>3</v>
+      <c r="H2795" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2796">
       <c r="A2796" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2796" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2796" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2796" t="inlineStr"/>
       <c r="E2796" t="inlineStr"/>
       <c r="F2796" t="inlineStr"/>
-      <c r="G2796" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="H2796" t="n">
-        <v>2</v>
+      <c r="G2796" t="inlineStr"/>
+      <c r="H2796" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2797">
@@ -89884,15 +90218,21 @@
       </c>
       <c r="C2797" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2797" t="inlineStr"/>
       <c r="E2797" t="inlineStr"/>
       <c r="F2797" t="inlineStr"/>
-      <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="n">
-        <v>3</v>
+      <c r="G2797" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="H2797" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2798">
@@ -89908,15 +90248,17 @@
       </c>
       <c r="C2798" t="inlineStr">
         <is>
-          <t>Corporate ProfitsNOV</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2798" t="inlineStr"/>
       <c r="E2798" t="inlineStr"/>
       <c r="F2798" t="inlineStr"/>
       <c r="G2798" t="inlineStr"/>
-      <c r="H2798" t="n">
-        <v>3</v>
+      <c r="H2798" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2799">
@@ -89932,23 +90274,17 @@
       </c>
       <c r="C2799" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2799" t="inlineStr"/>
-      <c r="E2799" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
-      <c r="G2799" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H2799" t="n">
-        <v>3</v>
+      <c r="G2799" t="inlineStr"/>
+      <c r="H2799" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2800">
@@ -89964,15 +90300,25 @@
       </c>
       <c r="C2800" t="inlineStr">
         <is>
-          <t>Real Wage Growth YoYNOV</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2800" t="inlineStr"/>
-      <c r="E2800" t="inlineStr"/>
+      <c r="E2800" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2800" t="inlineStr"/>
-      <c r="G2800" t="inlineStr"/>
-      <c r="H2800" t="n">
-        <v>3</v>
+      <c r="G2800" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="H2800" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2801">
@@ -89988,95 +90334,107 @@
       </c>
       <c r="C2801" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2801" t="inlineStr"/>
       <c r="E2801" t="inlineStr"/>
       <c r="F2801" t="inlineStr"/>
-      <c r="G2801" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2801" t="n">
-        <v>3</v>
+      <c r="G2801" t="inlineStr"/>
+      <c r="H2801" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2802">
       <c r="A2802" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2802" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2802" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2802" t="inlineStr"/>
       <c r="E2802" t="inlineStr"/>
       <c r="F2802" t="inlineStr"/>
-      <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="n">
-        <v>3</v>
+      <c r="G2802" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="H2802" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2803">
       <c r="A2803" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2803" t="inlineStr"/>
       <c r="E2803" t="inlineStr"/>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="n">
-        <v>3</v>
+      <c r="H2803" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2804">
       <c r="A2804" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2804" t="inlineStr"/>
       <c r="E2804" t="inlineStr"/>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="n">
-        <v>2</v>
+      <c r="H2804" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2805">
-      <c r="A2805" t="inlineStr"/>
+      <c r="A2805" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B2805" t="inlineStr">
         <is>
           <t>US</t>
@@ -90084,66 +90442,58 @@
       </c>
       <c r="C2805" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2805" t="inlineStr"/>
-      <c r="E2805" t="inlineStr">
-        <is>
-          <t>16.8M</t>
-        </is>
-      </c>
+      <c r="E2805" t="inlineStr"/>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr"/>
-      <c r="H2805" t="n">
-        <v>2</v>
+      <c r="H2805" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2806">
-      <c r="A2806" t="inlineStr">
-        <is>
-          <t>Thursday February 06 2025</t>
-        </is>
-      </c>
-      <c r="B2806" t="inlineStr"/>
-      <c r="C2806" t="inlineStr"/>
+      <c r="A2806" t="inlineStr"/>
+      <c r="B2806" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2806" t="inlineStr">
+        <is>
+          <t>Total Vehicle SalesJAN</t>
+        </is>
+      </c>
       <c r="D2806" t="inlineStr"/>
-      <c r="E2806" t="inlineStr"/>
+      <c r="E2806" t="inlineStr">
+        <is>
+          <t>16.8M</t>
+        </is>
+      </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr"/>
+      <c r="H2806" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2807">
       <c r="A2807" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2807" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2807" t="inlineStr">
-        <is>
-          <t>Ai Group Industry IndexJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 06 2025</t>
+        </is>
+      </c>
+      <c r="B2807" t="inlineStr"/>
+      <c r="C2807" t="inlineStr"/>
       <c r="D2807" t="inlineStr"/>
-      <c r="E2807" t="inlineStr">
-        <is>
-          <t>-10.8</t>
-        </is>
-      </c>
+      <c r="E2807" t="inlineStr"/>
       <c r="F2807" t="inlineStr"/>
-      <c r="G2807" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="H2807" t="n">
-        <v>2</v>
-      </c>
+      <c r="G2807" t="inlineStr"/>
+      <c r="H2807" t="inlineStr"/>
     </row>
     <row r="2808">
       <c r="A2808" t="inlineStr">
@@ -90158,23 +90508,25 @@
       </c>
       <c r="C2808" t="inlineStr">
         <is>
-          <t>Ai Group Construction IndexJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2808" t="inlineStr"/>
       <c r="E2808" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr">
         <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="H2808" t="n">
-        <v>3</v>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="H2808" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2809">
@@ -90190,81 +90542,95 @@
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2809" t="inlineStr"/>
       <c r="E2809" t="inlineStr">
         <is>
-          <t>-17.9</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr">
         <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="H2809" t="n">
-        <v>3</v>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="H2809" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2810">
       <c r="A2810" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2810" t="inlineStr"/>
-      <c r="E2810" t="inlineStr"/>
+      <c r="E2810" t="inlineStr">
+        <is>
+          <t>-17.9</t>
+        </is>
+      </c>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr">
         <is>
-          <t>$ 8.1B</t>
-        </is>
-      </c>
-      <c r="H2810" t="n">
-        <v>3</v>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="H2810" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2811">
       <c r="A2811" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2811" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>Overtime Pay YoYDEC</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2811" t="inlineStr"/>
       <c r="E2811" t="inlineStr"/>
       <c r="F2811" t="inlineStr"/>
-      <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="n">
-        <v>3</v>
+      <c r="G2811" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
+      <c r="H2811" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2812">
       <c r="A2812" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2812" t="inlineStr">
@@ -90274,15 +90640,17 @@
       </c>
       <c r="C2812" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentFEB/01</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2812" t="inlineStr"/>
       <c r="E2812" t="inlineStr"/>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="n">
-        <v>3</v>
+      <c r="H2812" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2813">
@@ -90298,47 +90666,43 @@
       </c>
       <c r="C2813" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersFEB/01</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2813" t="inlineStr"/>
       <c r="E2813" t="inlineStr"/>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="n">
-        <v>3</v>
+      <c r="H2813" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2814">
       <c r="A2814" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2814" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2814" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2814" t="inlineStr"/>
-      <c r="E2814" t="inlineStr">
-        <is>
-          <t>A$7.079B</t>
-        </is>
-      </c>
+      <c r="E2814" t="inlineStr"/>
       <c r="F2814" t="inlineStr"/>
-      <c r="G2814" t="inlineStr">
-        <is>
-          <t>A$ 3.2B</t>
-        </is>
-      </c>
-      <c r="H2814" t="n">
-        <v>1</v>
+      <c r="G2814" t="inlineStr"/>
+      <c r="H2814" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2815">
@@ -90354,19 +90718,25 @@
       </c>
       <c r="C2815" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2815" t="inlineStr"/>
       <c r="E2815" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>A$7.079B</t>
         </is>
       </c>
       <c r="F2815" t="inlineStr"/>
-      <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="n">
-        <v>3</v>
+      <c r="G2815" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
+      <c r="H2815" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2816">
@@ -90382,47 +90752,51 @@
       </c>
       <c r="C2816" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2816" t="inlineStr"/>
       <c r="E2816" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="n">
-        <v>3</v>
+      <c r="H2816" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2817">
       <c r="A2817" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>30-Year JGB Auction</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2817" t="inlineStr"/>
       <c r="E2817" t="inlineStr">
         <is>
-          <t>2.304%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="n">
-        <v>3</v>
+      <c r="H2817" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2818">
@@ -90438,79 +90812,85 @@
       </c>
       <c r="C2818" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2818" t="inlineStr"/>
       <c r="E2818" t="inlineStr">
         <is>
-          <t>0.3535%</t>
+          <t>2.304%</t>
         </is>
       </c>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="n">
-        <v>3</v>
+      <c r="H2818" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2819">
       <c r="A2819" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2819" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2819" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2819" t="inlineStr"/>
       <c r="E2819" t="inlineStr">
         <is>
-          <t>-5.4%</t>
+          <t>0.3535%</t>
         </is>
       </c>
       <c r="F2819" t="inlineStr"/>
-      <c r="G2819" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2819" t="n">
-        <v>2</v>
+      <c r="G2819" t="inlineStr"/>
+      <c r="H2819" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2820">
       <c r="A2820" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2820" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2820" t="inlineStr"/>
       <c r="E2820" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>-5.4%</t>
         </is>
       </c>
       <c r="F2820" t="inlineStr"/>
-      <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="n">
-        <v>3</v>
+      <c r="G2820" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2820" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2821">
@@ -90521,7 +90901,7 @@
       </c>
       <c r="B2821" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2821" t="inlineStr">
@@ -90532,13 +90912,15 @@
       <c r="D2821" t="inlineStr"/>
       <c r="E2821" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="n">
-        <v>3</v>
+      <c r="H2821" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2822">
@@ -90549,7 +90931,7 @@
       </c>
       <c r="B2822" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2822" t="inlineStr">
@@ -90560,13 +90942,15 @@
       <c r="D2822" t="inlineStr"/>
       <c r="E2822" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="n">
-        <v>2</v>
+      <c r="H2822" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2823">
@@ -90577,7 +90961,7 @@
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
@@ -90588,77 +90972,79 @@
       <c r="D2823" t="inlineStr"/>
       <c r="E2823" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="n">
-        <v>3</v>
+      <c r="H2823" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2824">
       <c r="A2824" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
         <is>
-          <t>S&amp;P Global Construction PMIJAN</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2824" t="inlineStr"/>
       <c r="E2824" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2824" t="inlineStr"/>
-      <c r="G2824" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="H2824" t="n">
-        <v>2</v>
+      <c r="G2824" t="inlineStr"/>
+      <c r="H2824" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2825">
       <c r="A2825" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>S&amp;P Global Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2825" t="inlineStr"/>
       <c r="E2825" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2825" t="n">
-        <v>2</v>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="H2825" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2826">
@@ -90674,23 +91060,25 @@
       </c>
       <c r="C2826" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2826" t="inlineStr"/>
       <c r="E2826" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H2826" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2826" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2827">
@@ -90701,72 +91089,82 @@
       </c>
       <c r="B2827" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2827" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2827" t="inlineStr"/>
-      <c r="E2827" t="inlineStr"/>
+      <c r="E2827" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F2827" t="inlineStr"/>
-      <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="n">
-        <v>3</v>
+      <c r="G2827" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
+      <c r="H2827" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2828">
       <c r="A2828" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2828" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2828" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D2828" t="inlineStr"/>
       <c r="E2828" t="inlineStr"/>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="n">
-        <v>3</v>
+      <c r="H2828" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2829">
       <c r="A2829" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2829" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2829" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2829" t="inlineStr"/>
-      <c r="E2829" t="inlineStr">
-        <is>
-          <t>47.1</t>
-        </is>
-      </c>
+      <c r="E2829" t="inlineStr"/>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="n">
-        <v>2</v>
+      <c r="H2829" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2830">
@@ -90777,32 +91175,26 @@
       </c>
       <c r="B2830" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2830" t="inlineStr">
         <is>
-          <t>BoE Interest Rate Decision</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2830" t="inlineStr"/>
       <c r="E2830" t="inlineStr">
         <is>
-          <t>4.75%</t>
-        </is>
-      </c>
-      <c r="F2830" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2830" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H2830" t="n">
-        <v>1</v>
+          <t>47.1</t>
+        </is>
+      </c>
+      <c r="F2830" t="inlineStr"/>
+      <c r="G2830" t="inlineStr"/>
+      <c r="H2830" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2831">
@@ -90818,15 +91210,29 @@
       </c>
       <c r="C2831" t="inlineStr">
         <is>
-          <t>BoE Monetary Policy Report</t>
+          <t>BoE Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2831" t="inlineStr"/>
-      <c r="E2831" t="inlineStr"/>
-      <c r="F2831" t="inlineStr"/>
-      <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="n">
-        <v>2</v>
+      <c r="E2831" t="inlineStr">
+        <is>
+          <t>4.75%</t>
+        </is>
+      </c>
+      <c r="F2831" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="G2831" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="H2831" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2832">
@@ -90842,15 +91248,17 @@
       </c>
       <c r="C2832" t="inlineStr">
         <is>
-          <t>BoE MPC Vote Cut</t>
+          <t>BoE Monetary Policy Report</t>
         </is>
       </c>
       <c r="D2832" t="inlineStr"/>
       <c r="E2832" t="inlineStr"/>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="n">
-        <v>2</v>
+      <c r="H2832" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2833">
@@ -90866,15 +91274,17 @@
       </c>
       <c r="C2833" t="inlineStr">
         <is>
-          <t>BoE MPC Vote Hike</t>
+          <t>BoE MPC Vote Cut</t>
         </is>
       </c>
       <c r="D2833" t="inlineStr"/>
       <c r="E2833" t="inlineStr"/>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="n">
-        <v>2</v>
+      <c r="H2833" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2834">
@@ -90890,15 +91300,17 @@
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>BoE MPC Vote Unchanged</t>
+          <t>BoE MPC Vote Hike</t>
         </is>
       </c>
       <c r="D2834" t="inlineStr"/>
       <c r="E2834" t="inlineStr"/>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="n">
-        <v>2</v>
+      <c r="H2834" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2835">
@@ -90914,49 +91326,49 @@
       </c>
       <c r="C2835" t="inlineStr">
         <is>
-          <t>MPC Meeting Minutes</t>
+          <t>BoE MPC Vote Unchanged</t>
         </is>
       </c>
       <c r="D2835" t="inlineStr"/>
       <c r="E2835" t="inlineStr"/>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="n">
-        <v>2</v>
+      <c r="H2835" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2836">
       <c r="A2836" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2836" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2836" t="inlineStr">
         <is>
-          <t>Challenger Job CutsJAN</t>
+          <t>MPC Meeting Minutes</t>
         </is>
       </c>
       <c r="D2836" t="inlineStr"/>
-      <c r="E2836" t="inlineStr">
-        <is>
-          <t>38.792K</t>
-        </is>
-      </c>
+      <c r="E2836" t="inlineStr"/>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="n">
-        <v>3</v>
+      <c r="H2836" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2837">
       <c r="A2837" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2837" t="inlineStr">
@@ -90966,15 +91378,21 @@
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsFEB/01</t>
+          <t>Challenger Job CutsJAN</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr"/>
-      <c r="E2837" t="inlineStr"/>
+      <c r="E2837" t="inlineStr">
+        <is>
+          <t>38.792K</t>
+        </is>
+      </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="n">
-        <v>2</v>
+      <c r="H2837" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2838">
@@ -90990,19 +91408,17 @@
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Nonfarm Productivity QoQ PrelQ4</t>
+          <t>Initial Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr"/>
-      <c r="E2838" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="E2838" t="inlineStr"/>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="n">
-        <v>2</v>
+      <c r="H2838" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2839">
@@ -91018,19 +91434,21 @@
       </c>
       <c r="C2839" t="inlineStr">
         <is>
-          <t>Unit Labour Costs QoQ PrelQ4</t>
+          <t>Nonfarm Productivity QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2839" t="inlineStr"/>
       <c r="E2839" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="n">
-        <v>2</v>
+      <c r="H2839" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2840">
@@ -91046,15 +91464,21 @@
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/25</t>
+          <t>Unit Labour Costs QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
-      <c r="E2840" t="inlineStr"/>
+      <c r="E2840" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="n">
-        <v>3</v>
+      <c r="H2840" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2841">
@@ -91070,69 +91494,75 @@
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageFEB/01</t>
+          <t>Continuing Jobless ClaimsJAN/25</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
       <c r="E2841" t="inlineStr"/>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="n">
-        <v>3</v>
+      <c r="H2841" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>Ivey PMI s.aJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/01</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr"/>
       <c r="E2842" t="inlineStr"/>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="n">
-        <v>1</v>
+      <c r="H2842" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2843" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/31</t>
+          <t>Ivey PMI s.aJAN</t>
         </is>
       </c>
       <c r="D2843" t="inlineStr"/>
       <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="n">
-        <v>3</v>
+      <c r="H2843" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
@@ -91142,15 +91572,17 @@
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
       <c r="E2844" t="inlineStr"/>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="n">
-        <v>3</v>
+      <c r="H2844" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2845">
@@ -91166,43 +91598,43 @@
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
       <c r="E2845" t="inlineStr"/>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="n">
-        <v>3</v>
+      <c r="H2845" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>10-Year Bond Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
-      <c r="E2846" t="inlineStr">
-        <is>
-          <t>3.358%</t>
-        </is>
-      </c>
+      <c r="E2846" t="inlineStr"/>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="n">
-        <v>3</v>
+      <c r="H2846" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2847">
@@ -91213,20 +91645,26 @@
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateFEB/06</t>
+          <t>10-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
-      <c r="E2847" t="inlineStr"/>
+      <c r="E2847" t="inlineStr">
+        <is>
+          <t>3.358%</t>
+        </is>
+      </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="n">
-        <v>3</v>
+      <c r="H2847" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2848">
@@ -91242,99 +91680,113 @@
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateFEB/06</t>
+          <t>15-Year Mortgage RateFEB/06</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
       <c r="E2848" t="inlineStr"/>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="n">
-        <v>3</v>
+      <c r="H2848" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2849">
-      <c r="A2849" t="inlineStr"/>
+      <c r="A2849" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B2849" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>30-Year Mortgage RateFEB/06</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr"/>
-      <c r="E2849" t="inlineStr">
-        <is>
-          <t>-7.1%</t>
-        </is>
-      </c>
+      <c r="E2849" t="inlineStr"/>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="n">
-        <v>3</v>
+      <c r="H2849" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2850">
       <c r="A2850" t="inlineStr"/>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
-      <c r="E2850" t="inlineStr"/>
+      <c r="E2850" t="inlineStr">
+        <is>
+          <t>-7.1%</t>
+        </is>
+      </c>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="n">
-        <v>3</v>
+      <c r="H2850" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2851">
       <c r="A2851" t="inlineStr"/>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>Global Supply Chain Pressure IndexJAN</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr"/>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="n">
-        <v>3</v>
+      <c r="H2851" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2852">
       <c r="A2852" t="inlineStr"/>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>10-Year NTN-F Auction</t>
+          <t>Global Supply Chain Pressure IndexJAN</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
       <c r="E2852" t="inlineStr"/>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="n">
-        <v>3</v>
+      <c r="H2852" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2853">
@@ -91346,15 +91798,17 @@
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>2-Year LTN Auction</t>
+          <t>10-Year NTN-F Auction</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
       <c r="E2853" t="inlineStr"/>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="n">
-        <v>3</v>
+      <c r="H2853" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2854">
@@ -91366,49 +91820,39 @@
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>6-Month LTN Auction</t>
+          <t>2-Year LTN Auction</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
-      <c r="E2854" t="inlineStr">
-        <is>
-          <t>14.5579%</t>
-        </is>
-      </c>
+      <c r="E2854" t="inlineStr"/>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="n">
-        <v>3</v>
+      <c r="H2854" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2855">
-      <c r="A2855" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
+      <c r="A2855" t="inlineStr"/>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>6-Month LTN Auction</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
       <c r="E2855" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>14.5579%</t>
         </is>
       </c>
       <c r="F2855" t="inlineStr"/>
-      <c r="G2855" t="inlineStr">
-        <is>
-          <t>€ 56.9B</t>
-        </is>
-      </c>
+      <c r="G2855" t="inlineStr"/>
       <c r="H2855" t="inlineStr">
         <is>
           <t>3</t>
@@ -91418,123 +91862,95 @@
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B2856" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2856" t="inlineStr">
-        <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
-        </is>
-      </c>
+          <t>Friday February 07 2025</t>
+        </is>
+      </c>
+      <c r="B2856" t="inlineStr"/>
+      <c r="C2856" t="inlineStr"/>
       <c r="D2856" t="inlineStr"/>
-      <c r="E2856" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2856" t="inlineStr"/>
       <c r="F2856" t="inlineStr"/>
-      <c r="G2856" t="inlineStr">
-        <is>
-          <t>20200%</t>
-        </is>
-      </c>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2856" t="inlineStr"/>
+      <c r="H2856" t="inlineStr"/>
     </row>
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>9.75%</t>
         </is>
       </c>
       <c r="H2857" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
-      <c r="E2858" t="inlineStr">
-        <is>
-          <t>S$506.7B</t>
-        </is>
-      </c>
+      <c r="E2858" t="inlineStr"/>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr"/>
       <c r="H2858" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Fed Balance SheetFEB/05</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
-      <c r="E2859" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
+      <c r="E2859" t="inlineStr"/>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr"/>
       <c r="H2859" t="inlineStr">
@@ -91546,193 +91962,205 @@
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Household Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
       <c r="H2860" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Household Spending YoYDEC</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
-      <c r="E2861" t="inlineStr"/>
+      <c r="E2861" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2861" t="inlineStr"/>
-      <c r="G2861" t="inlineStr"/>
+      <c r="G2861" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H2861" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>$155.7B</t>
         </is>
       </c>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
       <c r="H2862" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
-      <c r="E2863" t="inlineStr">
-        <is>
-          <t>4.83%</t>
-        </is>
-      </c>
+      <c r="E2863" t="inlineStr"/>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
       <c r="H2863" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>RBI Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
-      <c r="E2864" t="inlineStr"/>
+      <c r="E2864" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
       <c r="H2864" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Cash Reserve Ratio</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
       <c r="E2865" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr"/>
       <c r="H2865" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Coincident Index PrelDEC</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr"/>
+      <c r="E2866" t="inlineStr">
+        <is>
+          <t>115.4</t>
+        </is>
+      </c>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr"/>
       <c r="H2866" t="inlineStr">
@@ -91744,23 +92172,31 @@
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Leading Economic Index PrelDEC</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
-      <c r="E2867" t="inlineStr"/>
+      <c r="E2867" t="inlineStr">
+        <is>
+          <t>107.5</t>
+        </is>
+      </c>
       <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr"/>
+      <c r="G2867" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
       <c r="H2867" t="inlineStr">
         <is>
           <t>3</t>
@@ -91770,29 +92206,29 @@
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
       <c r="E2868" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>$65.46B</t>
         </is>
       </c>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>$65.0B</t>
         </is>
       </c>
       <c r="H2868" t="inlineStr">
@@ -91804,95 +92240,99 @@
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>€19.7B</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>€ 22B</t>
         </is>
       </c>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>130%</t>
         </is>
       </c>
       <c r="H2870" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>90.9K</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr"/>
+      <c r="G2871" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H2871" t="inlineStr">
         <is>
           <t>2</t>
@@ -91902,53 +92342,57 @@
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>57.5K</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr"/>
+      <c r="G2872" t="inlineStr">
+        <is>
+          <t>108%</t>
+        </is>
+      </c>
       <c r="H2872" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Halifax House Price Index MoMJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>33.5K</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
@@ -91962,21 +92406,25 @@
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Halifax House Price Index YoYJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
-      <c r="E2874" t="inlineStr"/>
+      <c r="E2874" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr"/>
       <c r="H2874" t="inlineStr">
@@ -91988,207 +92436,223 @@
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Inflation Report</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="E2875" t="inlineStr"/>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr"/>
       <c r="H2875" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>256K</t>
+          <t>€-7.1B</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr"/>
+      <c r="G2876" t="inlineStr">
+        <is>
+          <t>€ -7.2B</t>
+        </is>
+      </c>
       <c r="H2876" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>€-1.7B</t>
         </is>
       </c>
       <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr"/>
+      <c r="G2877" t="inlineStr">
+        <is>
+          <t>€ -2.5B</t>
+        </is>
+      </c>
       <c r="H2877" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>€50.101B</t>
         </is>
       </c>
       <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr"/>
+      <c r="G2878" t="inlineStr">
+        <is>
+          <t>€ 49.7B</t>
+        </is>
+      </c>
       <c r="H2878" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>€275.078B</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr"/>
       <c r="H2879" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>€57.186B</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr"/>
+      <c r="G2880" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
       <c r="H2880" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
-      <c r="G2881" t="inlineStr"/>
+      <c r="G2881" t="inlineStr">
+        <is>
+          <t>20200%</t>
+        </is>
+      </c>
       <c r="H2881" t="inlineStr">
         <is>
           <t>3</t>
@@ -92198,27 +92662,31 @@
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr"/>
+      <c r="G2882" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2882" t="inlineStr">
         <is>
           <t>3</t>
@@ -92228,23 +92696,23 @@
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>S$506.7B</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
@@ -92258,23 +92726,23 @@
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2884" t="inlineStr"/>
@@ -92288,23 +92756,23 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr"/>
@@ -92318,17 +92786,17 @@
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
@@ -92344,77 +92812,77 @@
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>TRY-323.9B</t>
+          <t>0.52%</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr"/>
       <c r="H2887" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr"/>
+      <c r="E2888" t="inlineStr">
+        <is>
+          <t>4.83%</t>
+        </is>
+      </c>
       <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2888" t="inlineStr"/>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
@@ -92423,54 +92891,54 @@
       <c r="G2889" t="inlineStr"/>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr"/>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
@@ -92486,17 +92954,17 @@
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
@@ -92512,27 +92980,31 @@
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
+      <c r="G2893" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="H2893" t="inlineStr">
         <is>
           <t>3</t>
@@ -92542,29 +93014,29 @@
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
       <c r="G2894" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2894" t="inlineStr">
@@ -92576,147 +93048,175 @@
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr"/>
+      <c r="E2895" t="inlineStr">
+        <is>
+          <t>6.7%</t>
+        </is>
+      </c>
       <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr"/>
+      <c r="G2895" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
       <c r="H2895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr"/>
+      <c r="E2896" t="inlineStr">
+        <is>
+          <t>90.9K</t>
+        </is>
+      </c>
       <c r="F2896" t="inlineStr"/>
       <c r="G2896" t="inlineStr"/>
       <c r="H2896" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
-      <c r="E2897" t="inlineStr"/>
+      <c r="E2897" t="inlineStr">
+        <is>
+          <t>57.5K</t>
+        </is>
+      </c>
       <c r="F2897" t="inlineStr"/>
       <c r="G2897" t="inlineStr"/>
       <c r="H2897" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2898">
-      <c r="A2898" t="inlineStr"/>
+      <c r="A2898" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr"/>
+      <c r="E2898" t="inlineStr">
+        <is>
+          <t>33.5K</t>
+        </is>
+      </c>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr"/>
       <c r="H2898" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2899">
-      <c r="A2899" t="inlineStr"/>
+      <c r="A2899" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
+      <c r="E2899" t="inlineStr"/>
       <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
+      <c r="G2899" t="inlineStr"/>
       <c r="H2899" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2900">
-      <c r="A2900" t="inlineStr"/>
+      <c r="A2900" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceJAN</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr"/>
+      <c r="E2900" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2900" t="inlineStr"/>
       <c r="G2900" t="inlineStr"/>
       <c r="H2900" t="inlineStr">
@@ -92726,37 +93226,41 @@
       </c>
     </row>
     <row r="2901">
-      <c r="A2901" t="inlineStr"/>
+      <c r="A2901" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>SACCI Business ConfidenceDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>118.1</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
+      <c r="G2901" t="inlineStr"/>
       <c r="H2901" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2902">
-      <c r="A2902" t="inlineStr"/>
+      <c r="A2902" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B2902" t="inlineStr">
         <is>
           <t>US</t>
@@ -92764,25 +93268,29 @@
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2902" t="inlineStr"/>
       <c r="G2902" t="inlineStr"/>
       <c r="H2902" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2903">
-      <c r="A2903" t="inlineStr"/>
+      <c r="A2903" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B2903" t="inlineStr">
         <is>
           <t>US</t>
@@ -92790,66 +93298,802 @@
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr"/>
       <c r="G2903" t="inlineStr"/>
       <c r="H2903" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2904" t="inlineStr"/>
-      <c r="C2904" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B2904" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2904" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings YoY</t>
+        </is>
+      </c>
       <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr"/>
+      <c r="E2904" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F2904" t="inlineStr"/>
       <c r="G2904" t="inlineStr"/>
-      <c r="H2904" t="inlineStr"/>
+      <c r="H2904" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
       <c r="E2905" t="inlineStr">
         <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="F2905" t="inlineStr"/>
+      <c r="G2905" t="inlineStr"/>
+      <c r="H2905" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B2906" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2906" t="inlineStr">
+        <is>
+          <t>Average Weekly HoursJAN</t>
+        </is>
+      </c>
+      <c r="D2906" t="inlineStr"/>
+      <c r="E2906" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F2906" t="inlineStr"/>
+      <c r="G2906" t="inlineStr"/>
+      <c r="H2906" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B2907" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2907" t="inlineStr">
+        <is>
+          <t>Government PayrollsJAN</t>
+        </is>
+      </c>
+      <c r="D2907" t="inlineStr"/>
+      <c r="E2907" t="inlineStr">
+        <is>
+          <t>33K</t>
+        </is>
+      </c>
+      <c r="F2907" t="inlineStr"/>
+      <c r="G2907" t="inlineStr"/>
+      <c r="H2907" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2908" t="inlineStr">
+        <is>
+          <t>Manufacturing PayrollsJAN</t>
+        </is>
+      </c>
+      <c r="D2908" t="inlineStr"/>
+      <c r="E2908" t="inlineStr">
+        <is>
+          <t>-13K</t>
+        </is>
+      </c>
+      <c r="F2908" t="inlineStr"/>
+      <c r="G2908" t="inlineStr"/>
+      <c r="H2908" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2909" t="inlineStr">
+        <is>
+          <t>Nonfarm Payrolls PrivateJAN</t>
+        </is>
+      </c>
+      <c r="D2909" t="inlineStr"/>
+      <c r="E2909" t="inlineStr">
+        <is>
+          <t>223K</t>
+        </is>
+      </c>
+      <c r="F2909" t="inlineStr"/>
+      <c r="G2909" t="inlineStr"/>
+      <c r="H2909" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2910" t="inlineStr">
+        <is>
+          <t>U-6 Unemployment Rate</t>
+        </is>
+      </c>
+      <c r="D2910" t="inlineStr"/>
+      <c r="E2910" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="F2910" t="inlineStr"/>
+      <c r="G2910" t="inlineStr"/>
+      <c r="H2910" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" t="inlineStr">
+        <is>
+          <t>07:15 PM</t>
+        </is>
+      </c>
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2911" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN</t>
+        </is>
+      </c>
+      <c r="D2911" t="inlineStr"/>
+      <c r="E2911" t="inlineStr"/>
+      <c r="F2911" t="inlineStr"/>
+      <c r="G2911" t="inlineStr"/>
+      <c r="H2911" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B2912" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2912" t="inlineStr">
+        <is>
+          <t>Treasury Cash BalanceJAN</t>
+        </is>
+      </c>
+      <c r="D2912" t="inlineStr"/>
+      <c r="E2912" t="inlineStr">
+        <is>
+          <t>TRY-323.9B</t>
+        </is>
+      </c>
+      <c r="F2912" t="inlineStr"/>
+      <c r="G2912" t="inlineStr"/>
+      <c r="H2912" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2913" t="inlineStr">
+        <is>
+          <t>Full Year GDP Growth2025</t>
+        </is>
+      </c>
+      <c r="D2913" t="inlineStr"/>
+      <c r="E2913" t="inlineStr"/>
+      <c r="F2913" t="inlineStr"/>
+      <c r="G2913" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="H2913" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2914" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2914" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
+        </is>
+      </c>
+      <c r="D2914" t="inlineStr"/>
+      <c r="E2914" t="inlineStr"/>
+      <c r="F2914" t="inlineStr"/>
+      <c r="G2914" t="inlineStr"/>
+      <c r="H2914" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2915" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+        </is>
+      </c>
+      <c r="D2915" t="inlineStr"/>
+      <c r="E2915" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="F2915" t="inlineStr"/>
+      <c r="G2915" t="inlineStr"/>
+      <c r="H2915" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2916" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2916" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelFEB</t>
+        </is>
+      </c>
+      <c r="D2916" t="inlineStr"/>
+      <c r="E2916" t="inlineStr"/>
+      <c r="F2916" t="inlineStr"/>
+      <c r="G2916" t="inlineStr"/>
+      <c r="H2916" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2917" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2917" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelFEB</t>
+        </is>
+      </c>
+      <c r="D2917" t="inlineStr"/>
+      <c r="E2917" t="inlineStr"/>
+      <c r="F2917" t="inlineStr"/>
+      <c r="G2917" t="inlineStr"/>
+      <c r="H2917" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2918" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelFEB</t>
+        </is>
+      </c>
+      <c r="D2918" t="inlineStr"/>
+      <c r="E2918" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F2918" t="inlineStr"/>
+      <c r="G2918" t="inlineStr"/>
+      <c r="H2918" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2919" t="inlineStr">
+        <is>
+          <t>Wholesale Inventories MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2919" t="inlineStr"/>
+      <c r="E2919" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F2919" t="inlineStr"/>
+      <c r="G2919" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2919" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2920" t="inlineStr">
+        <is>
+          <t>Balance of TradeJAN</t>
+        </is>
+      </c>
+      <c r="D2920" t="inlineStr"/>
+      <c r="E2920" t="inlineStr"/>
+      <c r="F2920" t="inlineStr"/>
+      <c r="G2920" t="inlineStr"/>
+      <c r="H2920" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2921" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
+        </is>
+      </c>
+      <c r="D2921" t="inlineStr"/>
+      <c r="E2921" t="inlineStr"/>
+      <c r="F2921" t="inlineStr"/>
+      <c r="G2921" t="inlineStr"/>
+      <c r="H2921" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2922" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
+        </is>
+      </c>
+      <c r="D2922" t="inlineStr"/>
+      <c r="E2922" t="inlineStr"/>
+      <c r="F2922" t="inlineStr"/>
+      <c r="G2922" t="inlineStr"/>
+      <c r="H2922" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" t="inlineStr"/>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C2923" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN</t>
+        </is>
+      </c>
+      <c r="D2923" t="inlineStr"/>
+      <c r="E2923" t="inlineStr"/>
+      <c r="F2923" t="inlineStr"/>
+      <c r="G2923" t="inlineStr"/>
+      <c r="H2923" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" t="inlineStr"/>
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C2924" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN</t>
+        </is>
+      </c>
+      <c r="D2924" t="inlineStr"/>
+      <c r="E2924" t="inlineStr">
+        <is>
+          <t>$3.202T</t>
+        </is>
+      </c>
+      <c r="F2924" t="inlineStr"/>
+      <c r="G2924" t="inlineStr">
+        <is>
+          <t>$3.3T</t>
+        </is>
+      </c>
+      <c r="H2924" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" t="inlineStr"/>
+      <c r="B2925" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C2925" t="inlineStr">
+        <is>
+          <t>SACCI Business ConfidenceJAN</t>
+        </is>
+      </c>
+      <c r="D2925" t="inlineStr"/>
+      <c r="E2925" t="inlineStr"/>
+      <c r="F2925" t="inlineStr"/>
+      <c r="G2925" t="inlineStr"/>
+      <c r="H2925" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" t="inlineStr"/>
+      <c r="B2926" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C2926" t="inlineStr">
+        <is>
+          <t>SACCI Business ConfidenceDEC</t>
+        </is>
+      </c>
+      <c r="D2926" t="inlineStr"/>
+      <c r="E2926" t="inlineStr">
+        <is>
+          <t>118.1</t>
+        </is>
+      </c>
+      <c r="F2926" t="inlineStr"/>
+      <c r="G2926" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="H2926" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" t="inlineStr"/>
+      <c r="B2927" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2927" t="inlineStr">
+        <is>
+          <t>Used Car Prices MoMJAN</t>
+        </is>
+      </c>
+      <c r="D2927" t="inlineStr"/>
+      <c r="E2927" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F2927" t="inlineStr"/>
+      <c r="G2927" t="inlineStr"/>
+      <c r="H2927" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" t="inlineStr"/>
+      <c r="B2928" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2928" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYJAN</t>
+        </is>
+      </c>
+      <c r="D2928" t="inlineStr"/>
+      <c r="E2928" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2928" t="inlineStr"/>
+      <c r="G2928" t="inlineStr"/>
+      <c r="H2928" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" t="inlineStr">
+        <is>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2929" t="inlineStr"/>
+      <c r="C2929" t="inlineStr"/>
+      <c r="D2929" t="inlineStr"/>
+      <c r="E2929" t="inlineStr"/>
+      <c r="F2929" t="inlineStr"/>
+      <c r="G2929" t="inlineStr"/>
+      <c r="H2929" t="inlineStr"/>
+    </row>
+    <row r="2930">
+      <c r="A2930" t="inlineStr">
+        <is>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B2930" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C2930" t="inlineStr">
+        <is>
+          <t>Industrial Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2930" t="inlineStr"/>
+      <c r="E2930" t="inlineStr">
+        <is>
           <t>-1.7%</t>
         </is>
       </c>
-      <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr">
+      <c r="F2930" t="inlineStr"/>
+      <c r="G2930" t="inlineStr">
         <is>
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2905" t="inlineStr">
+      <c r="H2930" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B2931" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2931" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeDEC</t>
+        </is>
+      </c>
+      <c r="D2931" t="inlineStr"/>
+      <c r="E2931" t="inlineStr">
+        <is>
+          <t>$-7.49B</t>
+        </is>
+      </c>
+      <c r="F2931" t="inlineStr"/>
+      <c r="G2931" t="inlineStr">
+        <is>
+          <t>$ 18B</t>
+        </is>
+      </c>
+      <c r="H2931" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2931"/>
+  <dimension ref="A1:H2907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85413,10 +85413,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2640">
@@ -85447,10 +85445,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85481,10 +85477,8 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85519,10 +85513,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85549,10 +85541,8 @@
       </c>
       <c r="F2643" t="inlineStr"/>
       <c r="G2643" t="inlineStr"/>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85579,10 +85569,8 @@
       </c>
       <c r="F2644" t="inlineStr"/>
       <c r="G2644" t="inlineStr"/>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85609,10 +85597,8 @@
       </c>
       <c r="F2645" t="inlineStr"/>
       <c r="G2645" t="inlineStr"/>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2646">
@@ -85639,10 +85625,8 @@
       </c>
       <c r="F2646" t="inlineStr"/>
       <c r="G2646" t="inlineStr"/>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2647">
@@ -85669,10 +85653,8 @@
       </c>
       <c r="F2647" t="inlineStr"/>
       <c r="G2647" t="inlineStr"/>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2648">
@@ -85699,10 +85681,8 @@
       </c>
       <c r="F2648" t="inlineStr"/>
       <c r="G2648" t="inlineStr"/>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85729,10 +85709,8 @@
       </c>
       <c r="F2649" t="inlineStr"/>
       <c r="G2649" t="inlineStr"/>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85759,10 +85737,8 @@
       </c>
       <c r="F2650" t="inlineStr"/>
       <c r="G2650" t="inlineStr"/>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2651">
@@ -85789,10 +85765,8 @@
       </c>
       <c r="F2651" t="inlineStr"/>
       <c r="G2651" t="inlineStr"/>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85815,10 +85789,8 @@
       <c r="E2652" t="inlineStr"/>
       <c r="F2652" t="inlineStr"/>
       <c r="G2652" t="inlineStr"/>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85845,10 +85817,8 @@
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr"/>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2654">
@@ -85875,10 +85845,8 @@
       </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2655">
@@ -85913,10 +85881,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2656">
@@ -85951,10 +85917,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2657">
@@ -85989,10 +85953,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2658">
@@ -86023,10 +85985,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -86061,10 +86021,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2660">
@@ -86087,10 +86045,8 @@
       <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
       <c r="G2660" t="inlineStr"/>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2661">
@@ -86117,10 +86073,8 @@
       </c>
       <c r="F2661" t="inlineStr"/>
       <c r="G2661" t="inlineStr"/>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2662">
@@ -86143,10 +86097,8 @@
       <c r="E2662" t="inlineStr"/>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2663">
@@ -86173,10 +86125,8 @@
       </c>
       <c r="F2663" t="inlineStr"/>
       <c r="G2663" t="inlineStr"/>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2664">
@@ -86203,10 +86153,8 @@
       </c>
       <c r="F2664" t="inlineStr"/>
       <c r="G2664" t="inlineStr"/>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2665">
@@ -86233,10 +86181,8 @@
       </c>
       <c r="F2665" t="inlineStr"/>
       <c r="G2665" t="inlineStr"/>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2666">
@@ -86263,10 +86209,8 @@
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr"/>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2667">
@@ -86293,10 +86237,8 @@
       </c>
       <c r="F2667" t="inlineStr"/>
       <c r="G2667" t="inlineStr"/>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2668">
@@ -86327,10 +86269,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2669">
@@ -86361,10 +86301,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2670">
@@ -86395,10 +86333,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2671">
@@ -86421,10 +86357,8 @@
       <c r="E2671" t="inlineStr"/>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2672">
@@ -86447,10 +86381,8 @@
       <c r="E2672" t="inlineStr"/>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2673">
@@ -86473,10 +86405,8 @@
       <c r="E2673" t="inlineStr"/>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2674">
@@ -86503,10 +86433,8 @@
       </c>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2675">
@@ -86541,10 +86469,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2676">
@@ -86571,10 +86497,8 @@
       </c>
       <c r="F2676" t="inlineStr"/>
       <c r="G2676" t="inlineStr"/>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2677">
@@ -86601,10 +86525,8 @@
       </c>
       <c r="F2677" t="inlineStr"/>
       <c r="G2677" t="inlineStr"/>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2678">
@@ -86635,10 +86557,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -86661,10 +86581,8 @@
       <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2680">
@@ -86687,10 +86605,8 @@
       <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2681">
@@ -86713,10 +86629,8 @@
       <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -86739,10 +86653,8 @@
       <c r="E2682" t="inlineStr"/>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2683">
@@ -86765,10 +86677,8 @@
       <c r="E2683" t="inlineStr"/>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2684">
@@ -86787,10 +86697,8 @@
       <c r="E2684" t="inlineStr"/>
       <c r="F2684" t="inlineStr"/>
       <c r="G2684" t="inlineStr"/>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2685">
@@ -86817,10 +86725,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2686">
@@ -86857,10 +86763,8 @@
       <c r="E2687" t="inlineStr"/>
       <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr"/>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -86887,10 +86791,8 @@
       </c>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr"/>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -86917,10 +86819,8 @@
       </c>
       <c r="F2689" t="inlineStr"/>
       <c r="G2689" t="inlineStr"/>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2690">
@@ -86951,10 +86851,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -86981,10 +86879,8 @@
       </c>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2692">
@@ -87011,10 +86907,8 @@
       </c>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2693">
@@ -87041,10 +86935,8 @@
       </c>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2694">
@@ -87071,10 +86963,8 @@
       </c>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -87101,10 +86991,8 @@
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2696">
@@ -87127,10 +87015,8 @@
       <c r="E2696" t="inlineStr"/>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -87153,10 +87039,8 @@
       <c r="E2697" t="inlineStr"/>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2698">
@@ -87187,10 +87071,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -87221,10 +87103,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -87251,10 +87131,8 @@
       </c>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2701">
@@ -87281,10 +87159,8 @@
       </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2702">
@@ -87311,10 +87187,8 @@
       </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2703">
@@ -87341,10 +87215,8 @@
           <t>7.6M</t>
         </is>
       </c>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2704">
@@ -87375,10 +87247,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2705">
@@ -87409,10 +87279,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2706">
@@ -87435,10 +87303,8 @@
       <c r="E2706" t="inlineStr"/>
       <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr"/>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2707">
@@ -87465,10 +87331,8 @@
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -87491,10 +87355,8 @@
       <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2709">
@@ -87513,10 +87375,8 @@
       <c r="E2709" t="inlineStr"/>
       <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr"/>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2710">
@@ -87535,10 +87395,8 @@
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
       <c r="G2710" t="inlineStr"/>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2711">
@@ -87557,10 +87415,8 @@
       <c r="E2711" t="inlineStr"/>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2712">
@@ -87583,10 +87439,8 @@
       </c>
       <c r="F2712" t="inlineStr"/>
       <c r="G2712" t="inlineStr"/>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2713">
@@ -87623,10 +87477,8 @@
       <c r="E2714" t="inlineStr"/>
       <c r="F2714" t="inlineStr"/>
       <c r="G2714" t="inlineStr"/>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2715">
@@ -87649,10 +87501,8 @@
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2716">
@@ -87675,10 +87525,8 @@
       <c r="E2716" t="inlineStr"/>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2717">
@@ -87701,10 +87549,8 @@
       <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2718">
@@ -87727,10 +87573,8 @@
       <c r="E2718" t="inlineStr"/>
       <c r="F2718" t="inlineStr"/>
       <c r="G2718" t="inlineStr"/>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -87757,10 +87601,8 @@
       </c>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2720">
@@ -87787,10 +87629,8 @@
       </c>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -87817,10 +87657,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2722">
@@ -87847,10 +87685,8 @@
       </c>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -87885,10 +87721,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2724">
@@ -87919,10 +87753,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -87949,10 +87781,8 @@
       </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -87983,10 +87813,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -88017,10 +87845,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -88047,10 +87873,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2729">
@@ -88077,10 +87901,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2730">
@@ -88107,10 +87929,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2731">
@@ -88145,10 +87965,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2732">
@@ -88183,10 +88001,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2733">
@@ -88217,10 +88033,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2734">
@@ -88251,10 +88065,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2735">
@@ -88281,10 +88093,8 @@
       </c>
       <c r="F2735" t="inlineStr"/>
       <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2736">
@@ -88311,10 +88121,8 @@
       </c>
       <c r="F2736" t="inlineStr"/>
       <c r="G2736" t="inlineStr"/>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -88341,10 +88149,8 @@
       </c>
       <c r="F2737" t="inlineStr"/>
       <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -88375,10 +88181,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2739">
@@ -88405,10 +88209,8 @@
       </c>
       <c r="F2739" t="inlineStr"/>
       <c r="G2739" t="inlineStr"/>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2740">
@@ -88435,10 +88237,8 @@
       </c>
       <c r="F2740" t="inlineStr"/>
       <c r="G2740" t="inlineStr"/>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -88465,10 +88265,8 @@
       </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2742">
@@ -88495,10 +88293,8 @@
       </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2743">
@@ -88533,10 +88329,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2744">
@@ -88571,10 +88365,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88609,10 +88401,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2746">
@@ -88647,10 +88437,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2747">
@@ -88685,10 +88473,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2748">
@@ -88723,10 +88509,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2749">
@@ -88757,10 +88541,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2750">
@@ -88791,10 +88573,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -88825,10 +88605,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -88863,10 +88641,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2753">
@@ -88901,10 +88677,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -88935,10 +88709,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -88969,10 +88741,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2756">
@@ -88999,10 +88769,8 @@
       </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -89029,10 +88797,8 @@
       </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr"/>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2758">
@@ -89059,10 +88825,8 @@
       </c>
       <c r="F2758" t="inlineStr"/>
       <c r="G2758" t="inlineStr"/>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2759">
@@ -89089,10 +88853,8 @@
       </c>
       <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr"/>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -89123,10 +88885,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2761">
@@ -89157,10 +88917,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2762">
@@ -89187,10 +88945,8 @@
       </c>
       <c r="F2762" t="inlineStr"/>
       <c r="G2762" t="inlineStr"/>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2763">
@@ -89217,10 +88973,8 @@
       </c>
       <c r="F2763" t="inlineStr"/>
       <c r="G2763" t="inlineStr"/>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2764">
@@ -89243,10 +88997,8 @@
       <c r="E2764" t="inlineStr"/>
       <c r="F2764" t="inlineStr"/>
       <c r="G2764" t="inlineStr"/>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2765">
@@ -89269,10 +89021,8 @@
       <c r="E2765" t="inlineStr"/>
       <c r="F2765" t="inlineStr"/>
       <c r="G2765" t="inlineStr"/>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -89295,10 +89045,8 @@
       <c r="E2766" t="inlineStr"/>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr"/>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -89321,10 +89069,8 @@
       <c r="E2767" t="inlineStr"/>
       <c r="F2767" t="inlineStr"/>
       <c r="G2767" t="inlineStr"/>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2768">
@@ -89347,10 +89093,8 @@
       <c r="E2768" t="inlineStr"/>
       <c r="F2768" t="inlineStr"/>
       <c r="G2768" t="inlineStr"/>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2769">
@@ -89381,10 +89125,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2770">
@@ -89415,10 +89157,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2771">
@@ -89445,10 +89185,8 @@
       </c>
       <c r="F2771" t="inlineStr"/>
       <c r="G2771" t="inlineStr"/>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2772">
@@ -89479,10 +89217,8 @@
           <t>C$ -1.6B</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2773">
@@ -89513,10 +89249,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -89547,10 +89281,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -89581,10 +89313,8 @@
           <t>$ -68B</t>
         </is>
       </c>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2776">
@@ -89615,10 +89345,8 @@
           <t>$ 275.0B</t>
         </is>
       </c>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2777">
@@ -89649,10 +89377,8 @@
           <t>$ 338B</t>
         </is>
       </c>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2778">
@@ -89675,10 +89401,8 @@
       <c r="E2778" t="inlineStr"/>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -89709,10 +89433,8 @@
           <t>48.5</t>
         </is>
       </c>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89743,10 +89465,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -89781,10 +89501,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2782">
@@ -89819,10 +89537,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2783">
@@ -89845,10 +89561,8 @@
       <c r="E2783" t="inlineStr"/>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2784">
@@ -89875,10 +89589,8 @@
       </c>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -89905,10 +89617,8 @@
       </c>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -89935,10 +89645,8 @@
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -89965,10 +89673,8 @@
       </c>
       <c r="F2787" t="inlineStr"/>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -89991,10 +89697,8 @@
       <c r="E2788" t="inlineStr"/>
       <c r="F2788" t="inlineStr"/>
       <c r="G2788" t="inlineStr"/>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2789">
@@ -90017,10 +89721,8 @@
       <c r="E2789" t="inlineStr"/>
       <c r="F2789" t="inlineStr"/>
       <c r="G2789" t="inlineStr"/>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2790">
@@ -90043,10 +89745,8 @@
       <c r="E2790" t="inlineStr"/>
       <c r="F2790" t="inlineStr"/>
       <c r="G2790" t="inlineStr"/>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -90069,10 +89769,8 @@
       <c r="E2791" t="inlineStr"/>
       <c r="F2791" t="inlineStr"/>
       <c r="G2791" t="inlineStr"/>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -90095,10 +89793,8 @@
       <c r="E2792" t="inlineStr"/>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -90121,10 +89817,8 @@
       <c r="E2793" t="inlineStr"/>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -90147,10 +89841,8 @@
       <c r="E2794" t="inlineStr"/>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -90173,10 +89865,8 @@
       <c r="E2795" t="inlineStr"/>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -90199,10 +89889,8 @@
       <c r="E2796" t="inlineStr"/>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -90229,10 +89917,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2798">
@@ -90255,10 +89941,8 @@
       <c r="E2798" t="inlineStr"/>
       <c r="F2798" t="inlineStr"/>
       <c r="G2798" t="inlineStr"/>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -90281,10 +89965,8 @@
       <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -90315,10 +89997,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -90341,10 +90021,8 @@
       <c r="E2801" t="inlineStr"/>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -90371,10 +90049,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -90397,10 +90073,8 @@
       <c r="E2803" t="inlineStr"/>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90423,10 +90097,8 @@
       <c r="E2804" t="inlineStr"/>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2805">
@@ -90449,10 +90121,8 @@
       <c r="E2805" t="inlineStr"/>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr"/>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2806">
@@ -90475,10 +90145,8 @@
       </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2807">
@@ -90523,10 +90191,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2809">
@@ -90557,10 +90223,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -90591,10 +90255,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -90621,10 +90283,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -90647,10 +90307,8 @@
       <c r="E2812" t="inlineStr"/>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -90673,10 +90331,8 @@
       <c r="E2813" t="inlineStr"/>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -90699,10 +90355,8 @@
       <c r="E2814" t="inlineStr"/>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -90733,10 +90387,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2816">
@@ -90763,10 +90415,8 @@
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -90793,10 +90443,8 @@
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -90823,10 +90471,8 @@
       </c>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -90853,10 +90499,8 @@
       </c>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -90887,10 +90531,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2821">
@@ -90917,10 +90559,8 @@
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -90947,10 +90587,8 @@
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -90977,10 +90615,8 @@
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2824">
@@ -91007,10 +90643,8 @@
       </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -91041,10 +90675,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2826">
@@ -91075,10 +90707,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -91109,10 +90739,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2828">
@@ -91135,10 +90763,8 @@
       <c r="E2828" t="inlineStr"/>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -91161,10 +90787,8 @@
       <c r="E2829" t="inlineStr"/>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -91191,10 +90815,8 @@
       </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2831">
@@ -91229,10 +90851,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2832">
@@ -91255,10 +90875,8 @@
       <c r="E2832" t="inlineStr"/>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2833">
@@ -91281,10 +90899,8 @@
       <c r="E2833" t="inlineStr"/>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2834">
@@ -91307,10 +90923,8 @@
       <c r="E2834" t="inlineStr"/>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2835">
@@ -91333,10 +90947,8 @@
       <c r="E2835" t="inlineStr"/>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2836">
@@ -91359,10 +90971,8 @@
       <c r="E2836" t="inlineStr"/>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2837">
@@ -91389,10 +90999,8 @@
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -91415,10 +91023,8 @@
       <c r="E2838" t="inlineStr"/>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2839">
@@ -91445,10 +91051,8 @@
       </c>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2840">
@@ -91475,10 +91079,8 @@
       </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2841">
@@ -91501,10 +91103,8 @@
       <c r="E2841" t="inlineStr"/>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -91527,10 +91127,8 @@
       <c r="E2842" t="inlineStr"/>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2843">
@@ -91553,10 +91151,8 @@
       <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2844">
@@ -91579,10 +91175,8 @@
       <c r="E2844" t="inlineStr"/>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2845">
@@ -91605,10 +91199,8 @@
       <c r="E2845" t="inlineStr"/>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2846">
@@ -91631,10 +91223,8 @@
       <c r="E2846" t="inlineStr"/>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2847">
@@ -91661,10 +91251,8 @@
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -91687,10 +91275,8 @@
       <c r="E2848" t="inlineStr"/>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2849">
@@ -91713,10 +91299,8 @@
       <c r="E2849" t="inlineStr"/>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2850">
@@ -91739,10 +91323,8 @@
       </c>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2851">
@@ -91761,10 +91343,8 @@
       <c r="E2851" t="inlineStr"/>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2852">
@@ -91783,10 +91363,8 @@
       <c r="E2852" t="inlineStr"/>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2853">
@@ -91805,10 +91383,8 @@
       <c r="E2853" t="inlineStr"/>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2854">
@@ -91827,10 +91403,8 @@
       <c r="E2854" t="inlineStr"/>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2855">
@@ -91853,104 +91427,134 @@
       </c>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr"/>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2856" t="inlineStr"/>
-      <c r="C2856" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2856" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2856" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
       <c r="D2856" t="inlineStr"/>
-      <c r="E2856" t="inlineStr"/>
+      <c r="E2856" t="inlineStr">
+        <is>
+          <t>€57.186B</t>
+        </is>
+      </c>
       <c r="F2856" t="inlineStr"/>
-      <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr"/>
+      <c r="G2856" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2856" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>20200%</t>
         </is>
       </c>
       <c r="H2857" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
-      <c r="E2858" t="inlineStr"/>
+      <c r="E2858" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2858" t="inlineStr"/>
-      <c r="G2858" t="inlineStr"/>
+      <c r="G2858" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2858" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
-      <c r="E2859" t="inlineStr"/>
+      <c r="E2859" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr"/>
       <c r="H2859" t="inlineStr">
@@ -91962,89 +91566,81 @@
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
       <c r="H2860" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr"/>
-      <c r="G2861" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2861" t="inlineStr"/>
       <c r="H2861" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
-      <c r="E2862" t="inlineStr">
-        <is>
-          <t>$155.7B</t>
-        </is>
-      </c>
+      <c r="E2862" t="inlineStr"/>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
       <c r="H2862" t="inlineStr">
@@ -92056,147 +91652,139 @@
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
-      <c r="E2863" t="inlineStr"/>
+      <c r="E2863" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
       <c r="H2863" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
       <c r="E2864" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
       <c r="H2864" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="E2865" t="inlineStr"/>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr"/>
       <c r="H2865" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
       <c r="E2866" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr"/>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
-      <c r="E2867" t="inlineStr">
-        <is>
-          <t>107.5</t>
-        </is>
-      </c>
+      <c r="E2867" t="inlineStr"/>
       <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
+      <c r="G2867" t="inlineStr"/>
       <c r="H2867" t="inlineStr">
         <is>
           <t>3</t>
@@ -92206,31 +91794,23 @@
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr">
-        <is>
-          <t>$65.46B</t>
-        </is>
-      </c>
+      <c r="E2868" t="inlineStr"/>
       <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr">
-        <is>
-          <t>$65.0B</t>
-        </is>
-      </c>
+      <c r="G2868" t="inlineStr"/>
       <c r="H2868" t="inlineStr">
         <is>
           <t>3</t>
@@ -92240,159 +91820,155 @@
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
       <c r="E2870" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2870" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2871" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr">
-        <is>
-          <t>108%</t>
-        </is>
-      </c>
+      <c r="G2872" t="inlineStr"/>
       <c r="H2872" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
@@ -92406,23 +91982,23 @@
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
@@ -92436,17 +92012,17 @@
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
@@ -92462,231 +92038,207 @@
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr">
-        <is>
-          <t>€ -7.2B</t>
-        </is>
-      </c>
+      <c r="G2876" t="inlineStr"/>
       <c r="H2876" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr">
-        <is>
-          <t>€ -2.5B</t>
-        </is>
-      </c>
+      <c r="G2877" t="inlineStr"/>
       <c r="H2877" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr">
-        <is>
-          <t>€ 49.7B</t>
-        </is>
-      </c>
+      <c r="G2878" t="inlineStr"/>
       <c r="H2878" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr"/>
       <c r="H2879" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr">
-        <is>
-          <t>€ 56.9B</t>
-        </is>
-      </c>
+      <c r="G2880" t="inlineStr"/>
       <c r="H2880" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
-      <c r="G2881" t="inlineStr">
-        <is>
-          <t>20200%</t>
-        </is>
-      </c>
+      <c r="G2881" t="inlineStr"/>
       <c r="H2881" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="G2882" t="inlineStr"/>
       <c r="H2882" t="inlineStr">
         <is>
           <t>3</t>
@@ -92696,23 +92248,23 @@
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
@@ -92726,23 +92278,23 @@
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2884" t="inlineStr"/>
@@ -92756,23 +92308,23 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr"/>
@@ -92786,21 +92338,25 @@
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr"/>
+      <c r="E2886" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2886" t="inlineStr"/>
       <c r="G2886" t="inlineStr"/>
       <c r="H2886" t="inlineStr">
@@ -92812,137 +92368,137 @@
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
-      <c r="E2887" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2887" t="inlineStr"/>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr"/>
       <c r="H2887" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr"/>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
       <c r="E2889" t="inlineStr"/>
       <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr"/>
+      <c r="G2889" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr">
-        <is>
-          <t>4.21%</t>
-        </is>
-      </c>
+      <c r="E2890" t="inlineStr"/>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr"/>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr"/>
+      <c r="E2891" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr"/>
       <c r="H2891" t="inlineStr">
@@ -92954,17 +92510,17 @@
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
@@ -92980,31 +92536,23 @@
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr">
-        <is>
-          <t>-19.5%</t>
-        </is>
-      </c>
+      <c r="E2893" t="inlineStr"/>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G2893" t="inlineStr"/>
       <c r="H2893" t="inlineStr">
         <is>
           <t>3</t>
@@ -93014,31 +92562,27 @@
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
+      <c r="G2894" t="inlineStr"/>
       <c r="H2894" t="inlineStr">
         <is>
           <t>3</t>
@@ -93048,59 +92592,55 @@
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
       <c r="G2895" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2895" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2896" t="inlineStr"/>
       <c r="F2896" t="inlineStr"/>
       <c r="G2896" t="inlineStr"/>
       <c r="H2896" t="inlineStr">
@@ -93112,77 +92652,65 @@
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
-      <c r="E2897" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2897" t="inlineStr"/>
       <c r="F2897" t="inlineStr"/>
       <c r="G2897" t="inlineStr"/>
       <c r="H2897" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2898" t="inlineStr"/>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr"/>
       <c r="H2898" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2899">
-      <c r="A2899" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2899" t="inlineStr"/>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
@@ -93191,34 +92719,34 @@
       <c r="G2899" t="inlineStr"/>
       <c r="H2899" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2900">
-      <c r="A2900" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2900" t="inlineStr"/>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr"/>
+      <c r="G2900" t="inlineStr">
+        <is>
+          <t>$3.3T</t>
+        </is>
+      </c>
       <c r="H2900" t="inlineStr">
         <is>
           <t>3</t>
@@ -93226,71 +92754,59 @@
       </c>
     </row>
     <row r="2901">
-      <c r="A2901" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2901" t="inlineStr"/>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2901" t="inlineStr"/>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr"/>
       <c r="H2901" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2902">
-      <c r="A2902" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2902" t="inlineStr"/>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr"/>
+      <c r="G2902" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
       <c r="H2902" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2903">
-      <c r="A2903" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2903" t="inlineStr"/>
       <c r="B2903" t="inlineStr">
         <is>
           <t>US</t>
@@ -93298,29 +92814,25 @@
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr"/>
       <c r="G2903" t="inlineStr"/>
       <c r="H2903" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2904">
-      <c r="A2904" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2904" t="inlineStr"/>
       <c r="B2904" t="inlineStr">
         <is>
           <t>US</t>
@@ -93328,77 +92840,65 @@
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
       <c r="E2904" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2904" t="inlineStr"/>
       <c r="G2904" t="inlineStr"/>
       <c r="H2904" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2905" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2905" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2905" t="inlineStr"/>
+      <c r="C2905" t="inlineStr"/>
       <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2905" t="inlineStr"/>
       <c r="F2905" t="inlineStr"/>
       <c r="G2905" t="inlineStr"/>
-      <c r="H2905" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2905" t="inlineStr"/>
     </row>
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
       <c r="E2906" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr"/>
+      <c r="G2906" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H2906" t="inlineStr">
         <is>
           <t>3</t>
@@ -93408,7 +92908,7 @@
     <row r="2907">
       <c r="A2907" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2907" t="inlineStr">
@@ -93418,682 +92918,22 @@
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
       <c r="E2907" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr"/>
+      <c r="G2907" t="inlineStr">
+        <is>
+          <t>$ 18B</t>
+        </is>
+      </c>
       <c r="H2907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2908">
-      <c r="A2908" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2908" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2908" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsJAN</t>
-        </is>
-      </c>
-      <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr"/>
-      <c r="H2908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2909">
-      <c r="A2909" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2909" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2909" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
-      <c r="D2909" t="inlineStr"/>
-      <c r="E2909" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr"/>
-      <c r="H2909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2910">
-      <c r="A2910" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2910" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2910" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
-      <c r="D2910" t="inlineStr"/>
-      <c r="E2910" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr"/>
-      <c r="H2910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2911">
-      <c r="A2911" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B2911" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2911" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2911" t="inlineStr"/>
-      <c r="E2911" t="inlineStr"/>
-      <c r="F2911" t="inlineStr"/>
-      <c r="G2911" t="inlineStr"/>
-      <c r="H2911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2912">
-      <c r="A2912" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2912" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2912" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2912" t="inlineStr"/>
-      <c r="E2912" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr"/>
-      <c r="H2912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2913">
-      <c r="A2913" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2913" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2913" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2913" t="inlineStr"/>
-      <c r="E2913" t="inlineStr"/>
-      <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2914">
-      <c r="A2914" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2914" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2914" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr"/>
-      <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr"/>
-      <c r="H2914" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2915">
-      <c r="A2915" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2915" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2915" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr"/>
-      <c r="H2915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2916">
-      <c r="A2916" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2916" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2916" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr"/>
-      <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr"/>
-      <c r="H2916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2917">
-      <c r="A2917" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2917" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2917" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr"/>
-      <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr"/>
-      <c r="H2917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2918">
-      <c r="A2918" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2918" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2918" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr"/>
-      <c r="H2918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2919">
-      <c r="A2919" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2919" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2919" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2920">
-      <c r="A2920" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2920" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2920" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2920" t="inlineStr"/>
-      <c r="E2920" t="inlineStr"/>
-      <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr"/>
-      <c r="H2920" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2921">
-      <c r="A2921" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2921" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2921" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2921" t="inlineStr"/>
-      <c r="E2921" t="inlineStr"/>
-      <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr"/>
-      <c r="H2921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2922">
-      <c r="A2922" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2922" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2922" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr"/>
-      <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr"/>
-      <c r="H2922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2923">
-      <c r="A2923" t="inlineStr"/>
-      <c r="B2923" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2923" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2923" t="inlineStr"/>
-      <c r="E2923" t="inlineStr"/>
-      <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr"/>
-      <c r="H2923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2924">
-      <c r="A2924" t="inlineStr"/>
-      <c r="B2924" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2924" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2925">
-      <c r="A2925" t="inlineStr"/>
-      <c r="B2925" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2925" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr"/>
-      <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr"/>
-      <c r="H2925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2926">
-      <c r="A2926" t="inlineStr"/>
-      <c r="B2926" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2926" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2926" t="inlineStr"/>
-      <c r="E2926" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2927">
-      <c r="A2927" t="inlineStr"/>
-      <c r="B2927" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2927" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2927" t="inlineStr"/>
-      <c r="E2927" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr"/>
-      <c r="H2927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2928">
-      <c r="A2928" t="inlineStr"/>
-      <c r="B2928" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2928" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2928" t="inlineStr"/>
-      <c r="E2928" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2928" t="inlineStr"/>
-      <c r="G2928" t="inlineStr"/>
-      <c r="H2928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2929">
-      <c r="A2929" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2929" t="inlineStr"/>
-      <c r="C2929" t="inlineStr"/>
-      <c r="D2929" t="inlineStr"/>
-      <c r="E2929" t="inlineStr"/>
-      <c r="F2929" t="inlineStr"/>
-      <c r="G2929" t="inlineStr"/>
-      <c r="H2929" t="inlineStr"/>
-    </row>
-    <row r="2930">
-      <c r="A2930" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2930" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2930" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2930" t="inlineStr"/>
-      <c r="E2930" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2931">
-      <c r="A2931" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2931" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2931" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2931" t="inlineStr"/>
-      <c r="E2931" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2931" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2908"/>
+  <dimension ref="A1:H2884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90173,10 +90173,8 @@
       </c>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2808">
@@ -90211,10 +90209,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2809">
@@ -90237,10 +90233,8 @@
       <c r="E2809" t="inlineStr"/>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2810">
@@ -90263,10 +90257,8 @@
       <c r="E2810" t="inlineStr"/>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2811">
@@ -90289,10 +90281,8 @@
       <c r="E2811" t="inlineStr"/>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2812">
@@ -90315,10 +90305,8 @@
       <c r="E2812" t="inlineStr"/>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2813">
@@ -90341,10 +90329,8 @@
       <c r="E2813" t="inlineStr"/>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2814">
@@ -90371,10 +90357,8 @@
       </c>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -90397,10 +90381,8 @@
       <c r="E2815" t="inlineStr"/>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2816">
@@ -90427,10 +90409,8 @@
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2817">
@@ -90457,10 +90437,8 @@
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2818">
@@ -90483,10 +90461,8 @@
       <c r="E2818" t="inlineStr"/>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -90509,10 +90485,8 @@
       <c r="E2819" t="inlineStr"/>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -90535,10 +90509,8 @@
       <c r="E2820" t="inlineStr"/>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2821">
@@ -90561,10 +90533,8 @@
       <c r="E2821" t="inlineStr"/>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -90587,10 +90557,8 @@
       <c r="E2822" t="inlineStr"/>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -90613,10 +90581,8 @@
       <c r="E2823" t="inlineStr"/>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -90643,10 +90609,8 @@
       </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -90669,10 +90633,8 @@
       <c r="E2825" t="inlineStr"/>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -90695,10 +90657,8 @@
       <c r="E2826" t="inlineStr"/>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2827">
@@ -90721,10 +90681,8 @@
       </c>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2828">
@@ -90743,10 +90701,8 @@
       <c r="E2828" t="inlineStr"/>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -90765,10 +90721,8 @@
       <c r="E2829" t="inlineStr"/>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -90787,10 +90741,8 @@
       <c r="E2830" t="inlineStr"/>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -90809,10 +90761,8 @@
       <c r="E2831" t="inlineStr"/>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -90835,104 +90785,134 @@
       </c>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
       <c r="A2833" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2833" t="inlineStr"/>
-      <c r="C2833" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2833" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2833" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
       <c r="D2833" t="inlineStr"/>
-      <c r="E2833" t="inlineStr"/>
+      <c r="E2833" t="inlineStr">
+        <is>
+          <t>€57.186B</t>
+        </is>
+      </c>
       <c r="F2833" t="inlineStr"/>
-      <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr"/>
+      <c r="G2833" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2833" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2834">
       <c r="A2834" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2834" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2834" t="inlineStr"/>
       <c r="E2834" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>20200%</t>
         </is>
       </c>
       <c r="H2834" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2835">
       <c r="A2835" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2835" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2835" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2835" t="inlineStr"/>
-      <c r="E2835" t="inlineStr"/>
+      <c r="E2835" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2835" t="inlineStr"/>
-      <c r="G2835" t="inlineStr"/>
+      <c r="G2835" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2835" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2836">
       <c r="A2836" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2836" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2836" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2836" t="inlineStr"/>
-      <c r="E2836" t="inlineStr"/>
+      <c r="E2836" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
       <c r="H2836" t="inlineStr">
@@ -90944,89 +90924,81 @@
     <row r="2837">
       <c r="A2837" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2837" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr"/>
       <c r="E2837" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
       <c r="H2837" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2838">
       <c r="A2838" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2838" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr"/>
       <c r="E2838" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2838" t="inlineStr"/>
-      <c r="G2838" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2838" t="inlineStr"/>
       <c r="H2838" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2839" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2839" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2839" t="inlineStr"/>
-      <c r="E2839" t="inlineStr">
-        <is>
-          <t>$155.7B</t>
-        </is>
-      </c>
+      <c r="E2839" t="inlineStr"/>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
       <c r="H2839" t="inlineStr">
@@ -91038,147 +91010,139 @@
     <row r="2840">
       <c r="A2840" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2840" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
-      <c r="E2840" t="inlineStr"/>
+      <c r="E2840" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
       <c r="H2840" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2841">
       <c r="A2841" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2841" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
       <c r="E2841" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
       <c r="H2841" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr"/>
-      <c r="E2842" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="E2842" t="inlineStr"/>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
       <c r="H2842" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2843" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2843" t="inlineStr"/>
       <c r="E2843" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
       <c r="H2843" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
-      <c r="E2844" t="inlineStr">
-        <is>
-          <t>107.5</t>
-        </is>
-      </c>
+      <c r="E2844" t="inlineStr"/>
       <c r="F2844" t="inlineStr"/>
-      <c r="G2844" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
+      <c r="G2844" t="inlineStr"/>
       <c r="H2844" t="inlineStr">
         <is>
           <t>3</t>
@@ -91188,31 +91152,23 @@
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
-      <c r="E2845" t="inlineStr">
-        <is>
-          <t>$65.46B</t>
-        </is>
-      </c>
+      <c r="E2845" t="inlineStr"/>
       <c r="F2845" t="inlineStr"/>
-      <c r="G2845" t="inlineStr">
-        <is>
-          <t>$65.0B</t>
-        </is>
-      </c>
+      <c r="G2845" t="inlineStr"/>
       <c r="H2845" t="inlineStr">
         <is>
           <t>3</t>
@@ -91222,159 +91178,155 @@
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
       <c r="E2846" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2846" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
       <c r="E2847" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2847" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2848">
       <c r="A2848" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
       <c r="E2848" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2848" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2849" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr"/>
       <c r="E2849" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2849" t="inlineStr"/>
-      <c r="G2849" t="inlineStr">
-        <is>
-          <t>108%</t>
-        </is>
-      </c>
+      <c r="G2849" t="inlineStr"/>
       <c r="H2849" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
       <c r="E2850" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2850" t="inlineStr"/>
@@ -91388,23 +91340,23 @@
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr"/>
@@ -91418,17 +91370,17 @@
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
@@ -91444,231 +91396,207 @@
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
       <c r="E2853" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2853" t="inlineStr"/>
-      <c r="G2853" t="inlineStr">
-        <is>
-          <t>€ -7.2B</t>
-        </is>
-      </c>
+      <c r="G2853" t="inlineStr"/>
       <c r="H2853" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
       <c r="E2854" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2854" t="inlineStr"/>
-      <c r="G2854" t="inlineStr">
-        <is>
-          <t>€ -2.5B</t>
-        </is>
-      </c>
+      <c r="G2854" t="inlineStr"/>
       <c r="H2854" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
       <c r="E2855" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2855" t="inlineStr"/>
-      <c r="G2855" t="inlineStr">
-        <is>
-          <t>€ 49.7B</t>
-        </is>
-      </c>
+      <c r="G2855" t="inlineStr"/>
       <c r="H2855" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
       <c r="E2856" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr"/>
       <c r="H2856" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
-      <c r="G2857" t="inlineStr">
-        <is>
-          <t>€ 56.9B</t>
-        </is>
-      </c>
+      <c r="G2857" t="inlineStr"/>
       <c r="H2857" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr"/>
-      <c r="G2858" t="inlineStr">
-        <is>
-          <t>20200%</t>
-        </is>
-      </c>
+      <c r="G2858" t="inlineStr"/>
       <c r="H2858" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
-      <c r="G2859" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="G2859" t="inlineStr"/>
       <c r="H2859" t="inlineStr">
         <is>
           <t>3</t>
@@ -91678,23 +91606,23 @@
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
@@ -91708,23 +91636,23 @@
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr"/>
@@ -91738,23 +91666,23 @@
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2862" t="inlineStr"/>
@@ -91768,21 +91696,25 @@
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
-      <c r="E2863" t="inlineStr"/>
+      <c r="E2863" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
       <c r="H2863" t="inlineStr">
@@ -91794,137 +91726,137 @@
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
-      <c r="E2864" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2864" t="inlineStr"/>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
       <c r="H2864" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
       <c r="E2865" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr"/>
       <c r="H2865" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
       <c r="E2866" t="inlineStr"/>
       <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr"/>
+      <c r="G2866" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
-      <c r="E2867" t="inlineStr">
-        <is>
-          <t>4.21%</t>
-        </is>
-      </c>
+      <c r="E2867" t="inlineStr"/>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr"/>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr"/>
+      <c r="E2868" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr"/>
       <c r="H2868" t="inlineStr">
@@ -91936,17 +91868,17 @@
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
@@ -91962,31 +91894,23 @@
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
-      <c r="E2870" t="inlineStr">
-        <is>
-          <t>-19.5%</t>
-        </is>
-      </c>
+      <c r="E2870" t="inlineStr"/>
       <c r="F2870" t="inlineStr"/>
-      <c r="G2870" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G2870" t="inlineStr"/>
       <c r="H2870" t="inlineStr">
         <is>
           <t>3</t>
@@ -91996,31 +91920,27 @@
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
+      <c r="G2871" t="inlineStr"/>
       <c r="H2871" t="inlineStr">
         <is>
           <t>3</t>
@@ -92030,59 +91950,55 @@
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2872" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
-      <c r="E2873" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2873" t="inlineStr"/>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr"/>
       <c r="H2873" t="inlineStr">
@@ -92094,77 +92010,65 @@
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
-      <c r="E2874" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2874" t="inlineStr"/>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr"/>
       <c r="H2874" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2875" t="inlineStr"/>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr"/>
       <c r="H2875" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2876">
-      <c r="A2876" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2876" t="inlineStr"/>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
@@ -92173,34 +92077,34 @@
       <c r="G2876" t="inlineStr"/>
       <c r="H2876" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2877">
-      <c r="A2877" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2877" t="inlineStr"/>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr"/>
+      <c r="G2877" t="inlineStr">
+        <is>
+          <t>$3.3T</t>
+        </is>
+      </c>
       <c r="H2877" t="inlineStr">
         <is>
           <t>3</t>
@@ -92208,71 +92112,59 @@
       </c>
     </row>
     <row r="2878">
-      <c r="A2878" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2878" t="inlineStr"/>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2878" t="inlineStr"/>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr"/>
       <c r="H2878" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2879">
-      <c r="A2879" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2879" t="inlineStr"/>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr"/>
+      <c r="G2879" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
       <c r="H2879" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2880">
-      <c r="A2880" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2880" t="inlineStr"/>
       <c r="B2880" t="inlineStr">
         <is>
           <t>US</t>
@@ -92280,29 +92172,25 @@
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr"/>
       <c r="H2880" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2881">
-      <c r="A2881" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2881" t="inlineStr"/>
       <c r="B2881" t="inlineStr">
         <is>
           <t>US</t>
@@ -92310,77 +92198,65 @@
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr"/>
       <c r="H2881" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2882" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2882" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2882" t="inlineStr"/>
+      <c r="C2882" t="inlineStr"/>
       <c r="D2882" t="inlineStr"/>
-      <c r="E2882" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2882" t="inlineStr"/>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr"/>
-      <c r="H2882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2882" t="inlineStr"/>
     </row>
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr"/>
+      <c r="G2883" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H2883" t="inlineStr">
         <is>
           <t>3</t>
@@ -92390,7 +92266,7 @@
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
@@ -92400,682 +92276,22 @@
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr"/>
+      <c r="G2884" t="inlineStr">
+        <is>
+          <t>$ 18B</t>
+        </is>
+      </c>
       <c r="H2884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2885">
-      <c r="A2885" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2885" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2885" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsJAN</t>
-        </is>
-      </c>
-      <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr"/>
-      <c r="H2885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2886">
-      <c r="A2886" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2886" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2886" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
-      <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr"/>
-      <c r="H2886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2887">
-      <c r="A2887" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2887" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2887" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
-      <c r="D2887" t="inlineStr"/>
-      <c r="E2887" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr"/>
-      <c r="H2887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2888">
-      <c r="A2888" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B2888" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2888" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr"/>
-      <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr"/>
-      <c r="H2888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2889">
-      <c r="A2889" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2889" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2889" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr"/>
-      <c r="H2889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2890">
-      <c r="A2890" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2890" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2890" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr"/>
-      <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2891">
-      <c r="A2891" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2891" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2891" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr"/>
-      <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr"/>
-      <c r="H2891" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2892">
-      <c r="A2892" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2892" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2892" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2892" t="inlineStr"/>
-      <c r="E2892" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr"/>
-      <c r="H2892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2893">
-      <c r="A2893" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2893" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2893" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr"/>
-      <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
-      <c r="H2893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2894">
-      <c r="A2894" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2894" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2894" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr"/>
-      <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr"/>
-      <c r="H2894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2895">
-      <c r="A2895" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2895" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2895" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr"/>
-      <c r="H2895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2896">
-      <c r="A2896" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2896" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2896" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2897">
-      <c r="A2897" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2897" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2897" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2897" t="inlineStr"/>
-      <c r="E2897" t="inlineStr"/>
-      <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr"/>
-      <c r="H2897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2898">
-      <c r="A2898" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2898" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2898" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr"/>
-      <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr"/>
-      <c r="H2898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2899">
-      <c r="A2899" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2899" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2899" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr"/>
-      <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr"/>
-      <c r="H2899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2900">
-      <c r="A2900" t="inlineStr"/>
-      <c r="B2900" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2900" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr"/>
-      <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr"/>
-      <c r="H2900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2901">
-      <c r="A2901" t="inlineStr"/>
-      <c r="B2901" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2901" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2902">
-      <c r="A2902" t="inlineStr"/>
-      <c r="B2902" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2902" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr"/>
-      <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr"/>
-      <c r="H2902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2903">
-      <c r="A2903" t="inlineStr"/>
-      <c r="B2903" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2903" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2903" t="inlineStr"/>
-      <c r="E2903" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2904">
-      <c r="A2904" t="inlineStr"/>
-      <c r="B2904" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2904" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr"/>
-      <c r="H2904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2905">
-      <c r="A2905" t="inlineStr"/>
-      <c r="B2905" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2905" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr"/>
-      <c r="H2905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2906">
-      <c r="A2906" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2906" t="inlineStr"/>
-      <c r="C2906" t="inlineStr"/>
-      <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr"/>
-      <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr"/>
-      <c r="H2906" t="inlineStr"/>
-    </row>
-    <row r="2907">
-      <c r="A2907" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2907" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2907" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2908">
-      <c r="A2908" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2908" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2908" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2908" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2910"/>
+  <dimension ref="A1:H2886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86753,10 +86753,8 @@
       </c>
       <c r="F2686" t="inlineStr"/>
       <c r="G2686" t="inlineStr"/>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2687">
@@ -86779,10 +86777,8 @@
       <c r="E2687" t="inlineStr"/>
       <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr"/>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2688">
@@ -86801,10 +86797,8 @@
       <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr"/>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2689">
@@ -86823,10 +86817,8 @@
       <c r="E2689" t="inlineStr"/>
       <c r="F2689" t="inlineStr"/>
       <c r="G2689" t="inlineStr"/>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2690">
@@ -86845,10 +86837,8 @@
       <c r="E2690" t="inlineStr"/>
       <c r="F2690" t="inlineStr"/>
       <c r="G2690" t="inlineStr"/>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2691">
@@ -86871,10 +86861,8 @@
       </c>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2692">
@@ -86911,10 +86899,8 @@
       <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2694">
@@ -86937,10 +86923,8 @@
       <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -86967,10 +86951,8 @@
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2696">
@@ -86993,10 +86975,8 @@
       <c r="E2696" t="inlineStr"/>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2697">
@@ -87019,10 +86999,8 @@
       <c r="E2697" t="inlineStr"/>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -87049,10 +87027,8 @@
       </c>
       <c r="F2698" t="inlineStr"/>
       <c r="G2698" t="inlineStr"/>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2699">
@@ -87079,10 +87055,8 @@
       </c>
       <c r="F2699" t="inlineStr"/>
       <c r="G2699" t="inlineStr"/>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -87109,10 +87083,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2701">
@@ -87139,10 +87111,8 @@
       </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2702">
@@ -87177,10 +87147,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2703">
@@ -87211,10 +87179,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2704">
@@ -87241,10 +87207,8 @@
       </c>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2705">
@@ -87275,10 +87239,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2706">
@@ -87309,10 +87271,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2707">
@@ -87339,10 +87299,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2708">
@@ -87369,10 +87327,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -87399,10 +87355,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2710">
@@ -87437,10 +87391,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -87475,10 +87427,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -87509,10 +87459,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -87543,10 +87491,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -87573,10 +87519,8 @@
       </c>
       <c r="F2714" t="inlineStr"/>
       <c r="G2714" t="inlineStr"/>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -87603,10 +87547,8 @@
       </c>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2716">
@@ -87633,10 +87575,8 @@
       </c>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -87667,10 +87607,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2718">
@@ -87697,10 +87635,8 @@
       </c>
       <c r="F2718" t="inlineStr"/>
       <c r="G2718" t="inlineStr"/>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2719">
@@ -87727,10 +87663,8 @@
       </c>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -87757,10 +87691,8 @@
       </c>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2721">
@@ -87787,10 +87719,8 @@
       </c>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2722">
@@ -87825,10 +87755,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2723">
@@ -87863,10 +87791,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2724">
@@ -87901,10 +87827,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2725">
@@ -87939,10 +87863,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2726">
@@ -87977,10 +87899,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -88015,10 +87935,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2728">
@@ -88049,10 +87967,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2729">
@@ -88083,10 +87999,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2730">
@@ -88117,10 +88031,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2731">
@@ -88155,10 +88067,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2732">
@@ -88193,10 +88103,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2733">
@@ -88227,10 +88135,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2734">
@@ -88261,10 +88167,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2735">
@@ -88291,10 +88195,8 @@
       </c>
       <c r="F2735" t="inlineStr"/>
       <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2736">
@@ -88321,10 +88223,8 @@
       </c>
       <c r="F2736" t="inlineStr"/>
       <c r="G2736" t="inlineStr"/>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -88351,10 +88251,8 @@
       </c>
       <c r="F2737" t="inlineStr"/>
       <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -88381,10 +88279,8 @@
       </c>
       <c r="F2738" t="inlineStr"/>
       <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2739">
@@ -88415,10 +88311,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2740">
@@ -88449,10 +88343,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -88479,10 +88371,8 @@
       </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2742">
@@ -88509,10 +88399,8 @@
       </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -88535,10 +88423,8 @@
       <c r="E2743" t="inlineStr"/>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2744">
@@ -88561,10 +88447,8 @@
       <c r="E2744" t="inlineStr"/>
       <c r="F2744" t="inlineStr"/>
       <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88587,10 +88471,8 @@
       <c r="E2745" t="inlineStr"/>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -88613,10 +88495,8 @@
       <c r="E2746" t="inlineStr"/>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -88639,10 +88519,8 @@
       <c r="E2747" t="inlineStr"/>
       <c r="F2747" t="inlineStr"/>
       <c r="G2747" t="inlineStr"/>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2748">
@@ -88673,10 +88551,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2749">
@@ -88707,10 +88583,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -88737,10 +88611,8 @@
       </c>
       <c r="F2750" t="inlineStr"/>
       <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2751">
@@ -88771,10 +88643,8 @@
           <t>C$ -1.6B</t>
         </is>
       </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2752">
@@ -88805,10 +88675,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2753">
@@ -88839,10 +88707,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -88873,10 +88739,8 @@
           <t>$ -68B</t>
         </is>
       </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2755">
@@ -88907,10 +88771,8 @@
           <t>$ 275.0B</t>
         </is>
       </c>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2756">
@@ -88941,10 +88803,8 @@
           <t>$ 338B</t>
         </is>
       </c>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2757">
@@ -88967,10 +88827,8 @@
       <c r="E2757" t="inlineStr"/>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr"/>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2758">
@@ -89001,10 +88859,8 @@
           <t>48.5</t>
         </is>
       </c>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2759">
@@ -89035,10 +88891,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -89073,10 +88927,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2761">
@@ -89111,10 +88963,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2762">
@@ -89137,10 +88987,8 @@
       <c r="E2762" t="inlineStr"/>
       <c r="F2762" t="inlineStr"/>
       <c r="G2762" t="inlineStr"/>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2763">
@@ -89167,10 +89015,8 @@
       </c>
       <c r="F2763" t="inlineStr"/>
       <c r="G2763" t="inlineStr"/>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2764">
@@ -89197,10 +89043,8 @@
       </c>
       <c r="F2764" t="inlineStr"/>
       <c r="G2764" t="inlineStr"/>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2765">
@@ -89227,10 +89071,8 @@
       </c>
       <c r="F2765" t="inlineStr"/>
       <c r="G2765" t="inlineStr"/>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -89257,10 +89099,8 @@
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr"/>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -89283,10 +89123,8 @@
       <c r="E2767" t="inlineStr"/>
       <c r="F2767" t="inlineStr"/>
       <c r="G2767" t="inlineStr"/>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2768">
@@ -89309,10 +89147,8 @@
       <c r="E2768" t="inlineStr"/>
       <c r="F2768" t="inlineStr"/>
       <c r="G2768" t="inlineStr"/>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2769">
@@ -89335,10 +89171,8 @@
       <c r="E2769" t="inlineStr"/>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -89361,10 +89195,8 @@
       <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2771">
@@ -89387,10 +89219,8 @@
       <c r="E2771" t="inlineStr"/>
       <c r="F2771" t="inlineStr"/>
       <c r="G2771" t="inlineStr"/>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -89413,10 +89243,8 @@
       <c r="E2772" t="inlineStr"/>
       <c r="F2772" t="inlineStr"/>
       <c r="G2772" t="inlineStr"/>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2773">
@@ -89439,10 +89267,8 @@
       <c r="E2773" t="inlineStr"/>
       <c r="F2773" t="inlineStr"/>
       <c r="G2773" t="inlineStr"/>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -89465,10 +89291,8 @@
       <c r="E2774" t="inlineStr"/>
       <c r="F2774" t="inlineStr"/>
       <c r="G2774" t="inlineStr"/>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -89491,10 +89315,8 @@
       <c r="E2775" t="inlineStr"/>
       <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr"/>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -89521,10 +89343,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2777">
@@ -89547,10 +89367,8 @@
       <c r="E2777" t="inlineStr"/>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -89573,10 +89391,8 @@
       <c r="E2778" t="inlineStr"/>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -89607,10 +89423,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89633,10 +89447,8 @@
       <c r="E2780" t="inlineStr"/>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -89663,10 +89475,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2782">
@@ -89689,10 +89499,8 @@
       <c r="E2782" t="inlineStr"/>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr"/>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -89715,10 +89523,8 @@
       <c r="E2783" t="inlineStr"/>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -89741,10 +89547,8 @@
       <c r="E2784" t="inlineStr"/>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2785">
@@ -89767,10 +89571,8 @@
       </c>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2786">
@@ -89815,10 +89617,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2788">
@@ -89849,10 +89649,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -89883,10 +89681,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -89913,10 +89709,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -89939,10 +89733,8 @@
       <c r="E2791" t="inlineStr"/>
       <c r="F2791" t="inlineStr"/>
       <c r="G2791" t="inlineStr"/>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -89965,10 +89757,8 @@
       <c r="E2792" t="inlineStr"/>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -89991,10 +89781,8 @@
       <c r="E2793" t="inlineStr"/>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -90025,10 +89813,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2795">
@@ -90055,10 +89841,8 @@
       </c>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -90085,10 +89869,8 @@
       </c>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -90115,10 +89897,8 @@
       </c>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -90145,10 +89925,8 @@
       </c>
       <c r="F2798" t="inlineStr"/>
       <c r="G2798" t="inlineStr"/>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -90179,10 +89957,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2800">
@@ -90209,10 +89985,8 @@
       </c>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -90239,10 +90013,8 @@
       </c>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -90269,10 +90041,8 @@
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2803">
@@ -90299,10 +90069,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90333,10 +90101,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2805">
@@ -90367,10 +90133,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2806">
@@ -90401,10 +90165,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2807">
@@ -90427,10 +90189,8 @@
       <c r="E2807" t="inlineStr"/>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -90453,10 +90213,8 @@
       <c r="E2808" t="inlineStr"/>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -90483,10 +90241,8 @@
       </c>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2810">
@@ -90521,10 +90277,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2811">
@@ -90547,10 +90301,8 @@
       <c r="E2811" t="inlineStr"/>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2812">
@@ -90573,10 +90325,8 @@
       <c r="E2812" t="inlineStr"/>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2813">
@@ -90599,10 +90349,8 @@
       <c r="E2813" t="inlineStr"/>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2814">
@@ -90625,10 +90373,8 @@
       <c r="E2814" t="inlineStr"/>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2815">
@@ -90651,10 +90397,8 @@
       <c r="E2815" t="inlineStr"/>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2816">
@@ -90681,10 +90425,8 @@
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -90707,10 +90449,8 @@
       <c r="E2817" t="inlineStr"/>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2818">
@@ -90737,10 +90477,8 @@
       </c>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2819">
@@ -90767,10 +90505,8 @@
       </c>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2820">
@@ -90793,10 +90529,8 @@
       <c r="E2820" t="inlineStr"/>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -90819,10 +90553,8 @@
       <c r="E2821" t="inlineStr"/>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -90845,10 +90577,8 @@
       <c r="E2822" t="inlineStr"/>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2823">
@@ -90871,10 +90601,8 @@
       <c r="E2823" t="inlineStr"/>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -90897,10 +90625,8 @@
       <c r="E2824" t="inlineStr"/>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -90923,10 +90649,8 @@
       <c r="E2825" t="inlineStr"/>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -90953,10 +90677,8 @@
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2827">
@@ -90979,10 +90701,8 @@
       <c r="E2827" t="inlineStr"/>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2828">
@@ -91005,10 +90725,8 @@
       <c r="E2828" t="inlineStr"/>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -91031,10 +90749,8 @@
       </c>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -91053,10 +90769,8 @@
       <c r="E2830" t="inlineStr"/>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -91075,10 +90789,8 @@
       <c r="E2831" t="inlineStr"/>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -91097,10 +90809,8 @@
       <c r="E2832" t="inlineStr"/>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
@@ -91119,10 +90829,8 @@
       <c r="E2833" t="inlineStr"/>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -91145,104 +90853,134 @@
       </c>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
       <c r="A2835" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2835" t="inlineStr"/>
-      <c r="C2835" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2835" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2835" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
       <c r="D2835" t="inlineStr"/>
-      <c r="E2835" t="inlineStr"/>
+      <c r="E2835" t="inlineStr">
+        <is>
+          <t>€57.186B</t>
+        </is>
+      </c>
       <c r="F2835" t="inlineStr"/>
-      <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr"/>
+      <c r="G2835" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2835" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2836">
       <c r="A2836" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2836" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2836" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2836" t="inlineStr"/>
       <c r="E2836" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>20200%</t>
         </is>
       </c>
       <c r="H2836" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2837">
       <c r="A2837" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2837" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr"/>
-      <c r="E2837" t="inlineStr"/>
+      <c r="E2837" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2837" t="inlineStr"/>
-      <c r="G2837" t="inlineStr"/>
+      <c r="G2837" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2837" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2838">
       <c r="A2838" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2838" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr"/>
-      <c r="E2838" t="inlineStr"/>
+      <c r="E2838" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
       <c r="H2838" t="inlineStr">
@@ -91254,89 +90992,81 @@
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2839" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2839" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2839" t="inlineStr"/>
       <c r="E2839" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
       <c r="H2839" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2840">
       <c r="A2840" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2840" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
       <c r="E2840" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2840" t="inlineStr"/>
-      <c r="G2840" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2840" t="inlineStr"/>
       <c r="H2840" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2841">
       <c r="A2841" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2841" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
-      <c r="E2841" t="inlineStr">
-        <is>
-          <t>$155.7B</t>
-        </is>
-      </c>
+      <c r="E2841" t="inlineStr"/>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
       <c r="H2841" t="inlineStr">
@@ -91348,147 +91078,139 @@
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr"/>
-      <c r="E2842" t="inlineStr"/>
+      <c r="E2842" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
       <c r="H2842" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2843" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2843" t="inlineStr"/>
       <c r="E2843" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
       <c r="H2843" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
-      <c r="E2844" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="E2844" t="inlineStr"/>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
       <c r="H2844" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
       <c r="E2845" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
       <c r="H2845" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
-      <c r="E2846" t="inlineStr">
-        <is>
-          <t>107.5</t>
-        </is>
-      </c>
+      <c r="E2846" t="inlineStr"/>
       <c r="F2846" t="inlineStr"/>
-      <c r="G2846" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
+      <c r="G2846" t="inlineStr"/>
       <c r="H2846" t="inlineStr">
         <is>
           <t>3</t>
@@ -91498,31 +91220,23 @@
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
-      <c r="E2847" t="inlineStr">
-        <is>
-          <t>$65.46B</t>
-        </is>
-      </c>
+      <c r="E2847" t="inlineStr"/>
       <c r="F2847" t="inlineStr"/>
-      <c r="G2847" t="inlineStr">
-        <is>
-          <t>$65.0B</t>
-        </is>
-      </c>
+      <c r="G2847" t="inlineStr"/>
       <c r="H2847" t="inlineStr">
         <is>
           <t>3</t>
@@ -91532,159 +91246,155 @@
     <row r="2848">
       <c r="A2848" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
       <c r="E2848" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2848" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2849" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr"/>
       <c r="E2849" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2849" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
       <c r="E2850" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2850" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr"/>
-      <c r="G2851" t="inlineStr">
-        <is>
-          <t>108%</t>
-        </is>
-      </c>
+      <c r="G2851" t="inlineStr"/>
       <c r="H2851" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
       <c r="E2852" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2852" t="inlineStr"/>
@@ -91698,23 +91408,23 @@
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
       <c r="E2853" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2853" t="inlineStr"/>
@@ -91728,17 +91438,17 @@
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
@@ -91754,231 +91464,207 @@
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
       <c r="E2855" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2855" t="inlineStr"/>
-      <c r="G2855" t="inlineStr">
-        <is>
-          <t>€ -7.2B</t>
-        </is>
-      </c>
+      <c r="G2855" t="inlineStr"/>
       <c r="H2855" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
       <c r="E2856" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2856" t="inlineStr"/>
-      <c r="G2856" t="inlineStr">
-        <is>
-          <t>€ -2.5B</t>
-        </is>
-      </c>
+      <c r="G2856" t="inlineStr"/>
       <c r="H2856" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
-      <c r="G2857" t="inlineStr">
-        <is>
-          <t>€ 49.7B</t>
-        </is>
-      </c>
+      <c r="G2857" t="inlineStr"/>
       <c r="H2857" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr"/>
       <c r="H2858" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
-      <c r="G2859" t="inlineStr">
-        <is>
-          <t>€ 56.9B</t>
-        </is>
-      </c>
+      <c r="G2859" t="inlineStr"/>
       <c r="H2859" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
-      <c r="G2860" t="inlineStr">
-        <is>
-          <t>20200%</t>
-        </is>
-      </c>
+      <c r="G2860" t="inlineStr"/>
       <c r="H2860" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr"/>
-      <c r="G2861" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="G2861" t="inlineStr"/>
       <c r="H2861" t="inlineStr">
         <is>
           <t>3</t>
@@ -91988,23 +91674,23 @@
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2862" t="inlineStr"/>
@@ -92018,23 +91704,23 @@
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2863" t="inlineStr"/>
@@ -92048,23 +91734,23 @@
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
       <c r="E2864" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2864" t="inlineStr"/>
@@ -92078,21 +91764,25 @@
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr"/>
+      <c r="E2865" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr"/>
       <c r="H2865" t="inlineStr">
@@ -92104,137 +91794,137 @@
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2866" t="inlineStr"/>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr"/>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr"/>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
       <c r="E2868" t="inlineStr"/>
       <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr"/>
+      <c r="G2868" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2868" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
-      <c r="E2869" t="inlineStr">
-        <is>
-          <t>4.21%</t>
-        </is>
-      </c>
+      <c r="E2869" t="inlineStr"/>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr"/>
       <c r="H2869" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
-      <c r="E2870" t="inlineStr"/>
+      <c r="E2870" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr"/>
       <c r="H2870" t="inlineStr">
@@ -92246,17 +91936,17 @@
     <row r="2871">
       <c r="A2871" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
@@ -92272,31 +91962,23 @@
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2872" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
-      <c r="E2872" t="inlineStr">
-        <is>
-          <t>-19.5%</t>
-        </is>
-      </c>
+      <c r="E2872" t="inlineStr"/>
       <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G2872" t="inlineStr"/>
       <c r="H2872" t="inlineStr">
         <is>
           <t>3</t>
@@ -92306,31 +91988,27 @@
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2873" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
+      <c r="G2873" t="inlineStr"/>
       <c r="H2873" t="inlineStr">
         <is>
           <t>3</t>
@@ -92340,59 +92018,55 @@
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr"/>
       <c r="E2874" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2874" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2875" t="inlineStr"/>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr"/>
       <c r="H2875" t="inlineStr">
@@ -92404,77 +92078,65 @@
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
-      <c r="E2876" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2876" t="inlineStr"/>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr"/>
       <c r="H2876" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2877" t="inlineStr"/>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr"/>
       <c r="H2877" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2878">
-      <c r="A2878" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2878" t="inlineStr"/>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
@@ -92483,34 +92145,34 @@
       <c r="G2878" t="inlineStr"/>
       <c r="H2878" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2879">
-      <c r="A2879" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2879" t="inlineStr"/>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr"/>
+      <c r="G2879" t="inlineStr">
+        <is>
+          <t>$3.3T</t>
+        </is>
+      </c>
       <c r="H2879" t="inlineStr">
         <is>
           <t>3</t>
@@ -92518,71 +92180,59 @@
       </c>
     </row>
     <row r="2880">
-      <c r="A2880" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2880" t="inlineStr"/>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
-      <c r="E2880" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2880" t="inlineStr"/>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr"/>
       <c r="H2880" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2881">
-      <c r="A2881" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2881" t="inlineStr"/>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
       <c r="E2881" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2881" t="inlineStr"/>
-      <c r="G2881" t="inlineStr"/>
+      <c r="G2881" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
       <c r="H2881" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2882">
-      <c r="A2882" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2882" t="inlineStr"/>
       <c r="B2882" t="inlineStr">
         <is>
           <t>US</t>
@@ -92590,29 +92240,25 @@
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr"/>
       <c r="H2882" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2883">
-      <c r="A2883" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2883" t="inlineStr"/>
       <c r="B2883" t="inlineStr">
         <is>
           <t>US</t>
@@ -92620,77 +92266,65 @@
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
       <c r="G2883" t="inlineStr"/>
       <c r="H2883" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2884" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2884" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2884" t="inlineStr"/>
+      <c r="C2884" t="inlineStr"/>
       <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2884" t="inlineStr"/>
       <c r="F2884" t="inlineStr"/>
       <c r="G2884" t="inlineStr"/>
-      <c r="H2884" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2884" t="inlineStr"/>
     </row>
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr"/>
+      <c r="G2885" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H2885" t="inlineStr">
         <is>
           <t>3</t>
@@ -92700,7 +92334,7 @@
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
@@ -92710,682 +92344,22 @@
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr"/>
+      <c r="G2886" t="inlineStr">
+        <is>
+          <t>$ 18B</t>
+        </is>
+      </c>
       <c r="H2886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2887">
-      <c r="A2887" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2887" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2887" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsJAN</t>
-        </is>
-      </c>
-      <c r="D2887" t="inlineStr"/>
-      <c r="E2887" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr"/>
-      <c r="H2887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2888">
-      <c r="A2888" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2888" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2888" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
-      <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr"/>
-      <c r="H2888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2889">
-      <c r="A2889" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2889" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2889" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
-      <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr"/>
-      <c r="H2889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2890">
-      <c r="A2890" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B2890" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2890" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr"/>
-      <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr"/>
-      <c r="H2890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2891">
-      <c r="A2891" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2891" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2891" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr"/>
-      <c r="H2891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2892">
-      <c r="A2892" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2892" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2892" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2892" t="inlineStr"/>
-      <c r="E2892" t="inlineStr"/>
-      <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2893">
-      <c r="A2893" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2893" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2893" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr"/>
-      <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
-      <c r="H2893" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2894">
-      <c r="A2894" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2894" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2894" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr"/>
-      <c r="H2894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2895">
-      <c r="A2895" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2895" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2895" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr"/>
-      <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr"/>
-      <c r="H2895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2896">
-      <c r="A2896" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2896" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2896" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr"/>
-      <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr"/>
-      <c r="H2896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2897">
-      <c r="A2897" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2897" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2897" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2897" t="inlineStr"/>
-      <c r="E2897" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr"/>
-      <c r="H2897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2898">
-      <c r="A2898" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2898" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2898" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2899">
-      <c r="A2899" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2899" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2899" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr"/>
-      <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr"/>
-      <c r="H2899" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2900">
-      <c r="A2900" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2900" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2900" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr"/>
-      <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr"/>
-      <c r="H2900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2901">
-      <c r="A2901" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2901" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2901" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr"/>
-      <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr"/>
-      <c r="H2901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2902">
-      <c r="A2902" t="inlineStr"/>
-      <c r="B2902" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2902" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr"/>
-      <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr"/>
-      <c r="H2902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2903">
-      <c r="A2903" t="inlineStr"/>
-      <c r="B2903" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2903" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2903" t="inlineStr"/>
-      <c r="E2903" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2904">
-      <c r="A2904" t="inlineStr"/>
-      <c r="B2904" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2904" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr"/>
-      <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr"/>
-      <c r="H2904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2905">
-      <c r="A2905" t="inlineStr"/>
-      <c r="B2905" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2905" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2906">
-      <c r="A2906" t="inlineStr"/>
-      <c r="B2906" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2906" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr"/>
-      <c r="H2906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2907">
-      <c r="A2907" t="inlineStr"/>
-      <c r="B2907" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2907" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr"/>
-      <c r="H2907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2908">
-      <c r="A2908" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2908" t="inlineStr"/>
-      <c r="C2908" t="inlineStr"/>
-      <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr"/>
-      <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr"/>
-      <c r="H2908" t="inlineStr"/>
-    </row>
-    <row r="2909">
-      <c r="A2909" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2909" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2909" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2909" t="inlineStr"/>
-      <c r="E2909" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2910">
-      <c r="A2910" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2910" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2910" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2910" t="inlineStr"/>
-      <c r="E2910" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2910" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2887"/>
+  <dimension ref="A1:H2863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89599,10 +89599,8 @@
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2787">
@@ -89637,10 +89635,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2788">
@@ -89663,10 +89659,8 @@
       <c r="E2788" t="inlineStr"/>
       <c r="F2788" t="inlineStr"/>
       <c r="G2788" t="inlineStr"/>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2789">
@@ -89689,10 +89683,8 @@
       <c r="E2789" t="inlineStr"/>
       <c r="F2789" t="inlineStr"/>
       <c r="G2789" t="inlineStr"/>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2790">
@@ -89715,10 +89707,8 @@
       <c r="E2790" t="inlineStr"/>
       <c r="F2790" t="inlineStr"/>
       <c r="G2790" t="inlineStr"/>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2791">
@@ -89741,10 +89731,8 @@
       <c r="E2791" t="inlineStr"/>
       <c r="F2791" t="inlineStr"/>
       <c r="G2791" t="inlineStr"/>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2792">
@@ -89767,10 +89755,8 @@
       <c r="E2792" t="inlineStr"/>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2793">
@@ -89797,10 +89783,8 @@
       </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -89823,10 +89807,8 @@
       <c r="E2794" t="inlineStr"/>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2795">
@@ -89853,10 +89835,8 @@
       </c>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2796">
@@ -89883,10 +89863,8 @@
       </c>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2797">
@@ -89909,10 +89887,8 @@
       <c r="E2797" t="inlineStr"/>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -89935,10 +89911,8 @@
       <c r="E2798" t="inlineStr"/>
       <c r="F2798" t="inlineStr"/>
       <c r="G2798" t="inlineStr"/>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -89961,10 +89935,8 @@
       <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2800">
@@ -89987,10 +89959,8 @@
       <c r="E2800" t="inlineStr"/>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -90013,10 +89983,8 @@
       <c r="E2801" t="inlineStr"/>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -90039,10 +90007,8 @@
       <c r="E2802" t="inlineStr"/>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -90069,10 +90035,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90095,10 +90059,8 @@
       <c r="E2804" t="inlineStr"/>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2805">
@@ -90121,10 +90083,8 @@
       <c r="E2805" t="inlineStr"/>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr"/>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -90147,10 +90107,8 @@
       </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -90169,10 +90127,8 @@
       <c r="E2807" t="inlineStr"/>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -90191,10 +90147,8 @@
       <c r="E2808" t="inlineStr"/>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -90213,10 +90167,8 @@
       <c r="E2809" t="inlineStr"/>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -90235,10 +90187,8 @@
       <c r="E2810" t="inlineStr"/>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -90261,104 +90211,134 @@
       </c>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
       <c r="A2812" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2812" t="inlineStr"/>
-      <c r="C2812" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2812" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2812" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
       <c r="D2812" t="inlineStr"/>
-      <c r="E2812" t="inlineStr"/>
+      <c r="E2812" t="inlineStr">
+        <is>
+          <t>€57.186B</t>
+        </is>
+      </c>
       <c r="F2812" t="inlineStr"/>
-      <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr"/>
+      <c r="G2812" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2812" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2813">
       <c r="A2813" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2813" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2813" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2813" t="inlineStr"/>
       <c r="E2813" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>20200%</t>
         </is>
       </c>
       <c r="H2813" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2814">
       <c r="A2814" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2814" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2814" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2814" t="inlineStr"/>
-      <c r="E2814" t="inlineStr"/>
+      <c r="E2814" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2814" t="inlineStr"/>
-      <c r="G2814" t="inlineStr"/>
+      <c r="G2814" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2814" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2815">
       <c r="A2815" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2815" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2815" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2815" t="inlineStr"/>
-      <c r="E2815" t="inlineStr"/>
+      <c r="E2815" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
       <c r="H2815" t="inlineStr">
@@ -90370,89 +90350,81 @@
     <row r="2816">
       <c r="A2816" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2816" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2816" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2816" t="inlineStr"/>
       <c r="E2816" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
       <c r="H2816" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2817">
       <c r="A2817" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2817" t="inlineStr"/>
       <c r="E2817" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2817" t="inlineStr"/>
-      <c r="G2817" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2817" t="inlineStr"/>
       <c r="H2817" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2818">
       <c r="A2818" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2818" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2818" t="inlineStr"/>
-      <c r="E2818" t="inlineStr">
-        <is>
-          <t>$155.7B</t>
-        </is>
-      </c>
+      <c r="E2818" t="inlineStr"/>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
       <c r="H2818" t="inlineStr">
@@ -90464,147 +90436,139 @@
     <row r="2819">
       <c r="A2819" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2819" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2819" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2819" t="inlineStr"/>
-      <c r="E2819" t="inlineStr"/>
+      <c r="E2819" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
       <c r="H2819" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2820">
       <c r="A2820" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2820" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2820" t="inlineStr"/>
       <c r="E2820" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
       <c r="H2820" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2821">
       <c r="A2821" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2821" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2821" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2821" t="inlineStr"/>
-      <c r="E2821" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="E2821" t="inlineStr"/>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
       <c r="H2821" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2822">
       <c r="A2822" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2822" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2822" t="inlineStr"/>
       <c r="E2822" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
       <c r="H2822" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2823">
       <c r="A2823" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2823" t="inlineStr"/>
-      <c r="E2823" t="inlineStr">
-        <is>
-          <t>107.5</t>
-        </is>
-      </c>
+      <c r="E2823" t="inlineStr"/>
       <c r="F2823" t="inlineStr"/>
-      <c r="G2823" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
+      <c r="G2823" t="inlineStr"/>
       <c r="H2823" t="inlineStr">
         <is>
           <t>3</t>
@@ -90614,31 +90578,23 @@
     <row r="2824">
       <c r="A2824" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2824" t="inlineStr"/>
-      <c r="E2824" t="inlineStr">
-        <is>
-          <t>$65.46B</t>
-        </is>
-      </c>
+      <c r="E2824" t="inlineStr"/>
       <c r="F2824" t="inlineStr"/>
-      <c r="G2824" t="inlineStr">
-        <is>
-          <t>$65.0B</t>
-        </is>
-      </c>
+      <c r="G2824" t="inlineStr"/>
       <c r="H2824" t="inlineStr">
         <is>
           <t>3</t>
@@ -90648,159 +90604,155 @@
     <row r="2825">
       <c r="A2825" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2825" t="inlineStr"/>
       <c r="E2825" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2825" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2826">
       <c r="A2826" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2826" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2826" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2826" t="inlineStr"/>
       <c r="E2826" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2826" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2827">
       <c r="A2827" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2827" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2827" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2827" t="inlineStr"/>
       <c r="E2827" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2827" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2828">
       <c r="A2828" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2828" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2828" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2828" t="inlineStr"/>
       <c r="E2828" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2828" t="inlineStr"/>
-      <c r="G2828" t="inlineStr">
-        <is>
-          <t>108%</t>
-        </is>
-      </c>
+      <c r="G2828" t="inlineStr"/>
       <c r="H2828" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2829">
       <c r="A2829" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2829" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2829" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2829" t="inlineStr"/>
       <c r="E2829" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2829" t="inlineStr"/>
@@ -90814,23 +90766,23 @@
     <row r="2830">
       <c r="A2830" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2830" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2830" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2830" t="inlineStr"/>
       <c r="E2830" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2830" t="inlineStr"/>
@@ -90844,17 +90796,17 @@
     <row r="2831">
       <c r="A2831" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2831" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2831" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2831" t="inlineStr"/>
@@ -90870,231 +90822,207 @@
     <row r="2832">
       <c r="A2832" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2832" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2832" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2832" t="inlineStr"/>
       <c r="E2832" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2832" t="inlineStr"/>
-      <c r="G2832" t="inlineStr">
-        <is>
-          <t>€ -7.2B</t>
-        </is>
-      </c>
+      <c r="G2832" t="inlineStr"/>
       <c r="H2832" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2833">
       <c r="A2833" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2833" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2833" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2833" t="inlineStr"/>
       <c r="E2833" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2833" t="inlineStr"/>
-      <c r="G2833" t="inlineStr">
-        <is>
-          <t>€ -2.5B</t>
-        </is>
-      </c>
+      <c r="G2833" t="inlineStr"/>
       <c r="H2833" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2834">
       <c r="A2834" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2834" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2834" t="inlineStr"/>
       <c r="E2834" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2834" t="inlineStr"/>
-      <c r="G2834" t="inlineStr">
-        <is>
-          <t>€ 49.7B</t>
-        </is>
-      </c>
+      <c r="G2834" t="inlineStr"/>
       <c r="H2834" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2835">
       <c r="A2835" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2835" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2835" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2835" t="inlineStr"/>
       <c r="E2835" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
       <c r="H2835" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2836">
       <c r="A2836" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2836" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2836" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2836" t="inlineStr"/>
       <c r="E2836" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2836" t="inlineStr"/>
-      <c r="G2836" t="inlineStr">
-        <is>
-          <t>€ 56.9B</t>
-        </is>
-      </c>
+      <c r="G2836" t="inlineStr"/>
       <c r="H2836" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2837">
       <c r="A2837" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2837" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr"/>
       <c r="E2837" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2837" t="inlineStr"/>
-      <c r="G2837" t="inlineStr">
-        <is>
-          <t>20200%</t>
-        </is>
-      </c>
+      <c r="G2837" t="inlineStr"/>
       <c r="H2837" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2838">
       <c r="A2838" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2838" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr"/>
       <c r="E2838" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2838" t="inlineStr"/>
-      <c r="G2838" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="G2838" t="inlineStr"/>
       <c r="H2838" t="inlineStr">
         <is>
           <t>3</t>
@@ -91104,23 +91032,23 @@
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2839" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2839" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2839" t="inlineStr"/>
       <c r="E2839" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2839" t="inlineStr"/>
@@ -91134,23 +91062,23 @@
     <row r="2840">
       <c r="A2840" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2840" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
       <c r="E2840" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2840" t="inlineStr"/>
@@ -91164,23 +91092,23 @@
     <row r="2841">
       <c r="A2841" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2841" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
       <c r="E2841" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2841" t="inlineStr"/>
@@ -91194,21 +91122,25 @@
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr"/>
-      <c r="E2842" t="inlineStr"/>
+      <c r="E2842" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
       <c r="H2842" t="inlineStr">
@@ -91220,137 +91152,137 @@
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2843" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2843" t="inlineStr"/>
-      <c r="E2843" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
       <c r="H2843" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
       <c r="E2844" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
       <c r="H2844" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
       <c r="E2845" t="inlineStr"/>
       <c r="F2845" t="inlineStr"/>
-      <c r="G2845" t="inlineStr"/>
+      <c r="G2845" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2845" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
-      <c r="E2846" t="inlineStr">
-        <is>
-          <t>4.21%</t>
-        </is>
-      </c>
+      <c r="E2846" t="inlineStr"/>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
       <c r="H2846" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
-      <c r="E2847" t="inlineStr"/>
+      <c r="E2847" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
       <c r="H2847" t="inlineStr">
@@ -91362,17 +91294,17 @@
     <row r="2848">
       <c r="A2848" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
@@ -91388,31 +91320,23 @@
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2849" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr"/>
-      <c r="E2849" t="inlineStr">
-        <is>
-          <t>-19.5%</t>
-        </is>
-      </c>
+      <c r="E2849" t="inlineStr"/>
       <c r="F2849" t="inlineStr"/>
-      <c r="G2849" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G2849" t="inlineStr"/>
       <c r="H2849" t="inlineStr">
         <is>
           <t>3</t>
@@ -91422,31 +91346,27 @@
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
       <c r="E2850" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2850" t="inlineStr"/>
-      <c r="G2850" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
+      <c r="G2850" t="inlineStr"/>
       <c r="H2850" t="inlineStr">
         <is>
           <t>3</t>
@@ -91456,59 +91376,55 @@
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2851" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
-      <c r="E2852" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2852" t="inlineStr"/>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
       <c r="H2852" t="inlineStr">
@@ -91520,77 +91436,65 @@
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
-      <c r="E2853" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2853" t="inlineStr"/>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
       <c r="H2853" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
-      <c r="E2854" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2854" t="inlineStr"/>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
       <c r="H2854" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2855">
-      <c r="A2855" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2855" t="inlineStr"/>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
@@ -91599,34 +91503,34 @@
       <c r="G2855" t="inlineStr"/>
       <c r="H2855" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2856">
-      <c r="A2856" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2856" t="inlineStr"/>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
       <c r="E2856" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2856" t="inlineStr"/>
-      <c r="G2856" t="inlineStr"/>
+      <c r="G2856" t="inlineStr">
+        <is>
+          <t>$3.3T</t>
+        </is>
+      </c>
       <c r="H2856" t="inlineStr">
         <is>
           <t>3</t>
@@ -91634,71 +91538,59 @@
       </c>
     </row>
     <row r="2857">
-      <c r="A2857" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2857" t="inlineStr"/>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
-      <c r="E2857" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2857" t="inlineStr"/>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr"/>
       <c r="H2857" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2858">
-      <c r="A2858" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2858" t="inlineStr"/>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr"/>
-      <c r="G2858" t="inlineStr"/>
+      <c r="G2858" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
       <c r="H2858" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2859">
-      <c r="A2859" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2859" t="inlineStr"/>
       <c r="B2859" t="inlineStr">
         <is>
           <t>US</t>
@@ -91706,29 +91598,25 @@
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr"/>
       <c r="H2859" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2860">
-      <c r="A2860" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2860" t="inlineStr"/>
       <c r="B2860" t="inlineStr">
         <is>
           <t>US</t>
@@ -91736,77 +91624,65 @@
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
       <c r="H2860" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2861" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2861" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2861" t="inlineStr"/>
+      <c r="C2861" t="inlineStr"/>
       <c r="D2861" t="inlineStr"/>
-      <c r="E2861" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2861" t="inlineStr"/>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2861" t="inlineStr"/>
     </row>
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2862" t="inlineStr"/>
-      <c r="G2862" t="inlineStr"/>
+      <c r="G2862" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H2862" t="inlineStr">
         <is>
           <t>3</t>
@@ -91816,7 +91692,7 @@
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
@@ -91826,682 +91702,22 @@
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr"/>
+      <c r="G2863" t="inlineStr">
+        <is>
+          <t>$ 18B</t>
+        </is>
+      </c>
       <c r="H2863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2864">
-      <c r="A2864" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2864" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2864" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsJAN</t>
-        </is>
-      </c>
-      <c r="D2864" t="inlineStr"/>
-      <c r="E2864" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="F2864" t="inlineStr"/>
-      <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2865">
-      <c r="A2865" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2865" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2865" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
-      <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2866">
-      <c r="A2866" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2866" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2866" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
-      <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr"/>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2867">
-      <c r="A2867" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B2867" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2867" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2867" t="inlineStr"/>
-      <c r="E2867" t="inlineStr"/>
-      <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr"/>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2868">
-      <c r="A2868" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2868" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2868" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr"/>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2869">
-      <c r="A2869" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2869" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2869" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2869" t="inlineStr"/>
-      <c r="E2869" t="inlineStr"/>
-      <c r="F2869" t="inlineStr"/>
-      <c r="G2869" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2870">
-      <c r="A2870" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2870" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2870" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2870" t="inlineStr"/>
-      <c r="E2870" t="inlineStr"/>
-      <c r="F2870" t="inlineStr"/>
-      <c r="G2870" t="inlineStr"/>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2871">
-      <c r="A2871" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2871" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2871" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2871" t="inlineStr"/>
-      <c r="E2871" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2872">
-      <c r="A2872" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2872" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2872" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2872" t="inlineStr"/>
-      <c r="E2872" t="inlineStr"/>
-      <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2873">
-      <c r="A2873" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2873" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2873" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2873" t="inlineStr"/>
-      <c r="E2873" t="inlineStr"/>
-      <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2874">
-      <c r="A2874" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2874" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2874" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2874" t="inlineStr"/>
-      <c r="E2874" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2874" t="inlineStr"/>
-      <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2875">
-      <c r="A2875" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2875" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2875" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2876">
-      <c r="A2876" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2876" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2876" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2876" t="inlineStr"/>
-      <c r="E2876" t="inlineStr"/>
-      <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr"/>
-      <c r="H2876" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2877">
-      <c r="A2877" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2877" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2877" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr"/>
-      <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr"/>
-      <c r="H2877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2878">
-      <c r="A2878" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2878" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2878" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr"/>
-      <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr"/>
-      <c r="H2878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2879">
-      <c r="A2879" t="inlineStr"/>
-      <c r="B2879" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2879" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2879" t="inlineStr"/>
-      <c r="E2879" t="inlineStr"/>
-      <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr"/>
-      <c r="H2879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2880">
-      <c r="A2880" t="inlineStr"/>
-      <c r="B2880" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2880" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2880" t="inlineStr"/>
-      <c r="E2880" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2881">
-      <c r="A2881" t="inlineStr"/>
-      <c r="B2881" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2881" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2881" t="inlineStr"/>
-      <c r="E2881" t="inlineStr"/>
-      <c r="F2881" t="inlineStr"/>
-      <c r="G2881" t="inlineStr"/>
-      <c r="H2881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2882">
-      <c r="A2882" t="inlineStr"/>
-      <c r="B2882" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2882" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2882" t="inlineStr"/>
-      <c r="E2882" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2883">
-      <c r="A2883" t="inlineStr"/>
-      <c r="B2883" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2883" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2883" t="inlineStr"/>
-      <c r="E2883" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr"/>
-      <c r="H2883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2884">
-      <c r="A2884" t="inlineStr"/>
-      <c r="B2884" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2884" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr"/>
-      <c r="H2884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2885">
-      <c r="A2885" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2885" t="inlineStr"/>
-      <c r="C2885" t="inlineStr"/>
-      <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr"/>
-      <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr"/>
-      <c r="H2885" t="inlineStr"/>
-    </row>
-    <row r="2886">
-      <c r="A2886" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2886" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2886" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2887">
-      <c r="A2887" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2887" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2887" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2887" t="inlineStr"/>
-      <c r="E2887" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2887" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2888"/>
+  <dimension ref="A1:H2864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86889,10 +86889,8 @@
       </c>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2693">
@@ -86919,10 +86917,8 @@
       </c>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2694">
@@ -86949,10 +86945,8 @@
       </c>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -86983,10 +86977,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2696">
@@ -87013,10 +87005,8 @@
       </c>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2697">
@@ -87043,10 +87033,8 @@
       </c>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -87073,10 +87061,8 @@
       </c>
       <c r="F2698" t="inlineStr"/>
       <c r="G2698" t="inlineStr"/>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2699">
@@ -87103,10 +87089,8 @@
       </c>
       <c r="F2699" t="inlineStr"/>
       <c r="G2699" t="inlineStr"/>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2700">
@@ -87141,10 +87125,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2701">
@@ -87179,10 +87161,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2702">
@@ -87217,10 +87197,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2703">
@@ -87255,10 +87233,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2704">
@@ -87293,10 +87269,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2705">
@@ -87331,10 +87305,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2706">
@@ -87365,10 +87337,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2707">
@@ -87399,10 +87369,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -87433,10 +87401,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -87471,10 +87437,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2710">
@@ -87509,10 +87473,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -87543,10 +87505,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -87577,10 +87537,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -87607,10 +87565,8 @@
       </c>
       <c r="F2713" t="inlineStr"/>
       <c r="G2713" t="inlineStr"/>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -87637,10 +87593,8 @@
       </c>
       <c r="F2714" t="inlineStr"/>
       <c r="G2714" t="inlineStr"/>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -87667,10 +87621,8 @@
       </c>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2716">
@@ -87697,10 +87649,8 @@
       </c>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -87731,10 +87681,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2718">
@@ -87765,10 +87713,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -87795,10 +87741,8 @@
       </c>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -87825,10 +87769,8 @@
       </c>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -87851,10 +87793,8 @@
       <c r="E2721" t="inlineStr"/>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2722">
@@ -87877,10 +87817,8 @@
       <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -87903,10 +87841,8 @@
       <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2724">
@@ -87929,10 +87865,8 @@
       <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -87955,10 +87889,8 @@
       <c r="E2725" t="inlineStr"/>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -87989,10 +87921,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -88023,10 +87953,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -88053,10 +87981,8 @@
       </c>
       <c r="F2728" t="inlineStr"/>
       <c r="G2728" t="inlineStr"/>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2729">
@@ -88087,10 +88013,8 @@
           <t>C$ -1.6B</t>
         </is>
       </c>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2730">
@@ -88121,10 +88045,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2731">
@@ -88155,10 +88077,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2732">
@@ -88189,10 +88109,8 @@
           <t>$ -68B</t>
         </is>
       </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2733">
@@ -88223,10 +88141,8 @@
           <t>$ 275.0B</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2734">
@@ -88257,10 +88173,8 @@
           <t>$ 338B</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2735">
@@ -88283,10 +88197,8 @@
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
       <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2736">
@@ -88317,10 +88229,8 @@
           <t>48.5</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -88351,10 +88261,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -88389,10 +88297,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2739">
@@ -88427,10 +88333,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2740">
@@ -88453,10 +88357,8 @@
       <c r="E2740" t="inlineStr"/>
       <c r="F2740" t="inlineStr"/>
       <c r="G2740" t="inlineStr"/>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2741">
@@ -88483,10 +88385,8 @@
       </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2742">
@@ -88513,10 +88413,8 @@
       </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -88543,10 +88441,8 @@
       </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -88573,10 +88469,8 @@
       </c>
       <c r="F2744" t="inlineStr"/>
       <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88599,10 +88493,8 @@
       <c r="E2745" t="inlineStr"/>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2746">
@@ -88625,10 +88517,8 @@
       <c r="E2746" t="inlineStr"/>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2747">
@@ -88651,10 +88541,8 @@
       <c r="E2747" t="inlineStr"/>
       <c r="F2747" t="inlineStr"/>
       <c r="G2747" t="inlineStr"/>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2748">
@@ -88677,10 +88565,8 @@
       <c r="E2748" t="inlineStr"/>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2749">
@@ -88703,10 +88589,8 @@
       <c r="E2749" t="inlineStr"/>
       <c r="F2749" t="inlineStr"/>
       <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -88729,10 +88613,8 @@
       <c r="E2750" t="inlineStr"/>
       <c r="F2750" t="inlineStr"/>
       <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -88755,10 +88637,8 @@
       <c r="E2751" t="inlineStr"/>
       <c r="F2751" t="inlineStr"/>
       <c r="G2751" t="inlineStr"/>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -88781,10 +88661,8 @@
       <c r="E2752" t="inlineStr"/>
       <c r="F2752" t="inlineStr"/>
       <c r="G2752" t="inlineStr"/>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2753">
@@ -88807,10 +88685,8 @@
       <c r="E2753" t="inlineStr"/>
       <c r="F2753" t="inlineStr"/>
       <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -88837,10 +88713,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2755">
@@ -88863,10 +88737,8 @@
       <c r="E2755" t="inlineStr"/>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr"/>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2756">
@@ -88889,10 +88761,8 @@
       <c r="E2756" t="inlineStr"/>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -88923,10 +88793,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2758">
@@ -88949,10 +88817,8 @@
       <c r="E2758" t="inlineStr"/>
       <c r="F2758" t="inlineStr"/>
       <c r="G2758" t="inlineStr"/>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2759">
@@ -88979,10 +88845,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -89005,10 +88869,8 @@
       <c r="E2760" t="inlineStr"/>
       <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr"/>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2761">
@@ -89031,10 +88893,8 @@
       <c r="E2761" t="inlineStr"/>
       <c r="F2761" t="inlineStr"/>
       <c r="G2761" t="inlineStr"/>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2762">
@@ -89057,10 +88917,8 @@
       <c r="E2762" t="inlineStr"/>
       <c r="F2762" t="inlineStr"/>
       <c r="G2762" t="inlineStr"/>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2763">
@@ -89083,10 +88941,8 @@
       </c>
       <c r="F2763" t="inlineStr"/>
       <c r="G2763" t="inlineStr"/>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2764">
@@ -89131,10 +88987,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2766">
@@ -89165,10 +89019,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2767">
@@ -89199,10 +89051,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2768">
@@ -89229,10 +89079,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2769">
@@ -89255,10 +89103,8 @@
       <c r="E2769" t="inlineStr"/>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -89281,10 +89127,8 @@
       <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2771">
@@ -89307,10 +89151,8 @@
       <c r="E2771" t="inlineStr"/>
       <c r="F2771" t="inlineStr"/>
       <c r="G2771" t="inlineStr"/>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -89341,10 +89183,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2773">
@@ -89371,10 +89211,8 @@
       </c>
       <c r="F2773" t="inlineStr"/>
       <c r="G2773" t="inlineStr"/>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -89401,10 +89239,8 @@
       </c>
       <c r="F2774" t="inlineStr"/>
       <c r="G2774" t="inlineStr"/>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -89431,10 +89267,8 @@
       </c>
       <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr"/>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -89461,10 +89295,8 @@
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -89495,10 +89327,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2778">
@@ -89525,10 +89355,8 @@
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -89555,10 +89383,8 @@
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr"/>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89585,10 +89411,8 @@
       </c>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2781">
@@ -89615,10 +89439,8 @@
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr"/>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2782">
@@ -89649,10 +89471,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2783">
@@ -89683,10 +89503,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2784">
@@ -89717,10 +89535,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2785">
@@ -89743,10 +89559,8 @@
       <c r="E2785" t="inlineStr"/>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -89769,10 +89583,8 @@
       <c r="E2786" t="inlineStr"/>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -89799,10 +89611,8 @@
       </c>
       <c r="F2787" t="inlineStr"/>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2788">
@@ -89837,10 +89647,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2789">
@@ -89863,10 +89671,8 @@
       <c r="E2789" t="inlineStr"/>
       <c r="F2789" t="inlineStr"/>
       <c r="G2789" t="inlineStr"/>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2790">
@@ -89889,10 +89695,8 @@
       <c r="E2790" t="inlineStr"/>
       <c r="F2790" t="inlineStr"/>
       <c r="G2790" t="inlineStr"/>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2791">
@@ -89915,10 +89719,8 @@
       <c r="E2791" t="inlineStr"/>
       <c r="F2791" t="inlineStr"/>
       <c r="G2791" t="inlineStr"/>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2792">
@@ -89941,10 +89743,8 @@
       <c r="E2792" t="inlineStr"/>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2793">
@@ -89967,10 +89767,8 @@
       <c r="E2793" t="inlineStr"/>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2794">
@@ -89997,10 +89795,8 @@
       </c>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -90023,10 +89819,8 @@
       <c r="E2795" t="inlineStr"/>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2796">
@@ -90053,10 +89847,8 @@
       </c>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2797">
@@ -90083,10 +89875,8 @@
       </c>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2798">
@@ -90109,10 +89899,8 @@
       <c r="E2798" t="inlineStr"/>
       <c r="F2798" t="inlineStr"/>
       <c r="G2798" t="inlineStr"/>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -90135,10 +89923,8 @@
       <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -90161,10 +89947,8 @@
       <c r="E2800" t="inlineStr"/>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2801">
@@ -90187,10 +89971,8 @@
       <c r="E2801" t="inlineStr"/>
       <c r="F2801" t="inlineStr"/>
       <c r="G2801" t="inlineStr"/>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -90213,10 +89995,8 @@
       <c r="E2802" t="inlineStr"/>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -90239,10 +90019,8 @@
       <c r="E2803" t="inlineStr"/>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90269,10 +90047,8 @@
       </c>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2805">
@@ -90295,10 +90071,8 @@
       <c r="E2805" t="inlineStr"/>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr"/>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -90321,10 +90095,8 @@
       <c r="E2806" t="inlineStr"/>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -90347,10 +90119,8 @@
       </c>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2808">
@@ -90369,10 +90139,8 @@
       <c r="E2808" t="inlineStr"/>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -90391,10 +90159,8 @@
       <c r="E2809" t="inlineStr"/>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -90413,10 +90179,8 @@
       <c r="E2810" t="inlineStr"/>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -90435,10 +90199,8 @@
       <c r="E2811" t="inlineStr"/>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -90461,104 +90223,134 @@
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
       <c r="A2813" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2813" t="inlineStr"/>
-      <c r="C2813" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2813" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2813" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
       <c r="D2813" t="inlineStr"/>
-      <c r="E2813" t="inlineStr"/>
+      <c r="E2813" t="inlineStr">
+        <is>
+          <t>€57.186B</t>
+        </is>
+      </c>
       <c r="F2813" t="inlineStr"/>
-      <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr"/>
+      <c r="G2813" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2813" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2814">
       <c r="A2814" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2814" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2814" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2814" t="inlineStr"/>
       <c r="E2814" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>20200%</t>
         </is>
       </c>
       <c r="H2814" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2815">
       <c r="A2815" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2815" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2815" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2815" t="inlineStr"/>
-      <c r="E2815" t="inlineStr"/>
+      <c r="E2815" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2815" t="inlineStr"/>
-      <c r="G2815" t="inlineStr"/>
+      <c r="G2815" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2815" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2816">
       <c r="A2816" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2816" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2816" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2816" t="inlineStr"/>
-      <c r="E2816" t="inlineStr"/>
+      <c r="E2816" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
       <c r="H2816" t="inlineStr">
@@ -90570,89 +90362,81 @@
     <row r="2817">
       <c r="A2817" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2817" t="inlineStr"/>
       <c r="E2817" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
       <c r="H2817" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2818">
       <c r="A2818" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2818" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2818" t="inlineStr"/>
       <c r="E2818" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2818" t="inlineStr"/>
-      <c r="G2818" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2818" t="inlineStr"/>
       <c r="H2818" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2819">
       <c r="A2819" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2819" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2819" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2819" t="inlineStr"/>
-      <c r="E2819" t="inlineStr">
-        <is>
-          <t>$155.7B</t>
-        </is>
-      </c>
+      <c r="E2819" t="inlineStr"/>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
       <c r="H2819" t="inlineStr">
@@ -90664,147 +90448,139 @@
     <row r="2820">
       <c r="A2820" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2820" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2820" t="inlineStr"/>
-      <c r="E2820" t="inlineStr"/>
+      <c r="E2820" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
       <c r="H2820" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2821">
       <c r="A2821" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2821" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2821" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2821" t="inlineStr"/>
       <c r="E2821" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
       <c r="H2821" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2822">
       <c r="A2822" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2822" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2822" t="inlineStr"/>
-      <c r="E2822" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="E2822" t="inlineStr"/>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
       <c r="H2822" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2823">
       <c r="A2823" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2823" t="inlineStr"/>
       <c r="E2823" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
       <c r="H2823" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2824">
       <c r="A2824" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2824" t="inlineStr"/>
-      <c r="E2824" t="inlineStr">
-        <is>
-          <t>107.5</t>
-        </is>
-      </c>
+      <c r="E2824" t="inlineStr"/>
       <c r="F2824" t="inlineStr"/>
-      <c r="G2824" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
+      <c r="G2824" t="inlineStr"/>
       <c r="H2824" t="inlineStr">
         <is>
           <t>3</t>
@@ -90814,31 +90590,23 @@
     <row r="2825">
       <c r="A2825" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2825" t="inlineStr"/>
-      <c r="E2825" t="inlineStr">
-        <is>
-          <t>$65.46B</t>
-        </is>
-      </c>
+      <c r="E2825" t="inlineStr"/>
       <c r="F2825" t="inlineStr"/>
-      <c r="G2825" t="inlineStr">
-        <is>
-          <t>$65.0B</t>
-        </is>
-      </c>
+      <c r="G2825" t="inlineStr"/>
       <c r="H2825" t="inlineStr">
         <is>
           <t>3</t>
@@ -90848,159 +90616,155 @@
     <row r="2826">
       <c r="A2826" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2826" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2826" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2826" t="inlineStr"/>
       <c r="E2826" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2826" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2827">
       <c r="A2827" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2827" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2827" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2827" t="inlineStr"/>
       <c r="E2827" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2827" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2828">
       <c r="A2828" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2828" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2828" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2828" t="inlineStr"/>
       <c r="E2828" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2828" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2829">
       <c r="A2829" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2829" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2829" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2829" t="inlineStr"/>
       <c r="E2829" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2829" t="inlineStr"/>
-      <c r="G2829" t="inlineStr">
-        <is>
-          <t>108%</t>
-        </is>
-      </c>
+      <c r="G2829" t="inlineStr"/>
       <c r="H2829" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2830">
       <c r="A2830" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2830" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2830" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2830" t="inlineStr"/>
       <c r="E2830" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2830" t="inlineStr"/>
@@ -91014,23 +90778,23 @@
     <row r="2831">
       <c r="A2831" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2831" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2831" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2831" t="inlineStr"/>
       <c r="E2831" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2831" t="inlineStr"/>
@@ -91044,17 +90808,17 @@
     <row r="2832">
       <c r="A2832" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2832" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2832" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2832" t="inlineStr"/>
@@ -91070,231 +90834,207 @@
     <row r="2833">
       <c r="A2833" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2833" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2833" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2833" t="inlineStr"/>
       <c r="E2833" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2833" t="inlineStr"/>
-      <c r="G2833" t="inlineStr">
-        <is>
-          <t>€ -7.2B</t>
-        </is>
-      </c>
+      <c r="G2833" t="inlineStr"/>
       <c r="H2833" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2834">
       <c r="A2834" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2834" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2834" t="inlineStr"/>
       <c r="E2834" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2834" t="inlineStr"/>
-      <c r="G2834" t="inlineStr">
-        <is>
-          <t>€ -2.5B</t>
-        </is>
-      </c>
+      <c r="G2834" t="inlineStr"/>
       <c r="H2834" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2835">
       <c r="A2835" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2835" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2835" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2835" t="inlineStr"/>
       <c r="E2835" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2835" t="inlineStr"/>
-      <c r="G2835" t="inlineStr">
-        <is>
-          <t>€ 49.7B</t>
-        </is>
-      </c>
+      <c r="G2835" t="inlineStr"/>
       <c r="H2835" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2836">
       <c r="A2836" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2836" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2836" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2836" t="inlineStr"/>
       <c r="E2836" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
       <c r="H2836" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2837">
       <c r="A2837" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2837" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr"/>
       <c r="E2837" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2837" t="inlineStr"/>
-      <c r="G2837" t="inlineStr">
-        <is>
-          <t>€ 56.9B</t>
-        </is>
-      </c>
+      <c r="G2837" t="inlineStr"/>
       <c r="H2837" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2838">
       <c r="A2838" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2838" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr"/>
       <c r="E2838" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2838" t="inlineStr"/>
-      <c r="G2838" t="inlineStr">
-        <is>
-          <t>20200%</t>
-        </is>
-      </c>
+      <c r="G2838" t="inlineStr"/>
       <c r="H2838" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2839" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2839" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2839" t="inlineStr"/>
       <c r="E2839" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2839" t="inlineStr"/>
-      <c r="G2839" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="G2839" t="inlineStr"/>
       <c r="H2839" t="inlineStr">
         <is>
           <t>3</t>
@@ -91304,23 +91044,23 @@
     <row r="2840">
       <c r="A2840" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2840" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
       <c r="E2840" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2840" t="inlineStr"/>
@@ -91334,23 +91074,23 @@
     <row r="2841">
       <c r="A2841" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2841" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
       <c r="E2841" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2841" t="inlineStr"/>
@@ -91364,23 +91104,23 @@
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr"/>
       <c r="E2842" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2842" t="inlineStr"/>
@@ -91394,21 +91134,25 @@
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2843" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2843" t="inlineStr"/>
-      <c r="E2843" t="inlineStr"/>
+      <c r="E2843" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
       <c r="H2843" t="inlineStr">
@@ -91420,137 +91164,137 @@
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
-      <c r="E2844" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2844" t="inlineStr"/>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
       <c r="H2844" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
       <c r="E2845" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
       <c r="H2845" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
       <c r="E2846" t="inlineStr"/>
       <c r="F2846" t="inlineStr"/>
-      <c r="G2846" t="inlineStr"/>
+      <c r="G2846" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2846" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
-      <c r="E2847" t="inlineStr">
-        <is>
-          <t>4.21%</t>
-        </is>
-      </c>
+      <c r="E2847" t="inlineStr"/>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
       <c r="H2847" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2848">
       <c r="A2848" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
-      <c r="E2848" t="inlineStr"/>
+      <c r="E2848" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
       <c r="H2848" t="inlineStr">
@@ -91562,17 +91306,17 @@
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2849" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr"/>
@@ -91588,31 +91332,23 @@
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
-      <c r="E2850" t="inlineStr">
-        <is>
-          <t>-19.5%</t>
-        </is>
-      </c>
+      <c r="E2850" t="inlineStr"/>
       <c r="F2850" t="inlineStr"/>
-      <c r="G2850" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G2850" t="inlineStr"/>
       <c r="H2850" t="inlineStr">
         <is>
           <t>3</t>
@@ -91622,31 +91358,27 @@
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr"/>
-      <c r="G2851" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
+      <c r="G2851" t="inlineStr"/>
       <c r="H2851" t="inlineStr">
         <is>
           <t>3</t>
@@ -91656,59 +91388,55 @@
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
       <c r="E2852" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2852" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
-      <c r="E2853" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2853" t="inlineStr"/>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
       <c r="H2853" t="inlineStr">
@@ -91720,77 +91448,65 @@
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
-      <c r="E2854" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2854" t="inlineStr"/>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
       <c r="H2854" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
-      <c r="E2855" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2855" t="inlineStr"/>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr"/>
       <c r="H2855" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2856">
-      <c r="A2856" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2856" t="inlineStr"/>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
@@ -91799,34 +91515,34 @@
       <c r="G2856" t="inlineStr"/>
       <c r="H2856" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2857">
-      <c r="A2857" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2857" t="inlineStr"/>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
-      <c r="G2857" t="inlineStr"/>
+      <c r="G2857" t="inlineStr">
+        <is>
+          <t>$3.3T</t>
+        </is>
+      </c>
       <c r="H2857" t="inlineStr">
         <is>
           <t>3</t>
@@ -91834,71 +91550,59 @@
       </c>
     </row>
     <row r="2858">
-      <c r="A2858" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2858" t="inlineStr"/>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
-      <c r="E2858" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2858" t="inlineStr"/>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr"/>
       <c r="H2858" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2859">
-      <c r="A2859" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2859" t="inlineStr"/>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
-      <c r="G2859" t="inlineStr"/>
+      <c r="G2859" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
       <c r="H2859" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2860">
-      <c r="A2860" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2860" t="inlineStr"/>
       <c r="B2860" t="inlineStr">
         <is>
           <t>US</t>
@@ -91906,29 +91610,25 @@
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
       <c r="H2860" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2861">
-      <c r="A2861" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2861" t="inlineStr"/>
       <c r="B2861" t="inlineStr">
         <is>
           <t>US</t>
@@ -91936,77 +91636,65 @@
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
       <c r="H2861" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2862" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2862" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2862" t="inlineStr"/>
+      <c r="C2862" t="inlineStr"/>
       <c r="D2862" t="inlineStr"/>
-      <c r="E2862" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2862" t="inlineStr"/>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2862" t="inlineStr"/>
     </row>
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr"/>
+      <c r="G2863" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H2863" t="inlineStr">
         <is>
           <t>3</t>
@@ -92016,7 +91704,7 @@
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
@@ -92026,682 +91714,22 @@
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
       <c r="E2864" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2864" t="inlineStr"/>
-      <c r="G2864" t="inlineStr"/>
+      <c r="G2864" t="inlineStr">
+        <is>
+          <t>$ 18B</t>
+        </is>
+      </c>
       <c r="H2864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2865">
-      <c r="A2865" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2865" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2865" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsJAN</t>
-        </is>
-      </c>
-      <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2866">
-      <c r="A2866" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2866" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2866" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
-      <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr"/>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2867">
-      <c r="A2867" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2867" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2867" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
-      <c r="D2867" t="inlineStr"/>
-      <c r="E2867" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr"/>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2868">
-      <c r="A2868" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B2868" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2868" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr"/>
-      <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr"/>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2869">
-      <c r="A2869" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2869" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2869" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2869" t="inlineStr"/>
-      <c r="E2869" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2869" t="inlineStr"/>
-      <c r="G2869" t="inlineStr"/>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2870">
-      <c r="A2870" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2870" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2870" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2870" t="inlineStr"/>
-      <c r="E2870" t="inlineStr"/>
-      <c r="F2870" t="inlineStr"/>
-      <c r="G2870" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2871">
-      <c r="A2871" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2871" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2871" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2871" t="inlineStr"/>
-      <c r="E2871" t="inlineStr"/>
-      <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2872">
-      <c r="A2872" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2872" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2872" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2872" t="inlineStr"/>
-      <c r="E2872" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2873">
-      <c r="A2873" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2873" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2873" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2873" t="inlineStr"/>
-      <c r="E2873" t="inlineStr"/>
-      <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2874">
-      <c r="A2874" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2874" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2874" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2874" t="inlineStr"/>
-      <c r="E2874" t="inlineStr"/>
-      <c r="F2874" t="inlineStr"/>
-      <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2875">
-      <c r="A2875" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2875" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2875" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr"/>
-      <c r="H2875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2876">
-      <c r="A2876" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2876" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2876" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2876" t="inlineStr"/>
-      <c r="E2876" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2877">
-      <c r="A2877" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2877" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2877" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr"/>
-      <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr"/>
-      <c r="H2877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2878">
-      <c r="A2878" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2878" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2878" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr"/>
-      <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr"/>
-      <c r="H2878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2879">
-      <c r="A2879" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2879" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2879" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2879" t="inlineStr"/>
-      <c r="E2879" t="inlineStr"/>
-      <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr"/>
-      <c r="H2879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2880">
-      <c r="A2880" t="inlineStr"/>
-      <c r="B2880" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2880" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2880" t="inlineStr"/>
-      <c r="E2880" t="inlineStr"/>
-      <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr"/>
-      <c r="H2880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2881">
-      <c r="A2881" t="inlineStr"/>
-      <c r="B2881" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2881" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2881" t="inlineStr"/>
-      <c r="E2881" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2881" t="inlineStr"/>
-      <c r="G2881" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2882">
-      <c r="A2882" t="inlineStr"/>
-      <c r="B2882" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2882" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2882" t="inlineStr"/>
-      <c r="E2882" t="inlineStr"/>
-      <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr"/>
-      <c r="H2882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2883">
-      <c r="A2883" t="inlineStr"/>
-      <c r="B2883" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2883" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2883" t="inlineStr"/>
-      <c r="E2883" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2884">
-      <c r="A2884" t="inlineStr"/>
-      <c r="B2884" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2884" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr"/>
-      <c r="H2884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2885">
-      <c r="A2885" t="inlineStr"/>
-      <c r="B2885" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2885" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr"/>
-      <c r="H2885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2886">
-      <c r="A2886" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2886" t="inlineStr"/>
-      <c r="C2886" t="inlineStr"/>
-      <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr"/>
-      <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr"/>
-      <c r="H2886" t="inlineStr"/>
-    </row>
-    <row r="2887">
-      <c r="A2887" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2887" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2887" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2887" t="inlineStr"/>
-      <c r="E2887" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2888">
-      <c r="A2888" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2888" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2888" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2888" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2865"/>
+  <dimension ref="A1:H2841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88969,10 +88969,8 @@
       </c>
       <c r="F2764" t="inlineStr"/>
       <c r="G2764" t="inlineStr"/>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2765">
@@ -89007,10 +89005,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2766">
@@ -89033,10 +89029,8 @@
       <c r="E2766" t="inlineStr"/>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr"/>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2767">
@@ -89059,10 +89053,8 @@
       <c r="E2767" t="inlineStr"/>
       <c r="F2767" t="inlineStr"/>
       <c r="G2767" t="inlineStr"/>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2768">
@@ -89085,10 +89077,8 @@
       <c r="E2768" t="inlineStr"/>
       <c r="F2768" t="inlineStr"/>
       <c r="G2768" t="inlineStr"/>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2769">
@@ -89111,10 +89101,8 @@
       <c r="E2769" t="inlineStr"/>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2770">
@@ -89137,10 +89125,8 @@
       <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2771">
@@ -89167,10 +89153,8 @@
       </c>
       <c r="F2771" t="inlineStr"/>
       <c r="G2771" t="inlineStr"/>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -89193,10 +89177,8 @@
       <c r="E2772" t="inlineStr"/>
       <c r="F2772" t="inlineStr"/>
       <c r="G2772" t="inlineStr"/>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2773">
@@ -89223,10 +89205,8 @@
       </c>
       <c r="F2773" t="inlineStr"/>
       <c r="G2773" t="inlineStr"/>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2774">
@@ -89253,10 +89233,8 @@
       </c>
       <c r="F2774" t="inlineStr"/>
       <c r="G2774" t="inlineStr"/>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2775">
@@ -89279,10 +89257,8 @@
       <c r="E2775" t="inlineStr"/>
       <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr"/>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -89305,10 +89281,8 @@
       <c r="E2776" t="inlineStr"/>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -89331,10 +89305,8 @@
       <c r="E2777" t="inlineStr"/>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2778">
@@ -89357,10 +89329,8 @@
       <c r="E2778" t="inlineStr"/>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -89383,10 +89353,8 @@
       <c r="E2779" t="inlineStr"/>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr"/>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89409,10 +89377,8 @@
       <c r="E2780" t="inlineStr"/>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -89439,10 +89405,8 @@
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr"/>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2782">
@@ -89465,10 +89429,8 @@
       <c r="E2782" t="inlineStr"/>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr"/>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -89491,10 +89453,8 @@
       <c r="E2783" t="inlineStr"/>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -89517,10 +89477,8 @@
       </c>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -89539,10 +89497,8 @@
       <c r="E2785" t="inlineStr"/>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -89561,10 +89517,8 @@
       <c r="E2786" t="inlineStr"/>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -89583,10 +89537,8 @@
       <c r="E2787" t="inlineStr"/>
       <c r="F2787" t="inlineStr"/>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -89605,10 +89557,8 @@
       <c r="E2788" t="inlineStr"/>
       <c r="F2788" t="inlineStr"/>
       <c r="G2788" t="inlineStr"/>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -89631,104 +89581,134 @@
       </c>
       <c r="F2789" t="inlineStr"/>
       <c r="G2789" t="inlineStr"/>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
       <c r="A2790" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2790" t="inlineStr"/>
-      <c r="C2790" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2790" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2790" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
       <c r="D2790" t="inlineStr"/>
-      <c r="E2790" t="inlineStr"/>
+      <c r="E2790" t="inlineStr">
+        <is>
+          <t>€57.186B</t>
+        </is>
+      </c>
       <c r="F2790" t="inlineStr"/>
-      <c r="G2790" t="inlineStr"/>
-      <c r="H2790" t="inlineStr"/>
+      <c r="G2790" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2790" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2791">
       <c r="A2791" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2791" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2791" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2791" t="inlineStr"/>
       <c r="E2791" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2791" t="inlineStr"/>
       <c r="G2791" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>20200%</t>
         </is>
       </c>
       <c r="H2791" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2792">
       <c r="A2792" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2792" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2792" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2792" t="inlineStr"/>
-      <c r="E2792" t="inlineStr"/>
+      <c r="E2792" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2792" t="inlineStr"/>
-      <c r="G2792" t="inlineStr"/>
+      <c r="G2792" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2792" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2793">
       <c r="A2793" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2793" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2793" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2793" t="inlineStr"/>
-      <c r="E2793" t="inlineStr"/>
+      <c r="E2793" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
       <c r="H2793" t="inlineStr">
@@ -89740,89 +89720,81 @@
     <row r="2794">
       <c r="A2794" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2794" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2794" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2794" t="inlineStr"/>
       <c r="E2794" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
       <c r="H2794" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2795">
       <c r="A2795" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2795" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2795" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2795" t="inlineStr"/>
       <c r="E2795" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2795" t="inlineStr"/>
-      <c r="G2795" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2795" t="inlineStr"/>
       <c r="H2795" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2796">
       <c r="A2796" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2796" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2796" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2796" t="inlineStr"/>
-      <c r="E2796" t="inlineStr">
-        <is>
-          <t>$155.7B</t>
-        </is>
-      </c>
+      <c r="E2796" t="inlineStr"/>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
       <c r="H2796" t="inlineStr">
@@ -89834,147 +89806,139 @@
     <row r="2797">
       <c r="A2797" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2797" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2797" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2797" t="inlineStr"/>
-      <c r="E2797" t="inlineStr"/>
+      <c r="E2797" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
       <c r="H2797" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2798">
       <c r="A2798" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2798" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2798" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2798" t="inlineStr"/>
       <c r="E2798" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2798" t="inlineStr"/>
       <c r="G2798" t="inlineStr"/>
       <c r="H2798" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2799">
       <c r="A2799" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2799" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2799" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2799" t="inlineStr"/>
-      <c r="E2799" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
       <c r="H2799" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2800">
       <c r="A2800" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2800" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2800" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2800" t="inlineStr"/>
       <c r="E2800" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
       <c r="H2800" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2801">
       <c r="A2801" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2801" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2801" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2801" t="inlineStr"/>
-      <c r="E2801" t="inlineStr">
-        <is>
-          <t>107.5</t>
-        </is>
-      </c>
+      <c r="E2801" t="inlineStr"/>
       <c r="F2801" t="inlineStr"/>
-      <c r="G2801" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
+      <c r="G2801" t="inlineStr"/>
       <c r="H2801" t="inlineStr">
         <is>
           <t>3</t>
@@ -89984,31 +89948,23 @@
     <row r="2802">
       <c r="A2802" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2802" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2802" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2802" t="inlineStr"/>
-      <c r="E2802" t="inlineStr">
-        <is>
-          <t>$65.46B</t>
-        </is>
-      </c>
+      <c r="E2802" t="inlineStr"/>
       <c r="F2802" t="inlineStr"/>
-      <c r="G2802" t="inlineStr">
-        <is>
-          <t>$65.0B</t>
-        </is>
-      </c>
+      <c r="G2802" t="inlineStr"/>
       <c r="H2802" t="inlineStr">
         <is>
           <t>3</t>
@@ -90018,159 +89974,155 @@
     <row r="2803">
       <c r="A2803" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2803" t="inlineStr"/>
       <c r="E2803" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2803" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2804">
       <c r="A2804" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2804" t="inlineStr"/>
       <c r="E2804" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2804" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2805">
       <c r="A2805" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2805" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2805" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2805" t="inlineStr"/>
       <c r="E2805" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2805" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2806">
       <c r="A2806" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2806" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2806" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2806" t="inlineStr"/>
       <c r="E2806" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2806" t="inlineStr"/>
-      <c r="G2806" t="inlineStr">
-        <is>
-          <t>108%</t>
-        </is>
-      </c>
+      <c r="G2806" t="inlineStr"/>
       <c r="H2806" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2807">
       <c r="A2807" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2807" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2807" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2807" t="inlineStr"/>
       <c r="E2807" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2807" t="inlineStr"/>
@@ -90184,23 +90136,23 @@
     <row r="2808">
       <c r="A2808" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2808" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2808" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2808" t="inlineStr"/>
       <c r="E2808" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2808" t="inlineStr"/>
@@ -90214,17 +90166,17 @@
     <row r="2809">
       <c r="A2809" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2809" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2809" t="inlineStr"/>
@@ -90240,231 +90192,207 @@
     <row r="2810">
       <c r="A2810" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2810" t="inlineStr"/>
       <c r="E2810" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2810" t="inlineStr"/>
-      <c r="G2810" t="inlineStr">
-        <is>
-          <t>€ -7.2B</t>
-        </is>
-      </c>
+      <c r="G2810" t="inlineStr"/>
       <c r="H2810" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2811">
       <c r="A2811" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2811" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2811" t="inlineStr"/>
       <c r="E2811" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2811" t="inlineStr"/>
-      <c r="G2811" t="inlineStr">
-        <is>
-          <t>€ -2.5B</t>
-        </is>
-      </c>
+      <c r="G2811" t="inlineStr"/>
       <c r="H2811" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2812">
       <c r="A2812" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2812" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2812" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2812" t="inlineStr"/>
       <c r="E2812" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2812" t="inlineStr"/>
-      <c r="G2812" t="inlineStr">
-        <is>
-          <t>€ 49.7B</t>
-        </is>
-      </c>
+      <c r="G2812" t="inlineStr"/>
       <c r="H2812" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2813">
       <c r="A2813" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2813" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2813" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2813" t="inlineStr"/>
       <c r="E2813" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
       <c r="H2813" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2814">
       <c r="A2814" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2814" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2814" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2814" t="inlineStr"/>
       <c r="E2814" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2814" t="inlineStr"/>
-      <c r="G2814" t="inlineStr">
-        <is>
-          <t>€ 56.9B</t>
-        </is>
-      </c>
+      <c r="G2814" t="inlineStr"/>
       <c r="H2814" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2815">
       <c r="A2815" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2815" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2815" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2815" t="inlineStr"/>
       <c r="E2815" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2815" t="inlineStr"/>
-      <c r="G2815" t="inlineStr">
-        <is>
-          <t>20200%</t>
-        </is>
-      </c>
+      <c r="G2815" t="inlineStr"/>
       <c r="H2815" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2816">
       <c r="A2816" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2816" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2816" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2816" t="inlineStr"/>
       <c r="E2816" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2816" t="inlineStr"/>
-      <c r="G2816" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="G2816" t="inlineStr"/>
       <c r="H2816" t="inlineStr">
         <is>
           <t>3</t>
@@ -90474,23 +90402,23 @@
     <row r="2817">
       <c r="A2817" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2817" t="inlineStr"/>
       <c r="E2817" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2817" t="inlineStr"/>
@@ -90504,23 +90432,23 @@
     <row r="2818">
       <c r="A2818" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2818" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2818" t="inlineStr"/>
       <c r="E2818" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2818" t="inlineStr"/>
@@ -90534,23 +90462,23 @@
     <row r="2819">
       <c r="A2819" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2819" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2819" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2819" t="inlineStr"/>
       <c r="E2819" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2819" t="inlineStr"/>
@@ -90564,21 +90492,25 @@
     <row r="2820">
       <c r="A2820" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2820" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2820" t="inlineStr"/>
-      <c r="E2820" t="inlineStr"/>
+      <c r="E2820" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
       <c r="H2820" t="inlineStr">
@@ -90590,137 +90522,137 @@
     <row r="2821">
       <c r="A2821" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2821" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2821" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2821" t="inlineStr"/>
-      <c r="E2821" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2821" t="inlineStr"/>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
       <c r="H2821" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2822">
       <c r="A2822" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2822" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2822" t="inlineStr"/>
       <c r="E2822" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
       <c r="H2822" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2823">
       <c r="A2823" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2823" t="inlineStr"/>
       <c r="E2823" t="inlineStr"/>
       <c r="F2823" t="inlineStr"/>
-      <c r="G2823" t="inlineStr"/>
+      <c r="G2823" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2823" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2824">
       <c r="A2824" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2824" t="inlineStr"/>
-      <c r="E2824" t="inlineStr">
-        <is>
-          <t>4.21%</t>
-        </is>
-      </c>
+      <c r="E2824" t="inlineStr"/>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
       <c r="H2824" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2825">
       <c r="A2825" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2825" t="inlineStr"/>
-      <c r="E2825" t="inlineStr"/>
+      <c r="E2825" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
       <c r="H2825" t="inlineStr">
@@ -90732,17 +90664,17 @@
     <row r="2826">
       <c r="A2826" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2826" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2826" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2826" t="inlineStr"/>
@@ -90758,31 +90690,23 @@
     <row r="2827">
       <c r="A2827" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2827" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2827" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2827" t="inlineStr"/>
-      <c r="E2827" t="inlineStr">
-        <is>
-          <t>-19.5%</t>
-        </is>
-      </c>
+      <c r="E2827" t="inlineStr"/>
       <c r="F2827" t="inlineStr"/>
-      <c r="G2827" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G2827" t="inlineStr"/>
       <c r="H2827" t="inlineStr">
         <is>
           <t>3</t>
@@ -90792,31 +90716,27 @@
     <row r="2828">
       <c r="A2828" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2828" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2828" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2828" t="inlineStr"/>
       <c r="E2828" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2828" t="inlineStr"/>
-      <c r="G2828" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
+      <c r="G2828" t="inlineStr"/>
       <c r="H2828" t="inlineStr">
         <is>
           <t>3</t>
@@ -90826,59 +90746,55 @@
     <row r="2829">
       <c r="A2829" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2829" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2829" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2829" t="inlineStr"/>
       <c r="E2829" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2829" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2830">
       <c r="A2830" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2830" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2830" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2830" t="inlineStr"/>
-      <c r="E2830" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2830" t="inlineStr"/>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
       <c r="H2830" t="inlineStr">
@@ -90890,77 +90806,65 @@
     <row r="2831">
       <c r="A2831" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2831" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2831" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2831" t="inlineStr"/>
-      <c r="E2831" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2831" t="inlineStr"/>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
       <c r="H2831" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2832">
       <c r="A2832" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2832" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2832" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2832" t="inlineStr"/>
-      <c r="E2832" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2832" t="inlineStr"/>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
       <c r="H2832" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2833">
-      <c r="A2833" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2833" t="inlineStr"/>
       <c r="B2833" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2833" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2833" t="inlineStr"/>
@@ -90969,34 +90873,34 @@
       <c r="G2833" t="inlineStr"/>
       <c r="H2833" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2834">
-      <c r="A2834" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2834" t="inlineStr"/>
       <c r="B2834" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2834" t="inlineStr"/>
       <c r="E2834" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2834" t="inlineStr"/>
-      <c r="G2834" t="inlineStr"/>
+      <c r="G2834" t="inlineStr">
+        <is>
+          <t>$3.3T</t>
+        </is>
+      </c>
       <c r="H2834" t="inlineStr">
         <is>
           <t>3</t>
@@ -91004,71 +90908,59 @@
       </c>
     </row>
     <row r="2835">
-      <c r="A2835" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2835" t="inlineStr"/>
       <c r="B2835" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2835" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2835" t="inlineStr"/>
-      <c r="E2835" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2835" t="inlineStr"/>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
       <c r="H2835" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2836">
-      <c r="A2836" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2836" t="inlineStr"/>
       <c r="B2836" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2836" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2836" t="inlineStr"/>
       <c r="E2836" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2836" t="inlineStr"/>
-      <c r="G2836" t="inlineStr"/>
+      <c r="G2836" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
       <c r="H2836" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2837">
-      <c r="A2837" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2837" t="inlineStr"/>
       <c r="B2837" t="inlineStr">
         <is>
           <t>US</t>
@@ -91076,29 +90968,25 @@
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr"/>
       <c r="E2837" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
       <c r="H2837" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2838">
-      <c r="A2838" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2838" t="inlineStr"/>
       <c r="B2838" t="inlineStr">
         <is>
           <t>US</t>
@@ -91106,77 +90994,65 @@
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr"/>
       <c r="E2838" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
       <c r="H2838" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2839" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2839" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2839" t="inlineStr"/>
+      <c r="C2839" t="inlineStr"/>
       <c r="D2839" t="inlineStr"/>
-      <c r="E2839" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2839" t="inlineStr"/>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2839" t="inlineStr"/>
     </row>
     <row r="2840">
       <c r="A2840" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2840" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
       <c r="E2840" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2840" t="inlineStr"/>
-      <c r="G2840" t="inlineStr"/>
+      <c r="G2840" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H2840" t="inlineStr">
         <is>
           <t>3</t>
@@ -91186,7 +91062,7 @@
     <row r="2841">
       <c r="A2841" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2841" t="inlineStr">
@@ -91196,682 +91072,22 @@
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
       <c r="E2841" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2841" t="inlineStr"/>
-      <c r="G2841" t="inlineStr"/>
+      <c r="G2841" t="inlineStr">
+        <is>
+          <t>$ 18B</t>
+        </is>
+      </c>
       <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2842">
-      <c r="A2842" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2842" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2842" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsJAN</t>
-        </is>
-      </c>
-      <c r="D2842" t="inlineStr"/>
-      <c r="E2842" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="F2842" t="inlineStr"/>
-      <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2843">
-      <c r="A2843" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2843" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2843" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
-      <c r="D2843" t="inlineStr"/>
-      <c r="E2843" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2843" t="inlineStr"/>
-      <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2844">
-      <c r="A2844" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2844" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2844" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
-      <c r="D2844" t="inlineStr"/>
-      <c r="E2844" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2844" t="inlineStr"/>
-      <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2845">
-      <c r="A2845" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B2845" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2845" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2845" t="inlineStr"/>
-      <c r="E2845" t="inlineStr"/>
-      <c r="F2845" t="inlineStr"/>
-      <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2846">
-      <c r="A2846" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2846" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2846" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2846" t="inlineStr"/>
-      <c r="E2846" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2846" t="inlineStr"/>
-      <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2847">
-      <c r="A2847" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2847" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2847" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2847" t="inlineStr"/>
-      <c r="E2847" t="inlineStr"/>
-      <c r="F2847" t="inlineStr"/>
-      <c r="G2847" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2848">
-      <c r="A2848" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2848" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2848" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2848" t="inlineStr"/>
-      <c r="E2848" t="inlineStr"/>
-      <c r="F2848" t="inlineStr"/>
-      <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2849">
-      <c r="A2849" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2849" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2849" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2849" t="inlineStr"/>
-      <c r="E2849" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2849" t="inlineStr"/>
-      <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2850">
-      <c r="A2850" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2850" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2850" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2850" t="inlineStr"/>
-      <c r="E2850" t="inlineStr"/>
-      <c r="F2850" t="inlineStr"/>
-      <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2851">
-      <c r="A2851" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2851" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2851" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2851" t="inlineStr"/>
-      <c r="E2851" t="inlineStr"/>
-      <c r="F2851" t="inlineStr"/>
-      <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2852">
-      <c r="A2852" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2852" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2852" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2852" t="inlineStr"/>
-      <c r="E2852" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2852" t="inlineStr"/>
-      <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2853">
-      <c r="A2853" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2853" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2853" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2853" t="inlineStr"/>
-      <c r="E2853" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F2853" t="inlineStr"/>
-      <c r="G2853" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2854">
-      <c r="A2854" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2854" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2854" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2854" t="inlineStr"/>
-      <c r="E2854" t="inlineStr"/>
-      <c r="F2854" t="inlineStr"/>
-      <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2855">
-      <c r="A2855" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2855" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2855" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2855" t="inlineStr"/>
-      <c r="E2855" t="inlineStr"/>
-      <c r="F2855" t="inlineStr"/>
-      <c r="G2855" t="inlineStr"/>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2856">
-      <c r="A2856" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2856" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2856" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2856" t="inlineStr"/>
-      <c r="E2856" t="inlineStr"/>
-      <c r="F2856" t="inlineStr"/>
-      <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2857">
-      <c r="A2857" t="inlineStr"/>
-      <c r="B2857" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2857" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2857" t="inlineStr"/>
-      <c r="E2857" t="inlineStr"/>
-      <c r="F2857" t="inlineStr"/>
-      <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2858">
-      <c r="A2858" t="inlineStr"/>
-      <c r="B2858" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2858" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2858" t="inlineStr"/>
-      <c r="E2858" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2858" t="inlineStr"/>
-      <c r="G2858" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2859">
-      <c r="A2859" t="inlineStr"/>
-      <c r="B2859" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2859" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2859" t="inlineStr"/>
-      <c r="E2859" t="inlineStr"/>
-      <c r="F2859" t="inlineStr"/>
-      <c r="G2859" t="inlineStr"/>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2860">
-      <c r="A2860" t="inlineStr"/>
-      <c r="B2860" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2860" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2860" t="inlineStr"/>
-      <c r="E2860" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2860" t="inlineStr"/>
-      <c r="G2860" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2861">
-      <c r="A2861" t="inlineStr"/>
-      <c r="B2861" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2861" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2861" t="inlineStr"/>
-      <c r="E2861" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2861" t="inlineStr"/>
-      <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2862">
-      <c r="A2862" t="inlineStr"/>
-      <c r="B2862" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2862" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2862" t="inlineStr"/>
-      <c r="E2862" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2862" t="inlineStr"/>
-      <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2863">
-      <c r="A2863" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2863" t="inlineStr"/>
-      <c r="C2863" t="inlineStr"/>
-      <c r="D2863" t="inlineStr"/>
-      <c r="E2863" t="inlineStr"/>
-      <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr"/>
-    </row>
-    <row r="2864">
-      <c r="A2864" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2864" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2864" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2864" t="inlineStr"/>
-      <c r="E2864" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2864" t="inlineStr"/>
-      <c r="G2864" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2865">
-      <c r="A2865" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2865" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2865" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2865" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2986"/>
+  <dimension ref="A1:H2962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79129,10 +79129,8 @@
         </is>
       </c>
       <c r="G2443" t="inlineStr"/>
-      <c r="H2443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2444">
@@ -79155,10 +79153,8 @@
       <c r="E2444" t="inlineStr"/>
       <c r="F2444" t="inlineStr"/>
       <c r="G2444" t="inlineStr"/>
-      <c r="H2444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2444" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2445">
@@ -79197,10 +79193,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2445" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2445" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2446">
@@ -79239,10 +79233,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2446" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2446" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2447">
@@ -79281,10 +79273,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2447" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2447" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2448">
@@ -79323,10 +79313,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2448" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2448" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2449">
@@ -79365,10 +79353,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2449" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2449" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2450">
@@ -79403,10 +79389,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H2450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2451">
@@ -79445,10 +79429,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2452">
@@ -79487,10 +79469,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2453">
@@ -79521,10 +79501,8 @@
       </c>
       <c r="F2453" t="inlineStr"/>
       <c r="G2453" t="inlineStr"/>
-      <c r="H2453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2454">
@@ -79563,10 +79541,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H2454" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2454" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2455">
@@ -79605,10 +79581,8 @@
           <t>-21</t>
         </is>
       </c>
-      <c r="H2455" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2455" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2456">
@@ -79647,10 +79621,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2456" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2456" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2457">
@@ -79689,10 +79661,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H2457" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2457" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2458">
@@ -79727,10 +79697,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2459">
@@ -79769,10 +79737,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2460">
@@ -79811,10 +79777,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2461">
@@ -79853,10 +79817,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H2461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2462">
@@ -79895,10 +79857,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2462" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2462" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2463">
@@ -79929,10 +79889,8 @@
       </c>
       <c r="F2463" t="inlineStr"/>
       <c r="G2463" t="inlineStr"/>
-      <c r="H2463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2464">
@@ -79963,10 +79921,8 @@
       </c>
       <c r="F2464" t="inlineStr"/>
       <c r="G2464" t="inlineStr"/>
-      <c r="H2464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2465">
@@ -79997,10 +79953,8 @@
       </c>
       <c r="F2465" t="inlineStr"/>
       <c r="G2465" t="inlineStr"/>
-      <c r="H2465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2466">
@@ -80039,10 +79993,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2466" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2466" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2467">
@@ -80073,10 +80025,8 @@
       </c>
       <c r="F2467" t="inlineStr"/>
       <c r="G2467" t="inlineStr"/>
-      <c r="H2467" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2467" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2468">
@@ -80107,10 +80057,8 @@
       </c>
       <c r="F2468" t="inlineStr"/>
       <c r="G2468" t="inlineStr"/>
-      <c r="H2468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2469">
@@ -80141,10 +80089,8 @@
       </c>
       <c r="F2469" t="inlineStr"/>
       <c r="G2469" t="inlineStr"/>
-      <c r="H2469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2470">
@@ -80175,10 +80121,8 @@
       </c>
       <c r="F2470" t="inlineStr"/>
       <c r="G2470" t="inlineStr"/>
-      <c r="H2470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2471">
@@ -80209,10 +80153,8 @@
       </c>
       <c r="F2471" t="inlineStr"/>
       <c r="G2471" t="inlineStr"/>
-      <c r="H2471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2472">
@@ -80251,10 +80193,8 @@
           <t>$ -106B</t>
         </is>
       </c>
-      <c r="H2472" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2472" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2473">
@@ -80289,10 +80229,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2473" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2474">
@@ -80331,10 +80269,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2474" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2475">
@@ -80357,10 +80293,8 @@
       <c r="E2475" t="inlineStr"/>
       <c r="F2475" t="inlineStr"/>
       <c r="G2475" t="inlineStr"/>
-      <c r="H2475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2475" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2476">
@@ -80399,10 +80333,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2476" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2476" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2477">
@@ -80425,10 +80357,8 @@
       <c r="E2477" t="inlineStr"/>
       <c r="F2477" t="inlineStr"/>
       <c r="G2477" t="inlineStr"/>
-      <c r="H2477" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2477" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2478">
@@ -80451,10 +80381,8 @@
       <c r="E2478" t="inlineStr"/>
       <c r="F2478" t="inlineStr"/>
       <c r="G2478" t="inlineStr"/>
-      <c r="H2478" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2478" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2479">
@@ -80485,10 +80413,8 @@
         </is>
       </c>
       <c r="G2479" t="inlineStr"/>
-      <c r="H2479" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2479" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2480">
@@ -80519,10 +80445,8 @@
         </is>
       </c>
       <c r="G2480" t="inlineStr"/>
-      <c r="H2480" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2480" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2481">
@@ -80549,10 +80473,8 @@
       </c>
       <c r="F2481" t="inlineStr"/>
       <c r="G2481" t="inlineStr"/>
-      <c r="H2481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2482">
@@ -80579,10 +80501,8 @@
       </c>
       <c r="F2482" t="inlineStr"/>
       <c r="G2482" t="inlineStr"/>
-      <c r="H2482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2483">
@@ -80609,10 +80529,8 @@
       </c>
       <c r="F2483" t="inlineStr"/>
       <c r="G2483" t="inlineStr"/>
-      <c r="H2483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2484">
@@ -80643,10 +80561,8 @@
         </is>
       </c>
       <c r="G2484" t="inlineStr"/>
-      <c r="H2484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2485">
@@ -80673,10 +80589,8 @@
       </c>
       <c r="F2485" t="inlineStr"/>
       <c r="G2485" t="inlineStr"/>
-      <c r="H2485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2486">
@@ -80703,10 +80617,8 @@
       </c>
       <c r="F2486" t="inlineStr"/>
       <c r="G2486" t="inlineStr"/>
-      <c r="H2486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2487">
@@ -80733,10 +80645,8 @@
       </c>
       <c r="F2487" t="inlineStr"/>
       <c r="G2487" t="inlineStr"/>
-      <c r="H2487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2488">
@@ -80767,10 +80677,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2489">
@@ -80801,10 +80709,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2490">
@@ -80831,10 +80737,8 @@
       </c>
       <c r="F2490" t="inlineStr"/>
       <c r="G2490" t="inlineStr"/>
-      <c r="H2490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2491">
@@ -80883,10 +80787,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2492" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2492" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2493">
@@ -80909,10 +80811,8 @@
       <c r="E2493" t="inlineStr"/>
       <c r="F2493" t="inlineStr"/>
       <c r="G2493" t="inlineStr"/>
-      <c r="H2493" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2493" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2494">
@@ -80947,10 +80847,8 @@
           <t>13.25%</t>
         </is>
       </c>
-      <c r="H2494" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2494" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2495">
@@ -80977,10 +80875,8 @@
       </c>
       <c r="F2495" t="inlineStr"/>
       <c r="G2495" t="inlineStr"/>
-      <c r="H2495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2496">
@@ -81007,10 +80903,8 @@
       </c>
       <c r="F2496" t="inlineStr"/>
       <c r="G2496" t="inlineStr"/>
-      <c r="H2496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2497">
@@ -81041,10 +80935,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2498">
@@ -81067,10 +80959,8 @@
       <c r="E2498" t="inlineStr"/>
       <c r="F2498" t="inlineStr"/>
       <c r="G2498" t="inlineStr"/>
-      <c r="H2498" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2498" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2499">
@@ -81101,10 +80991,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2500">
@@ -81139,10 +81027,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2501">
@@ -81165,10 +81051,8 @@
       <c r="E2501" t="inlineStr"/>
       <c r="F2501" t="inlineStr"/>
       <c r="G2501" t="inlineStr"/>
-      <c r="H2501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2502">
@@ -81199,10 +81083,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2502" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2503">
@@ -81229,10 +81111,8 @@
       </c>
       <c r="F2503" t="inlineStr"/>
       <c r="G2503" t="inlineStr"/>
-      <c r="H2503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2504">
@@ -81263,10 +81143,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2505">
@@ -81289,10 +81167,8 @@
       <c r="E2505" t="inlineStr"/>
       <c r="F2505" t="inlineStr"/>
       <c r="G2505" t="inlineStr"/>
-      <c r="H2505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2506">
@@ -81327,10 +81203,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2506" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2506" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2507">
@@ -81361,10 +81235,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2507" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2507" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2508">
@@ -81399,10 +81271,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2509">
@@ -81437,10 +81307,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2510">
@@ -81475,10 +81343,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2511">
@@ -81509,10 +81375,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2512">
@@ -81547,10 +81411,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2512" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2513">
@@ -81585,10 +81447,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2513" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2514">
@@ -81619,10 +81479,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2515">
@@ -81657,10 +81515,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2516">
@@ -81695,10 +81551,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2517">
@@ -81733,10 +81587,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2517" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2517" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2518">
@@ -81771,10 +81623,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2518" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2518" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2519">
@@ -81809,10 +81659,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2519" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2519" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2520">
@@ -81847,10 +81695,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2520" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2520" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2521">
@@ -81881,10 +81727,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2522">
@@ -81915,10 +81759,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2523">
@@ -81953,10 +81795,8 @@
           <t>£ 1.0B</t>
         </is>
       </c>
-      <c r="H2523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2523" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2524">
@@ -81991,10 +81831,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2524" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2525">
@@ -82029,10 +81867,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2525" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2526">
@@ -82067,10 +81903,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2527">
@@ -82105,10 +81939,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2528">
@@ -82143,10 +81975,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2528" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2528" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2529">
@@ -82181,10 +82011,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2529" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2529" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2530">
@@ -82215,10 +82043,8 @@
         </is>
       </c>
       <c r="G2530" t="inlineStr"/>
-      <c r="H2530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2531">
@@ -82253,10 +82079,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2532">
@@ -82291,10 +82115,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2532" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2533">
@@ -82325,10 +82147,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2534">
@@ -82363,10 +82183,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2535">
@@ -82397,10 +82215,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2536">
@@ -82435,10 +82251,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2537">
@@ -82473,10 +82287,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2537" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2537" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2538">
@@ -82503,10 +82315,8 @@
       </c>
       <c r="F2538" t="inlineStr"/>
       <c r="G2538" t="inlineStr"/>
-      <c r="H2538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2539">
@@ -82533,10 +82343,8 @@
       </c>
       <c r="F2539" t="inlineStr"/>
       <c r="G2539" t="inlineStr"/>
-      <c r="H2539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2540">
@@ -82563,10 +82371,8 @@
       </c>
       <c r="F2540" t="inlineStr"/>
       <c r="G2540" t="inlineStr"/>
-      <c r="H2540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2541">
@@ -82601,10 +82407,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2542">
@@ -82635,10 +82439,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2543">
@@ -82669,10 +82471,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2544">
@@ -82695,10 +82495,8 @@
       <c r="E2544" t="inlineStr"/>
       <c r="F2544" t="inlineStr"/>
       <c r="G2544" t="inlineStr"/>
-      <c r="H2544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2545">
@@ -82725,10 +82523,8 @@
       </c>
       <c r="F2545" t="inlineStr"/>
       <c r="G2545" t="inlineStr"/>
-      <c r="H2545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2546">
@@ -82759,10 +82555,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2547">
@@ -82797,10 +82591,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2547" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2548">
@@ -82835,10 +82627,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2548" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2549">
@@ -82869,10 +82659,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2549" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2550">
@@ -82907,10 +82695,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2551">
@@ -82941,10 +82727,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2552">
@@ -82979,10 +82763,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2552" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2552" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2553">
@@ -83017,10 +82799,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2553" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2553" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2554">
@@ -83051,10 +82831,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2554" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2555">
@@ -83085,10 +82863,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2555" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2556">
@@ -83123,10 +82899,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2556" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2556" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2557">
@@ -83161,10 +82935,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2557" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2557" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2558">
@@ -83199,10 +82971,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2558" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2558" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2559">
@@ -83237,10 +83007,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2560">
@@ -83275,10 +83043,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2561">
@@ -83309,10 +83075,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2562">
@@ -83343,10 +83107,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2562" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2563">
@@ -83377,10 +83139,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2563" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2564">
@@ -83411,10 +83171,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2564" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2565">
@@ -83437,10 +83195,8 @@
       <c r="E2565" t="inlineStr"/>
       <c r="F2565" t="inlineStr"/>
       <c r="G2565" t="inlineStr"/>
-      <c r="H2565" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2565" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2566">
@@ -83475,10 +83231,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="H2566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2566" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2567">
@@ -83509,10 +83263,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2567" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2567" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2568">
@@ -83543,10 +83295,8 @@
         </is>
       </c>
       <c r="G2568" t="inlineStr"/>
-      <c r="H2568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2569">
@@ -83573,10 +83323,8 @@
       </c>
       <c r="F2569" t="inlineStr"/>
       <c r="G2569" t="inlineStr"/>
-      <c r="H2569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2570">
@@ -83603,10 +83351,8 @@
       </c>
       <c r="F2570" t="inlineStr"/>
       <c r="G2570" t="inlineStr"/>
-      <c r="H2570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2571">
@@ -83633,10 +83379,8 @@
       </c>
       <c r="F2571" t="inlineStr"/>
       <c r="G2571" t="inlineStr"/>
-      <c r="H2571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2572">
@@ -83663,10 +83407,8 @@
       </c>
       <c r="F2572" t="inlineStr"/>
       <c r="G2572" t="inlineStr"/>
-      <c r="H2572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2573">
@@ -83689,10 +83431,8 @@
       </c>
       <c r="F2573" t="inlineStr"/>
       <c r="G2573" t="inlineStr"/>
-      <c r="H2573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2574">
@@ -83719,10 +83459,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2575">
@@ -83749,10 +83487,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2576">
@@ -83779,10 +83515,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83809,10 +83543,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83835,10 +83567,8 @@
       </c>
       <c r="F2578" t="inlineStr"/>
       <c r="G2578" t="inlineStr"/>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2579">
@@ -83861,10 +83591,8 @@
       </c>
       <c r="F2579" t="inlineStr"/>
       <c r="G2579" t="inlineStr"/>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2580">
@@ -83895,10 +83623,8 @@
           <t>-425.0K</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2581">
@@ -83939,10 +83665,8 @@
       </c>
       <c r="F2582" t="inlineStr"/>
       <c r="G2582" t="inlineStr"/>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83977,10 +83701,8 @@
           <t>2.50%</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2584">
@@ -84015,10 +83737,8 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2585">
@@ -84053,10 +83773,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2586">
@@ -84087,10 +83805,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2587">
@@ -84121,10 +83837,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2588">
@@ -84159,10 +83873,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2589">
@@ -84197,10 +83909,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2590">
@@ -84231,10 +83941,8 @@
           <t>-1.6%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -84265,10 +83973,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -84299,10 +84005,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2593">
@@ -84337,10 +84041,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -84371,10 +84073,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -84409,10 +84109,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2596">
@@ -84443,10 +84141,8 @@
           <t>5.7%</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2597">
@@ -84477,10 +84173,8 @@
           <t>S$ 818.2B</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2598">
@@ -84507,10 +84201,8 @@
       </c>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2599">
@@ -84537,10 +84229,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -84575,10 +84265,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2601">
@@ -84609,10 +84297,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84643,10 +84329,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84681,10 +84365,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2604">
@@ -84719,10 +84401,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2605">
@@ -84753,10 +84433,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2606">
@@ -84791,10 +84469,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84825,10 +84501,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84859,10 +84533,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84897,10 +84569,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2610">
@@ -84935,10 +84605,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2611">
@@ -84973,10 +84641,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2612">
@@ -85011,10 +84677,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2613">
@@ -85049,10 +84713,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -85087,10 +84749,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -85121,10 +84781,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -85155,10 +84813,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -85189,10 +84845,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -85227,10 +84881,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -85257,10 +84909,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -85295,10 +84945,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2621">
@@ -85329,10 +84977,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -85367,10 +85013,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -85393,10 +85037,8 @@
       <c r="E2623" t="inlineStr"/>
       <c r="F2623" t="inlineStr"/>
       <c r="G2623" t="inlineStr"/>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2624">
@@ -85423,10 +85065,8 @@
       </c>
       <c r="F2624" t="inlineStr"/>
       <c r="G2624" t="inlineStr"/>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2625">
@@ -85453,10 +85093,8 @@
       </c>
       <c r="F2625" t="inlineStr"/>
       <c r="G2625" t="inlineStr"/>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -85483,10 +85121,8 @@
       </c>
       <c r="F2626" t="inlineStr"/>
       <c r="G2626" t="inlineStr"/>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -85513,10 +85149,8 @@
       </c>
       <c r="F2627" t="inlineStr"/>
       <c r="G2627" t="inlineStr"/>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2628">
@@ -85543,10 +85177,8 @@
       </c>
       <c r="F2628" t="inlineStr"/>
       <c r="G2628" t="inlineStr"/>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2629">
@@ -85573,10 +85205,8 @@
       </c>
       <c r="F2629" t="inlineStr"/>
       <c r="G2629" t="inlineStr"/>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2630">
@@ -85603,10 +85233,8 @@
       </c>
       <c r="F2630" t="inlineStr"/>
       <c r="G2630" t="inlineStr"/>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2631">
@@ -85633,10 +85261,8 @@
       </c>
       <c r="F2631" t="inlineStr"/>
       <c r="G2631" t="inlineStr"/>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2632">
@@ -85663,10 +85289,8 @@
       </c>
       <c r="F2632" t="inlineStr"/>
       <c r="G2632" t="inlineStr"/>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2633">
@@ -85693,10 +85317,8 @@
       </c>
       <c r="F2633" t="inlineStr"/>
       <c r="G2633" t="inlineStr"/>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2634">
@@ -85723,10 +85345,8 @@
       </c>
       <c r="F2634" t="inlineStr"/>
       <c r="G2634" t="inlineStr"/>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2635">
@@ -85753,10 +85373,8 @@
       </c>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2636">
@@ -85787,10 +85405,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2637">
@@ -85821,10 +85437,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2638">
@@ -85855,10 +85469,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85889,10 +85501,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2640">
@@ -85923,10 +85533,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85961,10 +85569,8 @@
           <t>BRL-75.0B</t>
         </is>
       </c>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85991,10 +85597,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -86021,10 +85625,8 @@
       </c>
       <c r="F2643" t="inlineStr"/>
       <c r="G2643" t="inlineStr"/>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -86051,10 +85653,8 @@
       </c>
       <c r="F2644" t="inlineStr"/>
       <c r="G2644" t="inlineStr"/>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -86085,10 +85685,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -86123,10 +85721,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2647">
@@ -86157,10 +85753,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2648">
@@ -86195,10 +85789,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2649">
@@ -86233,10 +85825,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2650">
@@ -86271,10 +85861,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2651">
@@ -86309,10 +85897,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2652">
@@ -86347,10 +85933,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2653">
@@ -86381,10 +85965,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2654">
@@ -86419,10 +86001,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2655">
@@ -86457,10 +86037,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2656">
@@ -86495,10 +86073,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2657">
@@ -86529,10 +86105,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2658">
@@ -86563,10 +86137,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2659">
@@ -86601,10 +86173,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2660">
@@ -86627,10 +86197,8 @@
       <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
       <c r="G2660" t="inlineStr"/>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2661">
@@ -86665,10 +86233,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2662">
@@ -86703,10 +86269,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2663">
@@ -86741,10 +86305,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2664">
@@ -86779,10 +86341,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2665">
@@ -86813,10 +86373,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2666">
@@ -86843,10 +86401,8 @@
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr"/>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2667">
@@ -86873,10 +86429,8 @@
       </c>
       <c r="F2667" t="inlineStr"/>
       <c r="G2667" t="inlineStr"/>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2668">
@@ -86903,10 +86457,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2669">
@@ -86933,10 +86485,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2670">
@@ -86963,10 +86513,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2671">
@@ -86993,10 +86541,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2672">
@@ -87023,10 +86569,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2673">
@@ -87053,10 +86597,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2674">
@@ -87083,10 +86625,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2675">
@@ -87131,10 +86671,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2677">
@@ -87165,10 +86703,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -87199,10 +86735,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -87243,10 +86777,8 @@
       </c>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2681">
@@ -87277,10 +86809,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -87311,10 +86841,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2683">
@@ -87345,10 +86873,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2684">
@@ -87371,10 +86897,8 @@
       <c r="E2684" t="inlineStr"/>
       <c r="F2684" t="inlineStr"/>
       <c r="G2684" t="inlineStr"/>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2685">
@@ -87405,10 +86929,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2686">
@@ -87439,10 +86961,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2687">
@@ -87469,10 +86989,8 @@
       </c>
       <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr"/>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -87499,10 +87017,8 @@
       </c>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr"/>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -87533,10 +87049,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2690">
@@ -87571,10 +87085,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2691">
@@ -87605,10 +87117,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2692">
@@ -87643,10 +87153,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2693">
@@ -87677,10 +87185,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2694">
@@ -87711,10 +87217,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2695">
@@ -87745,10 +87249,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2696">
@@ -87779,10 +87281,8 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -87817,10 +87317,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -87847,10 +87345,8 @@
       </c>
       <c r="F2698" t="inlineStr"/>
       <c r="G2698" t="inlineStr"/>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -87877,10 +87373,8 @@
       </c>
       <c r="F2699" t="inlineStr"/>
       <c r="G2699" t="inlineStr"/>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -87907,10 +87401,8 @@
       </c>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2701">
@@ -87941,10 +87433,8 @@
         </is>
       </c>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2702">
@@ -87975,10 +87465,8 @@
         </is>
       </c>
       <c r="G2702" t="inlineStr"/>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2703">
@@ -88005,10 +87493,8 @@
       </c>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2704">
@@ -88035,10 +87521,8 @@
       </c>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2705">
@@ -88065,10 +87549,8 @@
       </c>
       <c r="F2705" t="inlineStr"/>
       <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2706">
@@ -88095,10 +87577,8 @@
       </c>
       <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr"/>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2707">
@@ -88121,10 +87601,8 @@
       <c r="E2707" t="inlineStr"/>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -88151,10 +87629,8 @@
       </c>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2709">
@@ -88181,10 +87657,8 @@
       </c>
       <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr"/>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2710">
@@ -88219,10 +87693,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2711">
@@ -88257,10 +87729,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2712">
@@ -88295,10 +87765,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2713">
@@ -88329,10 +87797,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -88367,10 +87833,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2715">
@@ -88393,10 +87857,8 @@
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2716">
@@ -88423,10 +87885,8 @@
       </c>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2717">
@@ -88449,10 +87909,8 @@
       <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2718">
@@ -88479,10 +87937,8 @@
       </c>
       <c r="F2718" t="inlineStr"/>
       <c r="G2718" t="inlineStr"/>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -88509,10 +87965,8 @@
       </c>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2720">
@@ -88539,10 +87993,8 @@
       </c>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2721">
@@ -88569,10 +88021,8 @@
       </c>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2722">
@@ -88599,10 +88049,8 @@
       </c>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2723">
@@ -88633,10 +88081,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2724">
@@ -88667,10 +88113,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -88701,10 +88145,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -88727,10 +88169,8 @@
       <c r="E2726" t="inlineStr"/>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2727">
@@ -88753,10 +88193,8 @@
       <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr"/>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -88779,10 +88217,8 @@
       <c r="E2728" t="inlineStr"/>
       <c r="F2728" t="inlineStr"/>
       <c r="G2728" t="inlineStr"/>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2729">
@@ -88813,10 +88249,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2730">
@@ -88851,10 +88285,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2731">
@@ -88885,10 +88317,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2732">
@@ -88919,10 +88349,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2733">
@@ -88953,10 +88381,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2734">
@@ -88987,10 +88413,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2735">
@@ -89021,10 +88445,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2736">
@@ -89051,10 +88473,8 @@
       </c>
       <c r="F2736" t="inlineStr"/>
       <c r="G2736" t="inlineStr"/>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -89081,10 +88501,8 @@
       </c>
       <c r="F2737" t="inlineStr"/>
       <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -89107,10 +88525,8 @@
       <c r="E2738" t="inlineStr"/>
       <c r="F2738" t="inlineStr"/>
       <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2739">
@@ -89129,10 +88545,8 @@
       <c r="E2739" t="inlineStr"/>
       <c r="F2739" t="inlineStr"/>
       <c r="G2739" t="inlineStr"/>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2740">
@@ -89159,10 +88573,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2741">
@@ -89199,10 +88611,8 @@
       <c r="E2742" t="inlineStr"/>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -89229,10 +88639,8 @@
       </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -89259,10 +88667,8 @@
       </c>
       <c r="F2744" t="inlineStr"/>
       <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -89293,10 +88699,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -89323,10 +88727,8 @@
       </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -89353,10 +88755,8 @@
       </c>
       <c r="F2747" t="inlineStr"/>
       <c r="G2747" t="inlineStr"/>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2748">
@@ -89383,10 +88783,8 @@
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2749">
@@ -89413,10 +88811,8 @@
       </c>
       <c r="F2749" t="inlineStr"/>
       <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -89447,10 +88843,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -89473,10 +88867,8 @@
       <c r="E2751" t="inlineStr"/>
       <c r="F2751" t="inlineStr"/>
       <c r="G2751" t="inlineStr"/>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -89499,10 +88891,8 @@
       <c r="E2752" t="inlineStr"/>
       <c r="F2752" t="inlineStr"/>
       <c r="G2752" t="inlineStr"/>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2753">
@@ -89533,10 +88923,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -89567,10 +88955,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -89601,10 +88987,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2756">
@@ -89631,10 +89015,8 @@
       </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -89665,10 +89047,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2758">
@@ -89699,10 +89079,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2759">
@@ -89733,10 +89111,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2760">
@@ -89767,10 +89143,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2761">
@@ -89801,10 +89175,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2762">
@@ -89835,10 +89207,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2763">
@@ -89861,10 +89231,8 @@
       <c r="E2763" t="inlineStr"/>
       <c r="F2763" t="inlineStr"/>
       <c r="G2763" t="inlineStr"/>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2764">
@@ -89883,10 +89251,8 @@
       <c r="E2764" t="inlineStr"/>
       <c r="F2764" t="inlineStr"/>
       <c r="G2764" t="inlineStr"/>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2765">
@@ -89905,10 +89271,8 @@
       <c r="E2765" t="inlineStr"/>
       <c r="F2765" t="inlineStr"/>
       <c r="G2765" t="inlineStr"/>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2766">
@@ -89927,10 +89291,8 @@
       <c r="E2766" t="inlineStr"/>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr"/>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2767">
@@ -89953,10 +89315,8 @@
       </c>
       <c r="F2767" t="inlineStr"/>
       <c r="G2767" t="inlineStr"/>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2768">
@@ -89993,10 +89353,8 @@
       <c r="E2769" t="inlineStr"/>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2770">
@@ -90019,10 +89377,8 @@
       <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2771">
@@ -90049,10 +89405,8 @@
       </c>
       <c r="F2771" t="inlineStr"/>
       <c r="G2771" t="inlineStr"/>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2772">
@@ -90075,10 +89429,8 @@
       <c r="E2772" t="inlineStr"/>
       <c r="F2772" t="inlineStr"/>
       <c r="G2772" t="inlineStr"/>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2773">
@@ -90101,10 +89453,8 @@
       <c r="E2773" t="inlineStr"/>
       <c r="F2773" t="inlineStr"/>
       <c r="G2773" t="inlineStr"/>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -90131,10 +89481,8 @@
       </c>
       <c r="F2774" t="inlineStr"/>
       <c r="G2774" t="inlineStr"/>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2775">
@@ -90161,10 +89509,8 @@
       </c>
       <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr"/>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -90191,10 +89537,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -90221,10 +89565,8 @@
       </c>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -90259,10 +89601,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2779">
@@ -90293,10 +89633,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -90323,10 +89661,8 @@
       </c>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -90357,10 +89693,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2782">
@@ -90391,10 +89725,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -90421,10 +89753,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2784">
@@ -90451,10 +89781,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -90481,10 +89809,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -90519,10 +89845,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -90557,10 +89881,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -90591,10 +89913,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -90625,10 +89945,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -90655,10 +89973,8 @@
       </c>
       <c r="F2790" t="inlineStr"/>
       <c r="G2790" t="inlineStr"/>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2791">
@@ -90685,10 +90001,8 @@
       </c>
       <c r="F2791" t="inlineStr"/>
       <c r="G2791" t="inlineStr"/>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -90715,10 +90029,8 @@
       </c>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -90749,10 +90061,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2794">
@@ -90779,10 +90089,8 @@
       </c>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2795">
@@ -90809,10 +90117,8 @@
       </c>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -90839,10 +90145,8 @@
       </c>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2797">
@@ -90869,10 +90173,8 @@
       </c>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2798">
@@ -90907,10 +90209,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2799">
@@ -90945,10 +90245,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -90983,10 +90281,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2801">
@@ -91021,10 +90317,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2802">
@@ -91059,10 +90353,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2803">
@@ -91097,10 +90389,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2804">
@@ -91131,10 +90421,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2805">
@@ -91165,10 +90453,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -91199,10 +90485,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -91237,10 +90521,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2808">
@@ -91275,10 +90557,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -91309,10 +90589,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -91343,10 +90621,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -91373,10 +90649,8 @@
       </c>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -91403,10 +90677,8 @@
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -91433,10 +90705,8 @@
       </c>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -91463,10 +90733,8 @@
       </c>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -91497,10 +90765,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2816">
@@ -91531,10 +90797,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -91565,10 +90829,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -91599,10 +90861,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -91629,10 +90889,8 @@
       </c>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2820">
@@ -91659,10 +90917,8 @@
       </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -91689,10 +90945,8 @@
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -91719,10 +90973,8 @@
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -91749,10 +91001,8 @@
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -91783,10 +91033,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2825">
@@ -91817,10 +91065,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -91851,10 +91097,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -91885,10 +91129,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2828">
@@ -91919,10 +91161,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -91953,10 +91193,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -91987,10 +91225,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2831">
@@ -92021,10 +91257,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2832">
@@ -92055,10 +91289,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2833">
@@ -92081,10 +91313,8 @@
       <c r="E2833" t="inlineStr"/>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -92115,10 +91345,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -92149,10 +91377,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2836">
@@ -92187,10 +91413,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2837">
@@ -92225,10 +91449,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2838">
@@ -92259,10 +91481,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2839">
@@ -92293,10 +91513,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -92327,10 +91545,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -92361,10 +91577,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -92395,10 +91609,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2843">
@@ -92421,10 +91633,8 @@
       <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2844">
@@ -92447,10 +91657,8 @@
       <c r="E2844" t="inlineStr"/>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2845">
@@ -92473,10 +91681,8 @@
       <c r="E2845" t="inlineStr"/>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2846">
@@ -92499,10 +91705,8 @@
       <c r="E2846" t="inlineStr"/>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2847">
@@ -92525,10 +91729,8 @@
       <c r="E2847" t="inlineStr"/>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -92551,10 +91753,8 @@
       <c r="E2848" t="inlineStr"/>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2849">
@@ -92577,10 +91777,8 @@
       <c r="E2849" t="inlineStr"/>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2850">
@@ -92603,10 +91801,8 @@
       <c r="E2850" t="inlineStr"/>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2851">
@@ -92629,10 +91825,8 @@
       <c r="E2851" t="inlineStr"/>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2852">
@@ -92659,10 +91853,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2853">
@@ -92685,10 +91877,8 @@
       <c r="E2853" t="inlineStr"/>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2854">
@@ -92711,10 +91901,8 @@
       <c r="E2854" t="inlineStr"/>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2855">
@@ -92745,10 +91933,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2856">
@@ -92771,10 +91957,8 @@
       <c r="E2856" t="inlineStr"/>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
@@ -92801,10 +91985,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2858">
@@ -92827,10 +92009,8 @@
       <c r="E2858" t="inlineStr"/>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr"/>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2859">
@@ -92857,10 +92037,8 @@
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr"/>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2860">
@@ -92883,10 +92061,8 @@
       <c r="E2860" t="inlineStr"/>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2861">
@@ -92909,10 +92085,8 @@
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2862">
@@ -92957,10 +92131,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2863" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2864">
@@ -92991,10 +92163,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2865">
@@ -93025,10 +92195,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2866">
@@ -93055,10 +92223,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2867">
@@ -93081,10 +92247,8 @@
       <c r="E2867" t="inlineStr"/>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr"/>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2868">
@@ -93107,10 +92271,8 @@
       <c r="E2868" t="inlineStr"/>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr"/>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2869">
@@ -93133,10 +92295,8 @@
       <c r="E2869" t="inlineStr"/>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr"/>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2870">
@@ -93167,10 +92327,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2870" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2871">
@@ -93197,10 +92355,8 @@
       </c>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2872">
@@ -93227,10 +92383,8 @@
       </c>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2873">
@@ -93257,10 +92411,8 @@
       </c>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2874">
@@ -93287,10 +92439,8 @@
       </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2875">
@@ -93321,10 +92471,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2875" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2875" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2876">
@@ -93351,10 +92499,8 @@
       </c>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr"/>
-      <c r="H2876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2877">
@@ -93381,10 +92527,8 @@
       </c>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr"/>
-      <c r="H2877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2878">
@@ -93411,10 +92555,8 @@
       </c>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr"/>
-      <c r="H2878" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2878" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2879">
@@ -93441,10 +92583,8 @@
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr"/>
-      <c r="H2879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2880">
@@ -93475,10 +92615,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2880" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2881">
@@ -93509,10 +92647,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2881" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2881" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2882">
@@ -93543,10 +92679,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2883">
@@ -93569,10 +92703,8 @@
       <c r="E2883" t="inlineStr"/>
       <c r="F2883" t="inlineStr"/>
       <c r="G2883" t="inlineStr"/>
-      <c r="H2883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2884">
@@ -93595,10 +92727,8 @@
       <c r="E2884" t="inlineStr"/>
       <c r="F2884" t="inlineStr"/>
       <c r="G2884" t="inlineStr"/>
-      <c r="H2884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2885">
@@ -93629,10 +92759,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2885" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2886">
@@ -93667,10 +92795,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2886" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2886" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2887">
@@ -93693,10 +92819,8 @@
       <c r="E2887" t="inlineStr"/>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr"/>
-      <c r="H2887" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2887" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2888">
@@ -93719,10 +92843,8 @@
       <c r="E2888" t="inlineStr"/>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr"/>
-      <c r="H2888" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2888" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2889">
@@ -93745,10 +92867,8 @@
       <c r="E2889" t="inlineStr"/>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr"/>
-      <c r="H2889" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2889" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2890">
@@ -93771,10 +92891,8 @@
       <c r="E2890" t="inlineStr"/>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr"/>
-      <c r="H2890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2891">
@@ -93797,10 +92915,8 @@
       <c r="E2891" t="inlineStr"/>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr"/>
-      <c r="H2891" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2891" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2892">
@@ -93831,10 +92947,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2893">
@@ -93857,10 +92971,8 @@
       <c r="E2893" t="inlineStr"/>
       <c r="F2893" t="inlineStr"/>
       <c r="G2893" t="inlineStr"/>
-      <c r="H2893" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2893" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2894">
@@ -93891,10 +93003,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2894" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2895">
@@ -93925,10 +93035,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2895" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2895" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2896">
@@ -93951,10 +93059,8 @@
       <c r="E2896" t="inlineStr"/>
       <c r="F2896" t="inlineStr"/>
       <c r="G2896" t="inlineStr"/>
-      <c r="H2896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2897">
@@ -93977,10 +93083,8 @@
       <c r="E2897" t="inlineStr"/>
       <c r="F2897" t="inlineStr"/>
       <c r="G2897" t="inlineStr"/>
-      <c r="H2897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2898">
@@ -94011,10 +93115,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2898" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2898" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2899">
@@ -94037,10 +93139,8 @@
       <c r="E2899" t="inlineStr"/>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr"/>
-      <c r="H2899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2900">
@@ -94063,10 +93163,8 @@
       <c r="E2900" t="inlineStr"/>
       <c r="F2900" t="inlineStr"/>
       <c r="G2900" t="inlineStr"/>
-      <c r="H2900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2901">
@@ -94089,10 +93187,8 @@
       <c r="E2901" t="inlineStr"/>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr"/>
-      <c r="H2901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2902">
@@ -94119,10 +93215,8 @@
       </c>
       <c r="F2902" t="inlineStr"/>
       <c r="G2902" t="inlineStr"/>
-      <c r="H2902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2903">
@@ -94145,10 +93239,8 @@
       <c r="E2903" t="inlineStr"/>
       <c r="F2903" t="inlineStr"/>
       <c r="G2903" t="inlineStr"/>
-      <c r="H2903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2904">
@@ -94171,10 +93263,8 @@
       <c r="E2904" t="inlineStr"/>
       <c r="F2904" t="inlineStr"/>
       <c r="G2904" t="inlineStr"/>
-      <c r="H2904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2905">
@@ -94197,10 +93287,8 @@
       </c>
       <c r="F2905" t="inlineStr"/>
       <c r="G2905" t="inlineStr"/>
-      <c r="H2905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2906">
@@ -94219,10 +93307,8 @@
       <c r="E2906" t="inlineStr"/>
       <c r="F2906" t="inlineStr"/>
       <c r="G2906" t="inlineStr"/>
-      <c r="H2906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2907">
@@ -94241,10 +93327,8 @@
       <c r="E2907" t="inlineStr"/>
       <c r="F2907" t="inlineStr"/>
       <c r="G2907" t="inlineStr"/>
-      <c r="H2907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2908">
@@ -94263,10 +93347,8 @@
       <c r="E2908" t="inlineStr"/>
       <c r="F2908" t="inlineStr"/>
       <c r="G2908" t="inlineStr"/>
-      <c r="H2908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2909">
@@ -94285,10 +93367,8 @@
       <c r="E2909" t="inlineStr"/>
       <c r="F2909" t="inlineStr"/>
       <c r="G2909" t="inlineStr"/>
-      <c r="H2909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2910">
@@ -94311,104 +93391,134 @@
       </c>
       <c r="F2910" t="inlineStr"/>
       <c r="G2910" t="inlineStr"/>
-      <c r="H2910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2911">
       <c r="A2911" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2911" t="inlineStr"/>
-      <c r="C2911" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2911" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
       <c r="D2911" t="inlineStr"/>
-      <c r="E2911" t="inlineStr"/>
+      <c r="E2911" t="inlineStr">
+        <is>
+          <t>€57.186B</t>
+        </is>
+      </c>
       <c r="F2911" t="inlineStr"/>
-      <c r="G2911" t="inlineStr"/>
-      <c r="H2911" t="inlineStr"/>
+      <c r="G2911" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2911" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2912">
       <c r="A2912" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2912" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
       <c r="E2912" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2912" t="inlineStr"/>
       <c r="G2912" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>20200%</t>
         </is>
       </c>
       <c r="H2912" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2913">
       <c r="A2913" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2913" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
-      <c r="E2913" t="inlineStr"/>
+      <c r="E2913" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr"/>
+      <c r="G2913" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2913" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2914">
       <c r="A2914" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2914" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr"/>
+      <c r="E2914" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2914" t="inlineStr"/>
       <c r="G2914" t="inlineStr"/>
       <c r="H2914" t="inlineStr">
@@ -94420,89 +93530,81 @@
     <row r="2915">
       <c r="A2915" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2915" t="inlineStr"/>
       <c r="E2915" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2915" t="inlineStr"/>
       <c r="G2915" t="inlineStr"/>
       <c r="H2915" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2916">
       <c r="A2916" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
       <c r="E2916" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2916" t="inlineStr"/>
       <c r="H2916" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2917">
       <c r="A2917" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2917" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr">
-        <is>
-          <t>$155.7B</t>
-        </is>
-      </c>
+      <c r="E2917" t="inlineStr"/>
       <c r="F2917" t="inlineStr"/>
       <c r="G2917" t="inlineStr"/>
       <c r="H2917" t="inlineStr">
@@ -94514,145 +93616,165 @@
     <row r="2918">
       <c r="A2918" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2918" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2918" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr"/>
+      <c r="E2918" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
       <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr"/>
+      <c r="G2918" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2918" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2919">
       <c r="A2919" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr"/>
       <c r="E2919" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr"/>
+      <c r="G2919" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="H2919" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2920">
       <c r="A2920" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr"/>
       <c r="E2920" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr"/>
+      <c r="G2920" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2920" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2921">
       <c r="A2921" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2921" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2921" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2921" t="inlineStr"/>
       <c r="E2921" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr"/>
+      <c r="G2921" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2921" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2922">
       <c r="A2922" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2922" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2922" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2922" t="inlineStr"/>
       <c r="E2922" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2922" t="inlineStr"/>
       <c r="G2922" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2922" t="inlineStr">
@@ -94664,29 +93786,29 @@
     <row r="2923">
       <c r="A2923" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2923" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2923" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2923" t="inlineStr"/>
       <c r="E2923" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2923" t="inlineStr"/>
       <c r="G2923" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2923" t="inlineStr">
@@ -94698,163 +93820,167 @@
     <row r="2924">
       <c r="A2924" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2924" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2924" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2924" t="inlineStr"/>
       <c r="E2924" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2924" t="inlineStr"/>
       <c r="G2924" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2924" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2925">
       <c r="A2925" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2925" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2925" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2925" t="inlineStr"/>
       <c r="E2925" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2925" t="inlineStr"/>
       <c r="G2925" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2925" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2926">
       <c r="A2926" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2926" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2926" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2926" t="inlineStr"/>
       <c r="E2926" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2926" t="inlineStr"/>
       <c r="G2926" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2926" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2927">
       <c r="A2927" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2927" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2927" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2927" t="inlineStr"/>
       <c r="E2927" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2927" t="inlineStr"/>
       <c r="G2927" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2927" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2928">
       <c r="A2928" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2928" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2928" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2928" t="inlineStr"/>
       <c r="E2928" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2928" t="inlineStr"/>
-      <c r="G2928" t="inlineStr"/>
+      <c r="G2928" t="inlineStr">
+        <is>
+          <t>-3K</t>
+        </is>
+      </c>
       <c r="H2928" t="inlineStr">
         <is>
           <t>2</t>
@@ -94864,27 +93990,31 @@
     <row r="2929">
       <c r="A2929" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2929" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2929" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2929" t="inlineStr"/>
       <c r="E2929" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2929" t="inlineStr"/>
-      <c r="G2929" t="inlineStr"/>
+      <c r="G2929" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2929" t="inlineStr">
         <is>
           <t>2</t>
@@ -94894,23 +94024,31 @@
     <row r="2930">
       <c r="A2930" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2930" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2930" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2930" t="inlineStr"/>
-      <c r="E2930" t="inlineStr"/>
+      <c r="E2930" t="inlineStr">
+        <is>
+          <t>65.1%</t>
+        </is>
+      </c>
       <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr"/>
+      <c r="G2930" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2930" t="inlineStr">
         <is>
           <t>2</t>
@@ -94920,229 +94058,233 @@
     <row r="2931">
       <c r="A2931" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2931" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2931" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2931" t="inlineStr"/>
       <c r="E2931" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2931" t="inlineStr"/>
       <c r="G2931" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2931" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2932">
       <c r="A2932" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2932" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2932" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2932" t="inlineStr"/>
       <c r="E2932" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2932" t="inlineStr"/>
       <c r="G2932" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2932" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2933">
       <c r="A2933" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2933" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2933" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2933" t="inlineStr"/>
       <c r="E2933" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2933" t="inlineStr"/>
       <c r="G2933" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2933" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2934">
       <c r="A2934" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2934" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2934" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2934" t="inlineStr"/>
       <c r="E2934" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2934" t="inlineStr"/>
-      <c r="G2934" t="inlineStr"/>
+      <c r="G2934" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2934" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2935">
       <c r="A2935" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2935" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2935" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2935" t="inlineStr"/>
       <c r="E2935" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2935" t="inlineStr"/>
       <c r="G2935" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2935" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2936">
       <c r="A2936" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2936" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2936" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2936" t="inlineStr"/>
       <c r="E2936" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2936" t="inlineStr"/>
       <c r="G2936" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2936" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2937">
       <c r="A2937" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2937" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2937" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2937" t="inlineStr"/>
       <c r="E2937" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2937" t="inlineStr"/>
       <c r="G2937" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2937" t="inlineStr">
@@ -95154,27 +94296,31 @@
     <row r="2938">
       <c r="A2938" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2938" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2938" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2938" t="inlineStr"/>
       <c r="E2938" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2938" t="inlineStr"/>
-      <c r="G2938" t="inlineStr"/>
+      <c r="G2938" t="inlineStr">
+        <is>
+          <t>25K</t>
+        </is>
+      </c>
       <c r="H2938" t="inlineStr">
         <is>
           <t>3</t>
@@ -95184,27 +94330,31 @@
     <row r="2939">
       <c r="A2939" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2939" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2939" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2939" t="inlineStr"/>
       <c r="E2939" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2939" t="inlineStr"/>
-      <c r="G2939" t="inlineStr"/>
+      <c r="G2939" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2939" t="inlineStr">
         <is>
           <t>3</t>
@@ -95214,27 +94364,31 @@
     <row r="2940">
       <c r="A2940" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2940" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2940" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2940" t="inlineStr"/>
       <c r="E2940" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2940" t="inlineStr"/>
-      <c r="G2940" t="inlineStr"/>
+      <c r="G2940" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2940" t="inlineStr">
         <is>
           <t>3</t>
@@ -95244,23 +94398,31 @@
     <row r="2941">
       <c r="A2941" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2941" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2941" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2941" t="inlineStr"/>
-      <c r="E2941" t="inlineStr"/>
+      <c r="E2941" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr"/>
+      <c r="G2941" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2941" t="inlineStr">
         <is>
           <t>3</t>
@@ -95270,165 +94432,149 @@
     <row r="2942">
       <c r="A2942" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2942" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2942" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2942" t="inlineStr"/>
-      <c r="E2942" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2942" t="inlineStr"/>
       <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2942" t="inlineStr"/>
       <c r="H2942" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2943">
       <c r="A2943" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2943" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2943" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2943" t="inlineStr"/>
       <c r="E2943" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G2943" t="inlineStr"/>
       <c r="H2943" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2944">
       <c r="A2944" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2944" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2944" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2944" t="inlineStr"/>
-      <c r="E2944" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
+      <c r="E2944" t="inlineStr"/>
       <c r="F2944" t="inlineStr"/>
       <c r="G2944" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2944" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2945">
       <c r="A2945" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2945" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2945" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2945" t="inlineStr"/>
       <c r="E2945" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2945" t="inlineStr"/>
       <c r="G2945" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2945" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2946">
       <c r="A2946" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2946" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2946" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2946" t="inlineStr"/>
       <c r="E2946" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2946" t="inlineStr"/>
       <c r="G2946" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2946" t="inlineStr">
@@ -95440,29 +94586,29 @@
     <row r="2947">
       <c r="A2947" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2947" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2947" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2947" t="inlineStr"/>
       <c r="E2947" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2947" t="inlineStr"/>
       <c r="G2947" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2947" t="inlineStr">
@@ -95474,29 +94620,29 @@
     <row r="2948">
       <c r="A2948" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2948" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2948" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2948" t="inlineStr"/>
       <c r="E2948" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2948" t="inlineStr"/>
       <c r="G2948" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2948" t="inlineStr">
@@ -95508,29 +94654,29 @@
     <row r="2949">
       <c r="A2949" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2949" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2949" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2949" t="inlineStr"/>
       <c r="E2949" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2949" t="inlineStr"/>
       <c r="G2949" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2949" t="inlineStr">
@@ -95542,63 +94688,67 @@
     <row r="2950">
       <c r="A2950" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2950" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2950" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2950" t="inlineStr"/>
       <c r="E2950" t="inlineStr">
         <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F2950" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2950" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2950" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2950" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2951">
       <c r="A2951" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2951" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2951" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2951" t="inlineStr"/>
       <c r="E2951" t="inlineStr">
         <is>
-          <t>90.9K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2951" t="inlineStr"/>
       <c r="G2951" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2951" t="inlineStr">
@@ -95610,131 +94760,99 @@
     <row r="2952">
       <c r="A2952" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2952" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2952" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2952" t="inlineStr"/>
-      <c r="E2952" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2952" t="inlineStr"/>
       <c r="F2952" t="inlineStr"/>
-      <c r="G2952" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2952" t="inlineStr"/>
       <c r="H2952" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2953">
       <c r="A2953" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2953" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2953" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2953" t="inlineStr"/>
-      <c r="E2953" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2953" t="inlineStr"/>
       <c r="F2953" t="inlineStr"/>
-      <c r="G2953" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2953" t="inlineStr"/>
       <c r="H2953" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2954">
-      <c r="A2954" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2954" t="inlineStr"/>
       <c r="B2954" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2954" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2954" t="inlineStr"/>
-      <c r="E2954" t="inlineStr">
-        <is>
-          <t>65.1%</t>
-        </is>
-      </c>
+      <c r="E2954" t="inlineStr"/>
       <c r="F2954" t="inlineStr"/>
-      <c r="G2954" t="inlineStr">
-        <is>
-          <t>65.0%</t>
-        </is>
-      </c>
+      <c r="G2954" t="inlineStr"/>
       <c r="H2954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2955">
-      <c r="A2955" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2955" t="inlineStr"/>
       <c r="B2955" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2955" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2955" t="inlineStr"/>
       <c r="E2955" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2955" t="inlineStr"/>
       <c r="G2955" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2955" t="inlineStr">
@@ -95744,79 +94862,59 @@
       </c>
     </row>
     <row r="2956">
-      <c r="A2956" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2956" t="inlineStr"/>
       <c r="B2956" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2956" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2956" t="inlineStr"/>
-      <c r="E2956" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2956" t="inlineStr"/>
       <c r="F2956" t="inlineStr"/>
-      <c r="G2956" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2956" t="inlineStr"/>
       <c r="H2956" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2957">
-      <c r="A2957" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2957" t="inlineStr"/>
       <c r="B2957" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2957" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2957" t="inlineStr"/>
       <c r="E2957" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2957" t="inlineStr"/>
       <c r="G2957" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2957" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2958">
-      <c r="A2958" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2958" t="inlineStr"/>
       <c r="B2958" t="inlineStr">
         <is>
           <t>US</t>
@@ -95824,33 +94922,25 @@
       </c>
       <c r="C2958" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2958" t="inlineStr"/>
       <c r="E2958" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2958" t="inlineStr"/>
-      <c r="G2958" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2958" t="inlineStr"/>
       <c r="H2958" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2959">
-      <c r="A2959" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2959" t="inlineStr"/>
       <c r="B2959" t="inlineStr">
         <is>
           <t>US</t>
@@ -95858,87 +94948,63 @@
       </c>
       <c r="C2959" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2959" t="inlineStr"/>
       <c r="E2959" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2959" t="inlineStr"/>
-      <c r="G2959" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2959" t="inlineStr"/>
       <c r="H2959" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2960">
       <c r="A2960" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2960" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2960" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2960" t="inlineStr"/>
+      <c r="C2960" t="inlineStr"/>
       <c r="D2960" t="inlineStr"/>
-      <c r="E2960" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2960" t="inlineStr"/>
       <c r="F2960" t="inlineStr"/>
-      <c r="G2960" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2960" t="inlineStr"/>
+      <c r="H2960" t="inlineStr"/>
     </row>
     <row r="2961">
       <c r="A2961" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2961" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2961" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2961" t="inlineStr"/>
       <c r="E2961" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2961" t="inlineStr"/>
       <c r="G2961" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2961" t="inlineStr">
@@ -95950,7 +95016,7 @@
     <row r="2962">
       <c r="A2962" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2962" t="inlineStr">
@@ -95960,742 +95026,22 @@
       </c>
       <c r="C2962" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2962" t="inlineStr"/>
       <c r="E2962" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2962" t="inlineStr"/>
       <c r="G2962" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2963">
-      <c r="A2963" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2963" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2963" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsJAN</t>
-        </is>
-      </c>
-      <c r="D2963" t="inlineStr"/>
-      <c r="E2963" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="F2963" t="inlineStr"/>
-      <c r="G2963" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H2963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2964">
-      <c r="A2964" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2964" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2964" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
-      <c r="D2964" t="inlineStr"/>
-      <c r="E2964" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2964" t="inlineStr"/>
-      <c r="G2964" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
-      <c r="H2964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2965">
-      <c r="A2965" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2965" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2965" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
-      <c r="D2965" t="inlineStr"/>
-      <c r="E2965" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2965" t="inlineStr"/>
-      <c r="G2965" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H2965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2966">
-      <c r="A2966" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B2966" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2966" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2966" t="inlineStr"/>
-      <c r="E2966" t="inlineStr"/>
-      <c r="F2966" t="inlineStr"/>
-      <c r="G2966" t="inlineStr"/>
-      <c r="H2966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2967">
-      <c r="A2967" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2967" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2967" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2967" t="inlineStr"/>
-      <c r="E2967" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2967" t="inlineStr"/>
-      <c r="G2967" t="inlineStr"/>
-      <c r="H2967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2968">
-      <c r="A2968" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2968" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2968" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2968" t="inlineStr"/>
-      <c r="E2968" t="inlineStr"/>
-      <c r="F2968" t="inlineStr"/>
-      <c r="G2968" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2969">
-      <c r="A2969" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2969" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2969" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2969" t="inlineStr"/>
-      <c r="E2969" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2969" t="inlineStr"/>
-      <c r="G2969" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2969" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2970">
-      <c r="A2970" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2970" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2970" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2970" t="inlineStr"/>
-      <c r="E2970" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2970" t="inlineStr"/>
-      <c r="G2970" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2971">
-      <c r="A2971" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2971" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2971" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2971" t="inlineStr"/>
-      <c r="E2971" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2971" t="inlineStr"/>
-      <c r="G2971" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2972">
-      <c r="A2972" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2972" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2972" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2972" t="inlineStr"/>
-      <c r="E2972" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2972" t="inlineStr"/>
-      <c r="G2972" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2973">
-      <c r="A2973" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2973" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2973" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2973" t="inlineStr"/>
-      <c r="E2973" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2973" t="inlineStr"/>
-      <c r="G2973" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2974">
-      <c r="A2974" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2974" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2974" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2974" t="inlineStr"/>
-      <c r="E2974" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2974" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2974" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2975">
-      <c r="A2975" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2975" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2975" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2975" t="inlineStr"/>
-      <c r="E2975" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2975" t="inlineStr"/>
-      <c r="G2975" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2975" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2976">
-      <c r="A2976" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2976" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2976" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2976" t="inlineStr"/>
-      <c r="E2976" t="inlineStr"/>
-      <c r="F2976" t="inlineStr"/>
-      <c r="G2976" t="inlineStr"/>
-      <c r="H2976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2977">
-      <c r="A2977" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2977" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2977" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2977" t="inlineStr"/>
-      <c r="E2977" t="inlineStr"/>
-      <c r="F2977" t="inlineStr"/>
-      <c r="G2977" t="inlineStr"/>
-      <c r="H2977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2978">
-      <c r="A2978" t="inlineStr"/>
-      <c r="B2978" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2978" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2978" t="inlineStr"/>
-      <c r="E2978" t="inlineStr"/>
-      <c r="F2978" t="inlineStr"/>
-      <c r="G2978" t="inlineStr"/>
-      <c r="H2978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2979">
-      <c r="A2979" t="inlineStr"/>
-      <c r="B2979" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2979" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2979" t="inlineStr"/>
-      <c r="E2979" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2979" t="inlineStr"/>
-      <c r="G2979" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2980">
-      <c r="A2980" t="inlineStr"/>
-      <c r="B2980" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2980" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2980" t="inlineStr"/>
-      <c r="E2980" t="inlineStr"/>
-      <c r="F2980" t="inlineStr"/>
-      <c r="G2980" t="inlineStr"/>
-      <c r="H2980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2981">
-      <c r="A2981" t="inlineStr"/>
-      <c r="B2981" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2981" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2981" t="inlineStr"/>
-      <c r="E2981" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2981" t="inlineStr"/>
-      <c r="G2981" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2982">
-      <c r="A2982" t="inlineStr"/>
-      <c r="B2982" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2982" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2982" t="inlineStr"/>
-      <c r="E2982" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2982" t="inlineStr"/>
-      <c r="G2982" t="inlineStr"/>
-      <c r="H2982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2983">
-      <c r="A2983" t="inlineStr"/>
-      <c r="B2983" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2983" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2983" t="inlineStr"/>
-      <c r="E2983" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2983" t="inlineStr"/>
-      <c r="G2983" t="inlineStr"/>
-      <c r="H2983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2984">
-      <c r="A2984" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2984" t="inlineStr"/>
-      <c r="C2984" t="inlineStr"/>
-      <c r="D2984" t="inlineStr"/>
-      <c r="E2984" t="inlineStr"/>
-      <c r="F2984" t="inlineStr"/>
-      <c r="G2984" t="inlineStr"/>
-      <c r="H2984" t="inlineStr"/>
-    </row>
-    <row r="2985">
-      <c r="A2985" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2985" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2985" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2985" t="inlineStr"/>
-      <c r="E2985" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2985" t="inlineStr"/>
-      <c r="G2985" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2986">
-      <c r="A2986" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2986" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2986" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2986" t="inlineStr"/>
-      <c r="E2986" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2986" t="inlineStr"/>
-      <c r="G2986" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2986" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2969"/>
+  <dimension ref="A1:H2945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83651,10 +83651,8 @@
       </c>
       <c r="F2581" t="inlineStr"/>
       <c r="G2581" t="inlineStr"/>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83681,10 +83679,8 @@
       </c>
       <c r="F2582" t="inlineStr"/>
       <c r="G2582" t="inlineStr"/>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83719,10 +83715,8 @@
           <t>-3.3%</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2584">
@@ -83753,10 +83747,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2585">
@@ -83787,10 +83779,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2586">
@@ -83825,10 +83815,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2587">
@@ -83863,10 +83851,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83897,10 +83883,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2589">
@@ -83935,10 +83919,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83969,10 +83951,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -84003,10 +83983,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -84041,10 +84019,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2593">
@@ -84079,10 +84055,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2594">
@@ -84117,10 +84091,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2595">
@@ -84155,10 +84127,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2596">
@@ -84193,10 +84163,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2597">
@@ -84231,10 +84199,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2598">
@@ -84265,10 +84231,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2599">
@@ -84299,10 +84263,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -84333,10 +84295,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -84371,10 +84331,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84401,10 +84359,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84439,10 +84395,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2604">
@@ -84473,10 +84427,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2605">
@@ -84511,10 +84463,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2606">
@@ -84537,10 +84487,8 @@
       <c r="E2606" t="inlineStr"/>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2607">
@@ -84567,10 +84515,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84597,10 +84543,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84627,10 +84571,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84657,10 +84599,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84687,10 +84627,8 @@
       </c>
       <c r="F2611" t="inlineStr"/>
       <c r="G2611" t="inlineStr"/>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84717,10 +84655,8 @@
       </c>
       <c r="F2612" t="inlineStr"/>
       <c r="G2612" t="inlineStr"/>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84747,10 +84683,8 @@
       </c>
       <c r="F2613" t="inlineStr"/>
       <c r="G2613" t="inlineStr"/>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84777,10 +84711,8 @@
       </c>
       <c r="F2614" t="inlineStr"/>
       <c r="G2614" t="inlineStr"/>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84807,10 +84739,8 @@
       </c>
       <c r="F2615" t="inlineStr"/>
       <c r="G2615" t="inlineStr"/>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84837,10 +84767,8 @@
       </c>
       <c r="F2616" t="inlineStr"/>
       <c r="G2616" t="inlineStr"/>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84867,10 +84795,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84897,10 +84823,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84931,10 +84855,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84965,10 +84887,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84999,10 +84919,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2622">
@@ -85033,10 +84951,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2623">
@@ -85067,10 +84983,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2624">
@@ -85105,10 +85019,8 @@
           <t>BRL-75.0B</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2625">
@@ -85135,10 +85047,8 @@
       </c>
       <c r="F2625" t="inlineStr"/>
       <c r="G2625" t="inlineStr"/>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -85165,10 +85075,8 @@
       </c>
       <c r="F2626" t="inlineStr"/>
       <c r="G2626" t="inlineStr"/>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -85195,10 +85103,8 @@
       </c>
       <c r="F2627" t="inlineStr"/>
       <c r="G2627" t="inlineStr"/>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2628">
@@ -85229,10 +85135,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2629">
@@ -85267,10 +85171,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2630">
@@ -85301,10 +85203,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2631">
@@ -85339,10 +85239,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85377,10 +85275,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85415,10 +85311,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2634">
@@ -85453,10 +85347,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2635">
@@ -85491,10 +85383,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85525,10 +85415,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85563,10 +85451,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2638">
@@ -85601,10 +85487,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2639">
@@ -85639,10 +85523,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2640">
@@ -85673,10 +85555,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2641">
@@ -85707,10 +85587,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2642">
@@ -85745,10 +85623,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2643">
@@ -85771,10 +85647,8 @@
       <c r="E2643" t="inlineStr"/>
       <c r="F2643" t="inlineStr"/>
       <c r="G2643" t="inlineStr"/>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2644">
@@ -85809,10 +85683,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2645">
@@ -85847,10 +85719,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2646">
@@ -85885,10 +85755,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85923,10 +85791,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2648">
@@ -85957,10 +85823,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85987,10 +85851,8 @@
       </c>
       <c r="F2649" t="inlineStr"/>
       <c r="G2649" t="inlineStr"/>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -86017,10 +85879,8 @@
       </c>
       <c r="F2650" t="inlineStr"/>
       <c r="G2650" t="inlineStr"/>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2650" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2651">
@@ -86047,10 +85907,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2652">
@@ -86077,10 +85935,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -86107,10 +85963,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
@@ -86137,10 +85991,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2654" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2655">
@@ -86167,10 +86019,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2655" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2655" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2656">
@@ -86197,10 +86047,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2656" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2657">
@@ -86227,10 +86075,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2657" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2658">
@@ -86275,10 +86121,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2660">
@@ -86309,10 +86153,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2661">
@@ -86343,10 +86185,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2662">
@@ -86387,10 +86227,8 @@
       </c>
       <c r="F2663" t="inlineStr"/>
       <c r="G2663" t="inlineStr"/>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2664">
@@ -86421,10 +86259,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2665">
@@ -86455,10 +86291,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2666">
@@ -86489,10 +86323,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2667">
@@ -86515,10 +86347,8 @@
       <c r="E2667" t="inlineStr"/>
       <c r="F2667" t="inlineStr"/>
       <c r="G2667" t="inlineStr"/>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2668">
@@ -86549,10 +86379,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2669">
@@ -86583,10 +86411,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2670">
@@ -86613,10 +86439,8 @@
       </c>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2671">
@@ -86643,10 +86467,8 @@
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2672">
@@ -86677,10 +86499,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2673">
@@ -86715,10 +86535,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2674">
@@ -86749,10 +86567,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2675">
@@ -86787,10 +86603,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2676">
@@ -86821,10 +86635,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2677">
@@ -86855,10 +86667,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -86889,10 +86699,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2679">
@@ -86923,10 +86731,8 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2680">
@@ -86961,10 +86767,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2681">
@@ -86991,10 +86795,8 @@
       </c>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -87021,10 +86823,8 @@
       </c>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2683">
@@ -87051,10 +86851,8 @@
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2684">
@@ -87085,10 +86883,8 @@
         </is>
       </c>
       <c r="G2684" t="inlineStr"/>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2685">
@@ -87119,10 +86915,8 @@
         </is>
       </c>
       <c r="G2685" t="inlineStr"/>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2686">
@@ -87149,10 +86943,8 @@
       </c>
       <c r="F2686" t="inlineStr"/>
       <c r="G2686" t="inlineStr"/>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2687">
@@ -87179,10 +86971,8 @@
       </c>
       <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr"/>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -87209,10 +86999,8 @@
       </c>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr"/>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -87239,10 +87027,8 @@
       </c>
       <c r="F2689" t="inlineStr"/>
       <c r="G2689" t="inlineStr"/>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2690">
@@ -87265,10 +87051,8 @@
       <c r="E2690" t="inlineStr"/>
       <c r="F2690" t="inlineStr"/>
       <c r="G2690" t="inlineStr"/>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -87295,10 +87079,8 @@
       </c>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2692">
@@ -87325,10 +87107,8 @@
       </c>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2693">
@@ -87363,10 +87143,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2694">
@@ -87401,10 +87179,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2695">
@@ -87439,10 +87215,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2696">
@@ -87473,10 +87247,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -87511,10 +87283,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2698">
@@ -87537,10 +87307,8 @@
       <c r="E2698" t="inlineStr"/>
       <c r="F2698" t="inlineStr"/>
       <c r="G2698" t="inlineStr"/>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2699">
@@ -87567,10 +87335,8 @@
       </c>
       <c r="F2699" t="inlineStr"/>
       <c r="G2699" t="inlineStr"/>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2700">
@@ -87593,10 +87359,8 @@
       <c r="E2700" t="inlineStr"/>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2701">
@@ -87623,10 +87387,8 @@
       </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2702">
@@ -87653,10 +87415,8 @@
       </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2703">
@@ -87683,10 +87443,8 @@
       </c>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2704">
@@ -87713,10 +87471,8 @@
       </c>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2705">
@@ -87743,10 +87499,8 @@
       </c>
       <c r="F2705" t="inlineStr"/>
       <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2706">
@@ -87777,10 +87531,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2707">
@@ -87811,10 +87563,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -87845,10 +87595,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -87871,10 +87619,8 @@
       <c r="E2709" t="inlineStr"/>
       <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr"/>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2710">
@@ -87897,10 +87643,8 @@
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
       <c r="G2710" t="inlineStr"/>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -87923,10 +87667,8 @@
       <c r="E2711" t="inlineStr"/>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -87957,10 +87699,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2713">
@@ -87995,10 +87735,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2714">
@@ -88029,10 +87767,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2715">
@@ -88063,10 +87799,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2716">
@@ -88097,10 +87831,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -88131,10 +87863,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2718">
@@ -88165,10 +87895,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -88195,10 +87923,8 @@
       </c>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -88225,10 +87951,8 @@
       </c>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -88251,10 +87975,8 @@
       <c r="E2721" t="inlineStr"/>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2722">
@@ -88273,10 +87995,8 @@
       <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2723">
@@ -88303,10 +88023,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2724">
@@ -88343,10 +88061,8 @@
       <c r="E2725" t="inlineStr"/>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -88373,10 +88089,8 @@
       </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2727">
@@ -88403,10 +88117,8 @@
       </c>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr"/>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2728">
@@ -88437,10 +88149,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2729">
@@ -88467,10 +88177,8 @@
       </c>
       <c r="F2729" t="inlineStr"/>
       <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2730">
@@ -88497,10 +88205,8 @@
       </c>
       <c r="F2730" t="inlineStr"/>
       <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2731">
@@ -88527,10 +88233,8 @@
       </c>
       <c r="F2731" t="inlineStr"/>
       <c r="G2731" t="inlineStr"/>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2732">
@@ -88557,10 +88261,8 @@
       </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr"/>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2733">
@@ -88591,10 +88293,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2734">
@@ -88617,10 +88317,8 @@
       <c r="E2734" t="inlineStr"/>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr"/>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2735">
@@ -88643,10 +88341,8 @@
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
       <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2736">
@@ -88677,10 +88373,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -88711,10 +88405,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -88745,10 +88437,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2739">
@@ -88775,10 +88465,8 @@
       </c>
       <c r="F2739" t="inlineStr"/>
       <c r="G2739" t="inlineStr"/>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2740">
@@ -88809,10 +88497,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -88843,10 +88529,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2742">
@@ -88877,10 +88561,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2743">
@@ -88911,10 +88593,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -88945,10 +88625,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88979,10 +88657,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -89005,10 +88681,8 @@
       <c r="E2746" t="inlineStr"/>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2747">
@@ -89027,10 +88701,8 @@
       <c r="E2747" t="inlineStr"/>
       <c r="F2747" t="inlineStr"/>
       <c r="G2747" t="inlineStr"/>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2748">
@@ -89049,10 +88721,8 @@
       <c r="E2748" t="inlineStr"/>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2749">
@@ -89071,10 +88741,8 @@
       <c r="E2749" t="inlineStr"/>
       <c r="F2749" t="inlineStr"/>
       <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2750">
@@ -89097,10 +88765,8 @@
       </c>
       <c r="F2750" t="inlineStr"/>
       <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2751">
@@ -89137,10 +88803,8 @@
       <c r="E2752" t="inlineStr"/>
       <c r="F2752" t="inlineStr"/>
       <c r="G2752" t="inlineStr"/>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2753">
@@ -89163,10 +88827,8 @@
       <c r="E2753" t="inlineStr"/>
       <c r="F2753" t="inlineStr"/>
       <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -89193,10 +88855,8 @@
       </c>
       <c r="F2754" t="inlineStr"/>
       <c r="G2754" t="inlineStr"/>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2755">
@@ -89219,10 +88879,8 @@
       <c r="E2755" t="inlineStr"/>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr"/>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2756">
@@ -89245,10 +88903,8 @@
       <c r="E2756" t="inlineStr"/>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -89275,10 +88931,8 @@
       </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr"/>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2758">
@@ -89305,10 +88959,8 @@
       </c>
       <c r="F2758" t="inlineStr"/>
       <c r="G2758" t="inlineStr"/>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2759">
@@ -89335,10 +88987,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -89365,10 +89015,8 @@
       </c>
       <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr"/>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2761">
@@ -89403,10 +89051,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2762">
@@ -89437,10 +89083,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2763">
@@ -89467,10 +89111,8 @@
       </c>
       <c r="F2763" t="inlineStr"/>
       <c r="G2763" t="inlineStr"/>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2764">
@@ -89501,10 +89143,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2765">
@@ -89535,10 +89175,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2766">
@@ -89565,10 +89203,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2767">
@@ -89595,10 +89231,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2768">
@@ -89625,10 +89259,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2769">
@@ -89663,10 +89295,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -89701,10 +89331,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2771">
@@ -89735,10 +89363,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -89769,10 +89395,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2773">
@@ -89799,10 +89423,8 @@
       </c>
       <c r="F2773" t="inlineStr"/>
       <c r="G2773" t="inlineStr"/>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -89829,10 +89451,8 @@
       </c>
       <c r="F2774" t="inlineStr"/>
       <c r="G2774" t="inlineStr"/>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -89859,10 +89479,8 @@
       </c>
       <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr"/>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -89893,10 +89511,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2777">
@@ -89923,10 +89539,8 @@
       </c>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2778">
@@ -89953,10 +89567,8 @@
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -89983,10 +89595,8 @@
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr"/>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2780">
@@ -90013,10 +89623,8 @@
       </c>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr"/>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2781">
@@ -90051,10 +89659,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2782">
@@ -90089,10 +89695,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -90127,10 +89731,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2784">
@@ -90165,10 +89767,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2785">
@@ -90203,10 +89803,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2786">
@@ -90241,10 +89839,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2787">
@@ -90275,10 +89871,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2788">
@@ -90309,10 +89903,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -90343,10 +89935,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -90381,10 +89971,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2791">
@@ -90419,10 +90007,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -90453,10 +90039,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -90487,10 +90071,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -90517,10 +90099,8 @@
       </c>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2795">
@@ -90547,10 +90127,8 @@
       </c>
       <c r="F2795" t="inlineStr"/>
       <c r="G2795" t="inlineStr"/>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2796">
@@ -90577,10 +90155,8 @@
       </c>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -90607,10 +90183,8 @@
       </c>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -90641,10 +90215,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2799">
@@ -90675,10 +90247,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -90709,10 +90279,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2801">
@@ -90743,10 +90311,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2802">
@@ -90773,10 +90339,8 @@
       </c>
       <c r="F2802" t="inlineStr"/>
       <c r="G2802" t="inlineStr"/>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2803">
@@ -90803,10 +90367,8 @@
       </c>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr"/>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90833,10 +90395,8 @@
       </c>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr"/>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2805">
@@ -90863,10 +90423,8 @@
       </c>
       <c r="F2805" t="inlineStr"/>
       <c r="G2805" t="inlineStr"/>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -90893,10 +90451,8 @@
       </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -90927,10 +90483,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2808">
@@ -90961,10 +90515,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -90995,10 +90547,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2810">
@@ -91029,10 +90579,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2811">
@@ -91063,10 +90611,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -91097,10 +90643,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -91131,10 +90675,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2814">
@@ -91165,10 +90707,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2815">
@@ -91199,10 +90739,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2816">
@@ -91225,10 +90763,8 @@
       <c r="E2816" t="inlineStr"/>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -91259,10 +90795,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -91293,10 +90827,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -91331,10 +90863,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2820">
@@ -91369,10 +90899,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2821">
@@ -91403,10 +90931,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2822">
@@ -91437,10 +90963,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -91471,10 +90995,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -91505,10 +91027,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -91539,10 +91059,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2826">
@@ -91569,10 +91087,8 @@
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -91599,10 +91115,8 @@
       </c>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2828">
@@ -91629,10 +91143,8 @@
       </c>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -91659,10 +91171,8 @@
       </c>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -91689,10 +91199,8 @@
       </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -91719,10 +91227,8 @@
       </c>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -91749,10 +91255,8 @@
       </c>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
@@ -91779,10 +91283,8 @@
       </c>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -91809,10 +91311,8 @@
       </c>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -91839,10 +91339,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2836">
@@ -91865,10 +91363,8 @@
       <c r="E2836" t="inlineStr"/>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -91891,10 +91387,8 @@
       <c r="E2837" t="inlineStr"/>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -91925,10 +91419,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -91951,10 +91443,8 @@
       <c r="E2839" t="inlineStr"/>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -91981,10 +91471,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -92011,10 +91499,8 @@
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -92041,10 +91527,8 @@
       </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2843">
@@ -92067,10 +91551,8 @@
       <c r="E2843" t="inlineStr"/>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2844">
@@ -92093,10 +91575,8 @@
       </c>
       <c r="F2844" t="inlineStr"/>
       <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2845">
@@ -92141,10 +91621,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2847">
@@ -92175,10 +91653,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -92209,10 +91685,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2849">
@@ -92239,10 +91713,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2850">
@@ -92265,10 +91737,8 @@
       <c r="E2850" t="inlineStr"/>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2851">
@@ -92291,10 +91761,8 @@
       <c r="E2851" t="inlineStr"/>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2852">
@@ -92317,10 +91785,8 @@
       <c r="E2852" t="inlineStr"/>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2853">
@@ -92351,10 +91817,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2854">
@@ -92381,10 +91845,8 @@
       </c>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2855">
@@ -92411,10 +91873,8 @@
       </c>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr"/>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2856">
@@ -92441,10 +91901,8 @@
       </c>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
@@ -92471,10 +91929,8 @@
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2858">
@@ -92505,10 +91961,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2859">
@@ -92535,10 +91989,8 @@
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr"/>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2860">
@@ -92565,10 +92017,8 @@
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2861">
@@ -92595,10 +92045,8 @@
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2862">
@@ -92625,10 +92073,8 @@
       </c>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2863">
@@ -92659,10 +92105,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2863" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2864">
@@ -92693,10 +92137,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2865">
@@ -92727,10 +92169,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2866">
@@ -92753,10 +92193,8 @@
       <c r="E2866" t="inlineStr"/>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr"/>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2867">
@@ -92779,10 +92217,8 @@
       <c r="E2867" t="inlineStr"/>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr"/>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2868">
@@ -92813,10 +92249,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2868" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2869">
@@ -92851,10 +92285,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2869" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2870">
@@ -92877,10 +92309,8 @@
       <c r="E2870" t="inlineStr"/>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr"/>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2870" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2871">
@@ -92903,10 +92333,8 @@
       <c r="E2871" t="inlineStr"/>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2871" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2872">
@@ -92929,10 +92357,8 @@
       <c r="E2872" t="inlineStr"/>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2872" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2873">
@@ -92955,10 +92381,8 @@
       <c r="E2873" t="inlineStr"/>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2873" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2874">
@@ -92981,10 +92405,8 @@
       <c r="E2874" t="inlineStr"/>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2874" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2875">
@@ -93015,10 +92437,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2876">
@@ -93041,10 +92461,8 @@
       <c r="E2876" t="inlineStr"/>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr"/>
-      <c r="H2876" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2876" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2877">
@@ -93075,10 +92493,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2877" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2878">
@@ -93109,10 +92525,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2878" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2878" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2879">
@@ -93135,10 +92549,8 @@
       <c r="E2879" t="inlineStr"/>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr"/>
-      <c r="H2879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2880">
@@ -93161,10 +92573,8 @@
       <c r="E2880" t="inlineStr"/>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr"/>
-      <c r="H2880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2881">
@@ -93195,10 +92605,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2881" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2881" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2882">
@@ -93221,10 +92629,8 @@
       <c r="E2882" t="inlineStr"/>
       <c r="F2882" t="inlineStr"/>
       <c r="G2882" t="inlineStr"/>
-      <c r="H2882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2883">
@@ -93247,10 +92653,8 @@
       <c r="E2883" t="inlineStr"/>
       <c r="F2883" t="inlineStr"/>
       <c r="G2883" t="inlineStr"/>
-      <c r="H2883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2884">
@@ -93273,10 +92677,8 @@
       <c r="E2884" t="inlineStr"/>
       <c r="F2884" t="inlineStr"/>
       <c r="G2884" t="inlineStr"/>
-      <c r="H2884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2885">
@@ -93303,10 +92705,8 @@
       </c>
       <c r="F2885" t="inlineStr"/>
       <c r="G2885" t="inlineStr"/>
-      <c r="H2885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2886">
@@ -93329,10 +92729,8 @@
       <c r="E2886" t="inlineStr"/>
       <c r="F2886" t="inlineStr"/>
       <c r="G2886" t="inlineStr"/>
-      <c r="H2886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2887">
@@ -93355,10 +92753,8 @@
       <c r="E2887" t="inlineStr"/>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr"/>
-      <c r="H2887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2888">
@@ -93381,10 +92777,8 @@
       </c>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr"/>
-      <c r="H2888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2889">
@@ -93403,10 +92797,8 @@
       <c r="E2889" t="inlineStr"/>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr"/>
-      <c r="H2889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2890">
@@ -93425,10 +92817,8 @@
       <c r="E2890" t="inlineStr"/>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr"/>
-      <c r="H2890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2891">
@@ -93447,10 +92837,8 @@
       <c r="E2891" t="inlineStr"/>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr"/>
-      <c r="H2891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2892">
@@ -93469,10 +92857,8 @@
       <c r="E2892" t="inlineStr"/>
       <c r="F2892" t="inlineStr"/>
       <c r="G2892" t="inlineStr"/>
-      <c r="H2892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2893">
@@ -93495,104 +92881,134 @@
       </c>
       <c r="F2893" t="inlineStr"/>
       <c r="G2893" t="inlineStr"/>
-      <c r="H2893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2894" t="inlineStr"/>
-      <c r="C2894" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2894" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2894" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
       <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr"/>
+      <c r="E2894" t="inlineStr">
+        <is>
+          <t>€57.186B</t>
+        </is>
+      </c>
       <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr"/>
-      <c r="H2894" t="inlineStr"/>
+      <c r="G2894" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2894" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
       <c r="G2895" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>20200%</t>
         </is>
       </c>
       <c r="H2895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr"/>
+      <c r="E2896" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr"/>
+      <c r="G2896" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2896" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
-      <c r="E2897" t="inlineStr"/>
+      <c r="E2897" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2897" t="inlineStr"/>
       <c r="G2897" t="inlineStr"/>
       <c r="H2897" t="inlineStr">
@@ -93604,89 +93020,81 @@
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr"/>
       <c r="H2898" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2899" t="inlineStr"/>
       <c r="H2899" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr">
-        <is>
-          <t>$155.7B</t>
-        </is>
-      </c>
+      <c r="E2900" t="inlineStr"/>
       <c r="F2900" t="inlineStr"/>
       <c r="G2900" t="inlineStr"/>
       <c r="H2900" t="inlineStr">
@@ -93698,145 +93106,165 @@
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr"/>
+      <c r="E2901" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
       <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr"/>
+      <c r="G2901" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2901" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr"/>
+      <c r="G2902" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="H2902" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr"/>
+      <c r="G2903" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2903" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
       <c r="E2904" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr"/>
+      <c r="G2904" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2904" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
       <c r="E2905" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2905" t="inlineStr"/>
       <c r="G2905" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2905" t="inlineStr">
@@ -93848,29 +93276,29 @@
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
       <c r="E2906" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2906" t="inlineStr"/>
       <c r="G2906" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2906" t="inlineStr">
@@ -93882,163 +93310,167 @@
     <row r="2907">
       <c r="A2907" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
       <c r="E2907" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2907" t="inlineStr"/>
       <c r="G2907" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2907" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2908">
       <c r="A2908" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr"/>
       <c r="E2908" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2908" t="inlineStr"/>
       <c r="G2908" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2908" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
       <c r="E2909" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2909" t="inlineStr"/>
       <c r="G2909" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2909" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2910">
       <c r="A2910" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
       <c r="E2910" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2910" t="inlineStr"/>
       <c r="G2910" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2910" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2911">
       <c r="A2911" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr"/>
       <c r="E2911" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2911" t="inlineStr"/>
-      <c r="G2911" t="inlineStr"/>
+      <c r="G2911" t="inlineStr">
+        <is>
+          <t>-3K</t>
+        </is>
+      </c>
       <c r="H2911" t="inlineStr">
         <is>
           <t>2</t>
@@ -94048,27 +93480,31 @@
     <row r="2912">
       <c r="A2912" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2912" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
       <c r="E2912" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr"/>
+      <c r="G2912" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2912" t="inlineStr">
         <is>
           <t>2</t>
@@ -94078,23 +93514,31 @@
     <row r="2913">
       <c r="A2913" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2913" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
-      <c r="E2913" t="inlineStr"/>
+      <c r="E2913" t="inlineStr">
+        <is>
+          <t>65.1%</t>
+        </is>
+      </c>
       <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr"/>
+      <c r="G2913" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2913" t="inlineStr">
         <is>
           <t>2</t>
@@ -94104,229 +93548,233 @@
     <row r="2914">
       <c r="A2914" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2914" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
       <c r="E2914" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2914" t="inlineStr"/>
       <c r="G2914" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2914" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2915">
       <c r="A2915" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2915" t="inlineStr"/>
       <c r="E2915" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2915" t="inlineStr"/>
       <c r="G2915" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2915" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2916">
       <c r="A2916" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
       <c r="E2916" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2916" t="inlineStr"/>
       <c r="G2916" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2916" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2917">
       <c r="A2917" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2917" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr"/>
       <c r="E2917" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr"/>
+      <c r="G2917" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2917" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2918">
       <c r="A2918" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2918" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2918" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2918" t="inlineStr"/>
       <c r="E2918" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2918" t="inlineStr"/>
       <c r="G2918" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2918" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2919">
       <c r="A2919" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr"/>
       <c r="E2919" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2919" t="inlineStr"/>
       <c r="G2919" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2919" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2920">
       <c r="A2920" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr"/>
       <c r="E2920" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2920" t="inlineStr"/>
       <c r="G2920" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2920" t="inlineStr">
@@ -94338,27 +93786,31 @@
     <row r="2921">
       <c r="A2921" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2921" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2921" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2921" t="inlineStr"/>
       <c r="E2921" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr"/>
+      <c r="G2921" t="inlineStr">
+        <is>
+          <t>25K</t>
+        </is>
+      </c>
       <c r="H2921" t="inlineStr">
         <is>
           <t>3</t>
@@ -94368,27 +93820,31 @@
     <row r="2922">
       <c r="A2922" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2922" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2922" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2922" t="inlineStr"/>
       <c r="E2922" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr"/>
+      <c r="G2922" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2922" t="inlineStr">
         <is>
           <t>3</t>
@@ -94398,27 +93854,31 @@
     <row r="2923">
       <c r="A2923" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2923" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2923" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2923" t="inlineStr"/>
       <c r="E2923" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr"/>
+      <c r="G2923" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2923" t="inlineStr">
         <is>
           <t>3</t>
@@ -94428,23 +93888,31 @@
     <row r="2924">
       <c r="A2924" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2924" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2924" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr"/>
+      <c r="E2924" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr"/>
+      <c r="G2924" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2924" t="inlineStr">
         <is>
           <t>3</t>
@@ -94454,165 +93922,149 @@
     <row r="2925">
       <c r="A2925" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2925" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2925" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2925" t="inlineStr"/>
       <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2925" t="inlineStr"/>
       <c r="H2925" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2926">
       <c r="A2926" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2926" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2926" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2926" t="inlineStr"/>
       <c r="E2926" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G2926" t="inlineStr"/>
       <c r="H2926" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2927">
       <c r="A2927" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2927" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2927" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2927" t="inlineStr"/>
-      <c r="E2927" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
+      <c r="E2927" t="inlineStr"/>
       <c r="F2927" t="inlineStr"/>
       <c r="G2927" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2927" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2928">
       <c r="A2928" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2928" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2928" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2928" t="inlineStr"/>
       <c r="E2928" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2928" t="inlineStr"/>
       <c r="G2928" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2928" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2929">
       <c r="A2929" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2929" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2929" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2929" t="inlineStr"/>
       <c r="E2929" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2929" t="inlineStr"/>
       <c r="G2929" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2929" t="inlineStr">
@@ -94624,29 +94076,29 @@
     <row r="2930">
       <c r="A2930" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2930" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2930" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2930" t="inlineStr"/>
       <c r="E2930" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2930" t="inlineStr"/>
       <c r="G2930" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2930" t="inlineStr">
@@ -94658,29 +94110,29 @@
     <row r="2931">
       <c r="A2931" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2931" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2931" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2931" t="inlineStr"/>
       <c r="E2931" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2931" t="inlineStr"/>
       <c r="G2931" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2931" t="inlineStr">
@@ -94692,29 +94144,29 @@
     <row r="2932">
       <c r="A2932" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2932" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2932" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2932" t="inlineStr"/>
       <c r="E2932" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2932" t="inlineStr"/>
       <c r="G2932" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2932" t="inlineStr">
@@ -94726,63 +94178,67 @@
     <row r="2933">
       <c r="A2933" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2933" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2933" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2933" t="inlineStr"/>
       <c r="E2933" t="inlineStr">
         <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F2933" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2933" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2933" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2933" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2934">
       <c r="A2934" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2934" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2934" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2934" t="inlineStr"/>
       <c r="E2934" t="inlineStr">
         <is>
-          <t>90.9K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2934" t="inlineStr"/>
       <c r="G2934" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2934" t="inlineStr">
@@ -94794,131 +94250,99 @@
     <row r="2935">
       <c r="A2935" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2935" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2935" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2935" t="inlineStr"/>
-      <c r="E2935" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2935" t="inlineStr"/>
       <c r="F2935" t="inlineStr"/>
-      <c r="G2935" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2935" t="inlineStr"/>
       <c r="H2935" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2936">
       <c r="A2936" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2936" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2936" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2936" t="inlineStr"/>
-      <c r="E2936" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2936" t="inlineStr"/>
       <c r="F2936" t="inlineStr"/>
-      <c r="G2936" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2936" t="inlineStr"/>
       <c r="H2936" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2937">
-      <c r="A2937" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2937" t="inlineStr"/>
       <c r="B2937" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2937" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2937" t="inlineStr"/>
-      <c r="E2937" t="inlineStr">
-        <is>
-          <t>65.1%</t>
-        </is>
-      </c>
+      <c r="E2937" t="inlineStr"/>
       <c r="F2937" t="inlineStr"/>
-      <c r="G2937" t="inlineStr">
-        <is>
-          <t>65.0%</t>
-        </is>
-      </c>
+      <c r="G2937" t="inlineStr"/>
       <c r="H2937" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2938">
-      <c r="A2938" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2938" t="inlineStr"/>
       <c r="B2938" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2938" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2938" t="inlineStr"/>
       <c r="E2938" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2938" t="inlineStr"/>
       <c r="G2938" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2938" t="inlineStr">
@@ -94928,79 +94352,59 @@
       </c>
     </row>
     <row r="2939">
-      <c r="A2939" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2939" t="inlineStr"/>
       <c r="B2939" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2939" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2939" t="inlineStr"/>
-      <c r="E2939" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2939" t="inlineStr"/>
       <c r="F2939" t="inlineStr"/>
-      <c r="G2939" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2939" t="inlineStr"/>
       <c r="H2939" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2940">
-      <c r="A2940" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2940" t="inlineStr"/>
       <c r="B2940" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2940" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2940" t="inlineStr"/>
       <c r="E2940" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2940" t="inlineStr"/>
       <c r="G2940" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2940" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2941">
-      <c r="A2941" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2941" t="inlineStr"/>
       <c r="B2941" t="inlineStr">
         <is>
           <t>US</t>
@@ -95008,33 +94412,25 @@
       </c>
       <c r="C2941" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2941" t="inlineStr"/>
       <c r="E2941" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2941" t="inlineStr"/>
       <c r="H2941" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2942">
-      <c r="A2942" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2942" t="inlineStr"/>
       <c r="B2942" t="inlineStr">
         <is>
           <t>US</t>
@@ -95042,87 +94438,63 @@
       </c>
       <c r="C2942" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2942" t="inlineStr"/>
       <c r="E2942" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2942" t="inlineStr"/>
       <c r="H2942" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2943">
       <c r="A2943" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2943" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2943" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2943" t="inlineStr"/>
+      <c r="C2943" t="inlineStr"/>
       <c r="D2943" t="inlineStr"/>
-      <c r="E2943" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2943" t="inlineStr"/>
       <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2943" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2943" t="inlineStr"/>
+      <c r="H2943" t="inlineStr"/>
     </row>
     <row r="2944">
       <c r="A2944" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2944" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2944" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2944" t="inlineStr"/>
       <c r="E2944" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2944" t="inlineStr"/>
       <c r="G2944" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2944" t="inlineStr">
@@ -95134,7 +94506,7 @@
     <row r="2945">
       <c r="A2945" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2945" t="inlineStr">
@@ -95144,742 +94516,22 @@
       </c>
       <c r="C2945" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2945" t="inlineStr"/>
       <c r="E2945" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2945" t="inlineStr"/>
       <c r="G2945" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2946">
-      <c r="A2946" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2946" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2946" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsJAN</t>
-        </is>
-      </c>
-      <c r="D2946" t="inlineStr"/>
-      <c r="E2946" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="F2946" t="inlineStr"/>
-      <c r="G2946" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H2946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2947">
-      <c r="A2947" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2947" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2947" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
-      <c r="D2947" t="inlineStr"/>
-      <c r="E2947" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2947" t="inlineStr"/>
-      <c r="G2947" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
-      <c r="H2947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2948">
-      <c r="A2948" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2948" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2948" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
-      <c r="D2948" t="inlineStr"/>
-      <c r="E2948" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2948" t="inlineStr"/>
-      <c r="G2948" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H2948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2949">
-      <c r="A2949" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B2949" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2949" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2949" t="inlineStr"/>
-      <c r="E2949" t="inlineStr"/>
-      <c r="F2949" t="inlineStr"/>
-      <c r="G2949" t="inlineStr"/>
-      <c r="H2949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2950">
-      <c r="A2950" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2950" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2950" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2950" t="inlineStr"/>
-      <c r="E2950" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2950" t="inlineStr"/>
-      <c r="G2950" t="inlineStr"/>
-      <c r="H2950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2951">
-      <c r="A2951" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2951" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2951" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2951" t="inlineStr"/>
-      <c r="E2951" t="inlineStr"/>
-      <c r="F2951" t="inlineStr"/>
-      <c r="G2951" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2952">
-      <c r="A2952" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2952" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2952" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2952" t="inlineStr"/>
-      <c r="E2952" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2952" t="inlineStr"/>
-      <c r="G2952" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2952" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2953">
-      <c r="A2953" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2953" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2953" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2953" t="inlineStr"/>
-      <c r="E2953" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2953" t="inlineStr"/>
-      <c r="G2953" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2954">
-      <c r="A2954" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2954" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2954" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2954" t="inlineStr"/>
-      <c r="E2954" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2954" t="inlineStr"/>
-      <c r="G2954" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2955">
-      <c r="A2955" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2955" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2955" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2955" t="inlineStr"/>
-      <c r="E2955" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2955" t="inlineStr"/>
-      <c r="G2955" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2956">
-      <c r="A2956" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2956" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2956" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2956" t="inlineStr"/>
-      <c r="E2956" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2956" t="inlineStr"/>
-      <c r="G2956" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2957">
-      <c r="A2957" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2957" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2957" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2957" t="inlineStr"/>
-      <c r="E2957" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2957" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2957" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2958">
-      <c r="A2958" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2958" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2958" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2958" t="inlineStr"/>
-      <c r="E2958" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2958" t="inlineStr"/>
-      <c r="G2958" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2959">
-      <c r="A2959" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2959" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2959" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2959" t="inlineStr"/>
-      <c r="E2959" t="inlineStr"/>
-      <c r="F2959" t="inlineStr"/>
-      <c r="G2959" t="inlineStr"/>
-      <c r="H2959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2960">
-      <c r="A2960" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2960" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2960" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2960" t="inlineStr"/>
-      <c r="E2960" t="inlineStr"/>
-      <c r="F2960" t="inlineStr"/>
-      <c r="G2960" t="inlineStr"/>
-      <c r="H2960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2961">
-      <c r="A2961" t="inlineStr"/>
-      <c r="B2961" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2961" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2961" t="inlineStr"/>
-      <c r="E2961" t="inlineStr"/>
-      <c r="F2961" t="inlineStr"/>
-      <c r="G2961" t="inlineStr"/>
-      <c r="H2961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2962">
-      <c r="A2962" t="inlineStr"/>
-      <c r="B2962" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2962" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2962" t="inlineStr"/>
-      <c r="E2962" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2962" t="inlineStr"/>
-      <c r="G2962" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2963">
-      <c r="A2963" t="inlineStr"/>
-      <c r="B2963" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2963" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2963" t="inlineStr"/>
-      <c r="E2963" t="inlineStr"/>
-      <c r="F2963" t="inlineStr"/>
-      <c r="G2963" t="inlineStr"/>
-      <c r="H2963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2964">
-      <c r="A2964" t="inlineStr"/>
-      <c r="B2964" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2964" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2964" t="inlineStr"/>
-      <c r="E2964" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2964" t="inlineStr"/>
-      <c r="G2964" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2965">
-      <c r="A2965" t="inlineStr"/>
-      <c r="B2965" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2965" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2965" t="inlineStr"/>
-      <c r="E2965" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2965" t="inlineStr"/>
-      <c r="G2965" t="inlineStr"/>
-      <c r="H2965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2966">
-      <c r="A2966" t="inlineStr"/>
-      <c r="B2966" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2966" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2966" t="inlineStr"/>
-      <c r="E2966" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2966" t="inlineStr"/>
-      <c r="G2966" t="inlineStr"/>
-      <c r="H2966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2967">
-      <c r="A2967" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2967" t="inlineStr"/>
-      <c r="C2967" t="inlineStr"/>
-      <c r="D2967" t="inlineStr"/>
-      <c r="E2967" t="inlineStr"/>
-      <c r="F2967" t="inlineStr"/>
-      <c r="G2967" t="inlineStr"/>
-      <c r="H2967" t="inlineStr"/>
-    </row>
-    <row r="2968">
-      <c r="A2968" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2968" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2968" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2968" t="inlineStr"/>
-      <c r="E2968" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2968" t="inlineStr"/>
-      <c r="G2968" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2969">
-      <c r="A2969" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2969" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2969" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2969" t="inlineStr"/>
-      <c r="E2969" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2969" t="inlineStr"/>
-      <c r="G2969" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2969" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2949"/>
+  <dimension ref="A1:H2925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86213,10 +86213,8 @@
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2663">
@@ -86243,10 +86241,8 @@
       </c>
       <c r="F2663" t="inlineStr"/>
       <c r="G2663" t="inlineStr"/>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2664">
@@ -86277,10 +86273,8 @@
         </is>
       </c>
       <c r="G2664" t="inlineStr"/>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2665">
@@ -86311,10 +86305,8 @@
         </is>
       </c>
       <c r="G2665" t="inlineStr"/>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2666">
@@ -86341,10 +86333,8 @@
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr"/>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2667">
@@ -86371,10 +86361,8 @@
       </c>
       <c r="F2667" t="inlineStr"/>
       <c r="G2667" t="inlineStr"/>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2668">
@@ -86401,10 +86389,8 @@
       </c>
       <c r="F2668" t="inlineStr"/>
       <c r="G2668" t="inlineStr"/>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2669">
@@ -86431,10 +86417,8 @@
       </c>
       <c r="F2669" t="inlineStr"/>
       <c r="G2669" t="inlineStr"/>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2670">
@@ -86461,10 +86445,8 @@
       </c>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2671">
@@ -86491,10 +86473,8 @@
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2672">
@@ -86521,10 +86501,8 @@
       </c>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2673">
@@ -86559,10 +86537,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2674">
@@ -86597,10 +86573,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2675">
@@ -86635,10 +86609,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2676">
@@ -86669,10 +86641,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2677">
@@ -86707,10 +86677,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2678">
@@ -86737,10 +86705,8 @@
       </c>
       <c r="F2678" t="inlineStr"/>
       <c r="G2678" t="inlineStr"/>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2679">
@@ -86767,10 +86733,8 @@
       </c>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2680">
@@ -86797,10 +86761,8 @@
       </c>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2681">
@@ -86827,10 +86789,8 @@
       </c>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2682">
@@ -86857,10 +86817,8 @@
       </c>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2683">
@@ -86887,10 +86845,8 @@
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2684">
@@ -86917,10 +86873,8 @@
       </c>
       <c r="F2684" t="inlineStr"/>
       <c r="G2684" t="inlineStr"/>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2685">
@@ -86947,10 +86901,8 @@
       </c>
       <c r="F2685" t="inlineStr"/>
       <c r="G2685" t="inlineStr"/>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2686">
@@ -86981,10 +86933,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2687">
@@ -87015,10 +86965,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -87049,10 +86997,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -87079,10 +87025,8 @@
       </c>
       <c r="F2689" t="inlineStr"/>
       <c r="G2689" t="inlineStr"/>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2690">
@@ -87109,10 +87053,8 @@
       </c>
       <c r="F2690" t="inlineStr"/>
       <c r="G2690" t="inlineStr"/>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -87139,10 +87081,8 @@
       </c>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2692">
@@ -87173,10 +87113,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2693">
@@ -87211,10 +87149,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2694">
@@ -87245,10 +87181,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2695">
@@ -87279,10 +87213,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2696">
@@ -87313,10 +87245,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2697">
@@ -87347,10 +87277,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -87381,10 +87309,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -87411,10 +87337,8 @@
       </c>
       <c r="F2699" t="inlineStr"/>
       <c r="G2699" t="inlineStr"/>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -87441,10 +87365,8 @@
       </c>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2701">
@@ -87467,10 +87389,8 @@
       <c r="E2701" t="inlineStr"/>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2702">
@@ -87489,10 +87409,8 @@
       <c r="E2702" t="inlineStr"/>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2703">
@@ -87519,10 +87437,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2704">
@@ -87559,10 +87475,8 @@
       <c r="E2705" t="inlineStr"/>
       <c r="F2705" t="inlineStr"/>
       <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2706">
@@ -87589,10 +87503,8 @@
       </c>
       <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr"/>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2707">
@@ -87619,10 +87531,8 @@
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -87653,10 +87563,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -87683,10 +87591,8 @@
       </c>
       <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr"/>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2710">
@@ -87713,10 +87619,8 @@
       </c>
       <c r="F2710" t="inlineStr"/>
       <c r="G2710" t="inlineStr"/>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -87743,10 +87647,8 @@
       </c>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -87773,10 +87675,8 @@
       </c>
       <c r="F2712" t="inlineStr"/>
       <c r="G2712" t="inlineStr"/>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -87807,10 +87707,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -87837,10 +87735,8 @@
       </c>
       <c r="F2714" t="inlineStr"/>
       <c r="G2714" t="inlineStr"/>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -87863,10 +87759,8 @@
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2716">
@@ -87897,10 +87791,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2717">
@@ -87931,10 +87823,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2718">
@@ -87965,10 +87855,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2719">
@@ -87995,10 +87883,8 @@
       </c>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2720">
@@ -88029,10 +87915,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -88063,10 +87947,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2722">
@@ -88097,10 +87979,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2723">
@@ -88131,10 +88011,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2724">
@@ -88165,10 +88043,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -88199,10 +88075,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -88225,10 +88099,8 @@
       <c r="E2726" t="inlineStr"/>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2727">
@@ -88247,10 +88119,8 @@
       <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr"/>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2728">
@@ -88269,10 +88139,8 @@
       <c r="E2728" t="inlineStr"/>
       <c r="F2728" t="inlineStr"/>
       <c r="G2728" t="inlineStr"/>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2729">
@@ -88291,10 +88159,8 @@
       <c r="E2729" t="inlineStr"/>
       <c r="F2729" t="inlineStr"/>
       <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2730">
@@ -88317,10 +88183,8 @@
       </c>
       <c r="F2730" t="inlineStr"/>
       <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2731">
@@ -88357,10 +88221,8 @@
       <c r="E2732" t="inlineStr"/>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr"/>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2732" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2733">
@@ -88387,10 +88249,8 @@
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr"/>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2734">
@@ -88417,10 +88277,8 @@
       </c>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr"/>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2735">
@@ -88451,10 +88309,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2736">
@@ -88485,10 +88341,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2737">
@@ -88515,10 +88369,8 @@
       </c>
       <c r="F2737" t="inlineStr"/>
       <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2738">
@@ -88545,10 +88397,8 @@
       </c>
       <c r="F2738" t="inlineStr"/>
       <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2739">
@@ -88579,10 +88429,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2740">
@@ -88609,10 +88457,8 @@
       </c>
       <c r="F2740" t="inlineStr"/>
       <c r="G2740" t="inlineStr"/>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -88647,10 +88493,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2742">
@@ -88681,10 +88525,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2743">
@@ -88711,10 +88553,8 @@
       </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -88745,10 +88585,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2745">
@@ -88779,10 +88617,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2746">
@@ -88813,10 +88649,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2747">
@@ -88847,10 +88681,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2748">
@@ -88881,10 +88713,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2749">
@@ -88919,10 +88749,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -88957,10 +88785,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -88991,10 +88817,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -89025,10 +88849,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2753">
@@ -89055,10 +88877,8 @@
       </c>
       <c r="F2753" t="inlineStr"/>
       <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -89085,10 +88905,8 @@
       </c>
       <c r="F2754" t="inlineStr"/>
       <c r="G2754" t="inlineStr"/>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -89115,10 +88933,8 @@
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr"/>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2756">
@@ -89149,10 +88965,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2757">
@@ -89179,10 +88993,8 @@
       </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr"/>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2758">
@@ -89209,10 +89021,8 @@
       </c>
       <c r="F2758" t="inlineStr"/>
       <c r="G2758" t="inlineStr"/>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2759">
@@ -89239,10 +89049,8 @@
       </c>
       <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr"/>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2760">
@@ -89269,10 +89077,8 @@
       </c>
       <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr"/>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2761">
@@ -89307,10 +89113,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2762">
@@ -89345,10 +89149,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2763">
@@ -89383,10 +89185,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2764">
@@ -89421,10 +89221,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2765">
@@ -89459,10 +89257,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2766">
@@ -89497,10 +89293,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2767">
@@ -89531,10 +89325,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2768">
@@ -89565,10 +89357,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2769">
@@ -89599,10 +89389,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -89637,10 +89425,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2771">
@@ -89675,10 +89461,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2772">
@@ -89709,10 +89493,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2773">
@@ -89743,10 +89525,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -89773,10 +89553,8 @@
       </c>
       <c r="F2774" t="inlineStr"/>
       <c r="G2774" t="inlineStr"/>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -89803,10 +89581,8 @@
       </c>
       <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr"/>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -89833,10 +89609,8 @@
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -89863,10 +89637,8 @@
       </c>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -89897,10 +89669,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2779">
@@ -89931,10 +89701,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2780">
@@ -89965,10 +89733,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -89999,10 +89765,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2782">
@@ -90029,10 +89793,8 @@
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr"/>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2783">
@@ -90059,10 +89821,8 @@
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2784">
@@ -90089,10 +89849,8 @@
       </c>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -90119,10 +89877,8 @@
       </c>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -90149,10 +89905,8 @@
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -90183,10 +89937,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2788">
@@ -90217,10 +89969,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2789">
@@ -90251,10 +90001,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2790">
@@ -90285,10 +90033,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2791">
@@ -90319,10 +90065,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2792">
@@ -90353,10 +90097,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -90387,10 +90129,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2794">
@@ -90421,10 +90161,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2795">
@@ -90455,10 +90193,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2796">
@@ -90481,10 +90217,8 @@
       <c r="E2796" t="inlineStr"/>
       <c r="F2796" t="inlineStr"/>
       <c r="G2796" t="inlineStr"/>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2797">
@@ -90515,10 +90249,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -90549,10 +90281,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -90587,10 +90317,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2800">
@@ -90625,10 +90353,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2801">
@@ -90659,10 +90385,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2802">
@@ -90693,10 +90417,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2803">
@@ -90727,10 +90449,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90761,10 +90481,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2805">
@@ -90795,10 +90513,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -90825,10 +90541,8 @@
       </c>
       <c r="F2806" t="inlineStr"/>
       <c r="G2806" t="inlineStr"/>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2807">
@@ -90855,10 +90569,8 @@
       </c>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2808">
@@ -90885,10 +90597,8 @@
       </c>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2809">
@@ -90915,10 +90625,8 @@
       </c>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -90945,10 +90653,8 @@
       </c>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -90975,10 +90681,8 @@
       </c>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -91005,10 +90709,8 @@
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -91035,10 +90737,8 @@
       </c>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -91065,10 +90765,8 @@
       </c>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -91099,10 +90797,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2816">
@@ -91129,10 +90825,8 @@
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -91159,10 +90853,8 @@
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -91193,10 +90885,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -91223,10 +90913,8 @@
       </c>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -91257,10 +90945,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -91287,10 +90973,8 @@
       </c>
       <c r="F2821" t="inlineStr"/>
       <c r="G2821" t="inlineStr"/>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -91317,10 +91001,8 @@
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -91343,10 +91025,8 @@
       <c r="E2823" t="inlineStr"/>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2824">
@@ -91369,10 +91049,8 @@
       </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2825">
@@ -91417,10 +91095,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2827">
@@ -91451,10 +91127,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2828">
@@ -91485,10 +91159,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -91519,10 +91191,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -91549,10 +91219,8 @@
       </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -91575,10 +91243,8 @@
       <c r="E2831" t="inlineStr"/>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -91601,10 +91267,8 @@
       <c r="E2832" t="inlineStr"/>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
@@ -91635,10 +91299,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2834">
@@ -91665,10 +91327,8 @@
       </c>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2835">
@@ -91695,10 +91355,8 @@
       </c>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2836">
@@ -91725,10 +91383,8 @@
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -91755,10 +91411,8 @@
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -91789,10 +91443,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2839">
@@ -91819,10 +91471,8 @@
       </c>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr"/>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2840">
@@ -91849,10 +91499,8 @@
       </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -91879,10 +91527,8 @@
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2842">
@@ -91909,10 +91555,8 @@
       </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2843">
@@ -91943,10 +91587,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2844">
@@ -91977,10 +91619,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2845">
@@ -92011,10 +91651,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2846">
@@ -92037,10 +91675,8 @@
       <c r="E2846" t="inlineStr"/>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2847">
@@ -92063,10 +91699,8 @@
       <c r="E2847" t="inlineStr"/>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -92097,10 +91731,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2849">
@@ -92135,10 +91767,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2850">
@@ -92161,10 +91791,8 @@
       <c r="E2850" t="inlineStr"/>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2851">
@@ -92187,10 +91815,8 @@
       <c r="E2851" t="inlineStr"/>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2852">
@@ -92213,10 +91839,8 @@
       <c r="E2852" t="inlineStr"/>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2853">
@@ -92239,10 +91863,8 @@
       <c r="E2853" t="inlineStr"/>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2854">
@@ -92265,10 +91887,8 @@
       <c r="E2854" t="inlineStr"/>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2855">
@@ -92299,10 +91919,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2856">
@@ -92325,10 +91943,8 @@
       <c r="E2856" t="inlineStr"/>
       <c r="F2856" t="inlineStr"/>
       <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2857">
@@ -92359,10 +91975,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2858">
@@ -92393,10 +92007,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2859">
@@ -92419,10 +92031,8 @@
       <c r="E2859" t="inlineStr"/>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr"/>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2860">
@@ -92445,10 +92055,8 @@
       <c r="E2860" t="inlineStr"/>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2861">
@@ -92479,10 +92087,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2862">
@@ -92505,10 +92111,8 @@
       <c r="E2862" t="inlineStr"/>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2863">
@@ -92531,10 +92135,8 @@
       <c r="E2863" t="inlineStr"/>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2864">
@@ -92557,10 +92159,8 @@
       <c r="E2864" t="inlineStr"/>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2865">
@@ -92587,10 +92187,8 @@
       </c>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2866">
@@ -92613,10 +92211,8 @@
       <c r="E2866" t="inlineStr"/>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr"/>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2867">
@@ -92639,10 +92235,8 @@
       <c r="E2867" t="inlineStr"/>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr"/>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2868">
@@ -92665,10 +92259,8 @@
       </c>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr"/>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2869">
@@ -92691,10 +92283,8 @@
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr"/>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2870">
@@ -92713,10 +92303,8 @@
       <c r="E2870" t="inlineStr"/>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr"/>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2871">
@@ -92735,10 +92323,8 @@
       <c r="E2871" t="inlineStr"/>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2872">
@@ -92757,10 +92343,8 @@
       <c r="E2872" t="inlineStr"/>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2873">
@@ -92783,104 +92367,134 @@
       </c>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2874" t="inlineStr"/>
-      <c r="C2874" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2874" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
       <c r="D2874" t="inlineStr"/>
-      <c r="E2874" t="inlineStr"/>
+      <c r="E2874" t="inlineStr">
+        <is>
+          <t>€57.186B</t>
+        </is>
+      </c>
       <c r="F2874" t="inlineStr"/>
-      <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr"/>
+      <c r="G2874" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2874" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>20200%</t>
         </is>
       </c>
       <c r="H2875" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
-      <c r="E2876" t="inlineStr"/>
+      <c r="E2876" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr"/>
+      <c r="G2876" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2876" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr"/>
+      <c r="E2877" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr"/>
       <c r="H2877" t="inlineStr">
@@ -92892,89 +92506,81 @@
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
       <c r="E2878" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr"/>
       <c r="H2878" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2879" t="inlineStr"/>
       <c r="H2879" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
-      <c r="E2880" t="inlineStr">
-        <is>
-          <t>$155.7B</t>
-        </is>
-      </c>
+      <c r="E2880" t="inlineStr"/>
       <c r="F2880" t="inlineStr"/>
       <c r="G2880" t="inlineStr"/>
       <c r="H2880" t="inlineStr">
@@ -92986,145 +92592,165 @@
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
-      <c r="E2881" t="inlineStr"/>
+      <c r="E2881" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
       <c r="F2881" t="inlineStr"/>
-      <c r="G2881" t="inlineStr"/>
+      <c r="G2881" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2881" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
       <c r="E2882" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr"/>
+      <c r="G2882" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="H2882" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr"/>
+      <c r="G2883" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2883" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr"/>
+      <c r="G2884" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2884" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr"/>
       <c r="G2885" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2885" t="inlineStr">
@@ -93136,29 +92762,29 @@
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2886" t="inlineStr"/>
       <c r="G2886" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2886" t="inlineStr">
@@ -93170,163 +92796,167 @@
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2887" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
       <c r="E2889" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
       <c r="E2891" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr"/>
+      <c r="G2891" t="inlineStr">
+        <is>
+          <t>-3K</t>
+        </is>
+      </c>
       <c r="H2891" t="inlineStr">
         <is>
           <t>2</t>
@@ -93336,27 +92966,31 @@
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr"/>
+      <c r="G2892" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2892" t="inlineStr">
         <is>
           <t>2</t>
@@ -93366,23 +93000,31 @@
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr"/>
+      <c r="E2893" t="inlineStr">
+        <is>
+          <t>65.1%</t>
+        </is>
+      </c>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
+      <c r="G2893" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2893" t="inlineStr">
         <is>
           <t>2</t>
@@ -93392,229 +93034,233 @@
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
       <c r="E2894" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2894" t="inlineStr"/>
       <c r="G2894" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2894" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
       <c r="G2895" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2895" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr"/>
       <c r="G2896" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2896" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr"/>
+      <c r="G2897" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2897" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr"/>
       <c r="G2898" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2898" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2899" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr"/>
       <c r="G2900" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2900" t="inlineStr">
@@ -93626,27 +93272,31 @@
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr"/>
+      <c r="G2901" t="inlineStr">
+        <is>
+          <t>25K</t>
+        </is>
+      </c>
       <c r="H2901" t="inlineStr">
         <is>
           <t>3</t>
@@ -93656,27 +93306,31 @@
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr"/>
+      <c r="G2902" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2902" t="inlineStr">
         <is>
           <t>3</t>
@@ -93686,27 +93340,31 @@
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr"/>
+      <c r="G2903" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2903" t="inlineStr">
         <is>
           <t>3</t>
@@ -93716,23 +93374,31 @@
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr"/>
+      <c r="E2904" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr"/>
+      <c r="G2904" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2904" t="inlineStr">
         <is>
           <t>3</t>
@@ -93742,165 +93408,149 @@
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2905" t="inlineStr"/>
       <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2905" t="inlineStr"/>
       <c r="H2905" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
       <c r="E2906" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G2906" t="inlineStr"/>
       <c r="H2906" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2907">
       <c r="A2907" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
+      <c r="E2907" t="inlineStr"/>
       <c r="F2907" t="inlineStr"/>
       <c r="G2907" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2907" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2908">
       <c r="A2908" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr"/>
       <c r="E2908" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2908" t="inlineStr"/>
       <c r="G2908" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2908" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
       <c r="E2909" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2909" t="inlineStr"/>
       <c r="G2909" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2909" t="inlineStr">
@@ -93912,29 +93562,29 @@
     <row r="2910">
       <c r="A2910" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
       <c r="E2910" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2910" t="inlineStr"/>
       <c r="G2910" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2910" t="inlineStr">
@@ -93946,29 +93596,29 @@
     <row r="2911">
       <c r="A2911" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr"/>
       <c r="E2911" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2911" t="inlineStr"/>
       <c r="G2911" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2911" t="inlineStr">
@@ -93980,29 +93630,29 @@
     <row r="2912">
       <c r="A2912" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2912" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
       <c r="E2912" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2912" t="inlineStr"/>
       <c r="G2912" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2912" t="inlineStr">
@@ -94014,63 +93664,67 @@
     <row r="2913">
       <c r="A2913" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2913" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
       <c r="E2913" t="inlineStr">
         <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F2913" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2913" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2913" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2913" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2914">
       <c r="A2914" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2914" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
       <c r="E2914" t="inlineStr">
         <is>
-          <t>90.9K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2914" t="inlineStr"/>
       <c r="G2914" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2914" t="inlineStr">
@@ -94082,131 +93736,99 @@
     <row r="2915">
       <c r="A2915" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2915" t="inlineStr"/>
       <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2915" t="inlineStr"/>
       <c r="H2915" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2916">
       <c r="A2916" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2916" t="inlineStr"/>
       <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2916" t="inlineStr"/>
       <c r="H2916" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2917">
-      <c r="A2917" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2917" t="inlineStr"/>
       <c r="B2917" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr">
-        <is>
-          <t>65.1%</t>
-        </is>
-      </c>
+      <c r="E2917" t="inlineStr"/>
       <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr">
-        <is>
-          <t>65.0%</t>
-        </is>
-      </c>
+      <c r="G2917" t="inlineStr"/>
       <c r="H2917" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2918">
-      <c r="A2918" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2918" t="inlineStr"/>
       <c r="B2918" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2918" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2918" t="inlineStr"/>
       <c r="E2918" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2918" t="inlineStr"/>
       <c r="G2918" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2918" t="inlineStr">
@@ -94216,79 +93838,59 @@
       </c>
     </row>
     <row r="2919">
-      <c r="A2919" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2919" t="inlineStr"/>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2919" t="inlineStr"/>
       <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2919" t="inlineStr"/>
       <c r="H2919" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2920">
-      <c r="A2920" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2920" t="inlineStr"/>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr"/>
       <c r="E2920" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2920" t="inlineStr"/>
       <c r="G2920" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2920" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2921">
-      <c r="A2921" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2921" t="inlineStr"/>
       <c r="B2921" t="inlineStr">
         <is>
           <t>US</t>
@@ -94296,33 +93898,25 @@
       </c>
       <c r="C2921" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2921" t="inlineStr"/>
       <c r="E2921" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2921" t="inlineStr"/>
       <c r="H2921" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2922">
-      <c r="A2922" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2922" t="inlineStr"/>
       <c r="B2922" t="inlineStr">
         <is>
           <t>US</t>
@@ -94330,87 +93924,63 @@
       </c>
       <c r="C2922" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2922" t="inlineStr"/>
       <c r="E2922" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2922" t="inlineStr"/>
       <c r="H2922" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2923">
       <c r="A2923" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2923" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2923" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2923" t="inlineStr"/>
+      <c r="C2923" t="inlineStr"/>
       <c r="D2923" t="inlineStr"/>
-      <c r="E2923" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2923" t="inlineStr"/>
       <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2923" t="inlineStr"/>
+      <c r="H2923" t="inlineStr"/>
     </row>
     <row r="2924">
       <c r="A2924" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2924" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2924" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2924" t="inlineStr"/>
       <c r="E2924" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2924" t="inlineStr"/>
       <c r="G2924" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2924" t="inlineStr">
@@ -94422,7 +93992,7 @@
     <row r="2925">
       <c r="A2925" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2925" t="inlineStr">
@@ -94432,742 +94002,22 @@
       </c>
       <c r="C2925" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2925" t="inlineStr"/>
       <c r="E2925" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2925" t="inlineStr"/>
       <c r="G2925" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2926">
-      <c r="A2926" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2926" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2926" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsJAN</t>
-        </is>
-      </c>
-      <c r="D2926" t="inlineStr"/>
-      <c r="E2926" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H2926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2927">
-      <c r="A2927" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2927" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2927" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
-      <c r="D2927" t="inlineStr"/>
-      <c r="E2927" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
-      <c r="H2927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2928">
-      <c r="A2928" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2928" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2928" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
-      <c r="D2928" t="inlineStr"/>
-      <c r="E2928" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2928" t="inlineStr"/>
-      <c r="G2928" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H2928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2929">
-      <c r="A2929" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B2929" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2929" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2929" t="inlineStr"/>
-      <c r="E2929" t="inlineStr"/>
-      <c r="F2929" t="inlineStr"/>
-      <c r="G2929" t="inlineStr"/>
-      <c r="H2929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2930">
-      <c r="A2930" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2930" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2930" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2930" t="inlineStr"/>
-      <c r="E2930" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr"/>
-      <c r="H2930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2931">
-      <c r="A2931" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2931" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2931" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2931" t="inlineStr"/>
-      <c r="E2931" t="inlineStr"/>
-      <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2932">
-      <c r="A2932" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2932" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2932" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2932" t="inlineStr"/>
-      <c r="E2932" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2932" t="inlineStr"/>
-      <c r="G2932" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2932" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2933">
-      <c r="A2933" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2933" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2933" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2933" t="inlineStr"/>
-      <c r="E2933" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2933" t="inlineStr"/>
-      <c r="G2933" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2934">
-      <c r="A2934" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2934" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2934" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2934" t="inlineStr"/>
-      <c r="E2934" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2934" t="inlineStr"/>
-      <c r="G2934" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2935">
-      <c r="A2935" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2935" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2935" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2935" t="inlineStr"/>
-      <c r="E2935" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2935" t="inlineStr"/>
-      <c r="G2935" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2936">
-      <c r="A2936" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2936" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2936" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2936" t="inlineStr"/>
-      <c r="E2936" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2936" t="inlineStr"/>
-      <c r="G2936" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2937">
-      <c r="A2937" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2937" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2937" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2937" t="inlineStr"/>
-      <c r="E2937" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2937" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2937" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2938">
-      <c r="A2938" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2938" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2938" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2938" t="inlineStr"/>
-      <c r="E2938" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2938" t="inlineStr"/>
-      <c r="G2938" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2939">
-      <c r="A2939" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2939" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2939" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2939" t="inlineStr"/>
-      <c r="E2939" t="inlineStr"/>
-      <c r="F2939" t="inlineStr"/>
-      <c r="G2939" t="inlineStr"/>
-      <c r="H2939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2940">
-      <c r="A2940" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2940" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2940" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2940" t="inlineStr"/>
-      <c r="E2940" t="inlineStr"/>
-      <c r="F2940" t="inlineStr"/>
-      <c r="G2940" t="inlineStr"/>
-      <c r="H2940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2941">
-      <c r="A2941" t="inlineStr"/>
-      <c r="B2941" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2941" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2941" t="inlineStr"/>
-      <c r="E2941" t="inlineStr"/>
-      <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr"/>
-      <c r="H2941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2942">
-      <c r="A2942" t="inlineStr"/>
-      <c r="B2942" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2942" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2942" t="inlineStr"/>
-      <c r="E2942" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2943">
-      <c r="A2943" t="inlineStr"/>
-      <c r="B2943" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2943" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2943" t="inlineStr"/>
-      <c r="E2943" t="inlineStr"/>
-      <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr"/>
-      <c r="H2943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2944">
-      <c r="A2944" t="inlineStr"/>
-      <c r="B2944" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2944" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2944" t="inlineStr"/>
-      <c r="E2944" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2944" t="inlineStr"/>
-      <c r="G2944" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2945">
-      <c r="A2945" t="inlineStr"/>
-      <c r="B2945" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2945" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2945" t="inlineStr"/>
-      <c r="E2945" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2945" t="inlineStr"/>
-      <c r="G2945" t="inlineStr"/>
-      <c r="H2945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2946">
-      <c r="A2946" t="inlineStr"/>
-      <c r="B2946" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2946" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2946" t="inlineStr"/>
-      <c r="E2946" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2946" t="inlineStr"/>
-      <c r="G2946" t="inlineStr"/>
-      <c r="H2946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2947">
-      <c r="A2947" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2947" t="inlineStr"/>
-      <c r="C2947" t="inlineStr"/>
-      <c r="D2947" t="inlineStr"/>
-      <c r="E2947" t="inlineStr"/>
-      <c r="F2947" t="inlineStr"/>
-      <c r="G2947" t="inlineStr"/>
-      <c r="H2947" t="inlineStr"/>
-    </row>
-    <row r="2948">
-      <c r="A2948" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2948" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2948" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2948" t="inlineStr"/>
-      <c r="E2948" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2948" t="inlineStr"/>
-      <c r="G2948" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2949">
-      <c r="A2949" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2949" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2949" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2949" t="inlineStr"/>
-      <c r="E2949" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2949" t="inlineStr"/>
-      <c r="G2949" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2949" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2950"/>
+  <dimension ref="A1:H2926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86107,10 +86107,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2658" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2659">
@@ -86141,10 +86139,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2659" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2660">
@@ -86175,10 +86171,8 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2660" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2661">
@@ -86213,10 +86207,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2661" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2662">
@@ -86243,10 +86235,8 @@
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
-      <c r="H2662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2662" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2663">
@@ -86273,10 +86263,8 @@
       </c>
       <c r="F2663" t="inlineStr"/>
       <c r="G2663" t="inlineStr"/>
-      <c r="H2663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2663" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2664">
@@ -86303,10 +86291,8 @@
       </c>
       <c r="F2664" t="inlineStr"/>
       <c r="G2664" t="inlineStr"/>
-      <c r="H2664" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2664" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2665">
@@ -86337,10 +86323,8 @@
         </is>
       </c>
       <c r="G2665" t="inlineStr"/>
-      <c r="H2665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2665" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2666">
@@ -86371,10 +86355,8 @@
         </is>
       </c>
       <c r="G2666" t="inlineStr"/>
-      <c r="H2666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2666" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2667">
@@ -86401,10 +86383,8 @@
       </c>
       <c r="F2667" t="inlineStr"/>
       <c r="G2667" t="inlineStr"/>
-      <c r="H2667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2667" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2668">
@@ -86431,10 +86411,8 @@
       </c>
       <c r="F2668" t="inlineStr"/>
       <c r="G2668" t="inlineStr"/>
-      <c r="H2668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2668" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2669">
@@ -86461,10 +86439,8 @@
       </c>
       <c r="F2669" t="inlineStr"/>
       <c r="G2669" t="inlineStr"/>
-      <c r="H2669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2669" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2670">
@@ -86491,10 +86467,8 @@
       </c>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2670" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2671">
@@ -86521,10 +86495,8 @@
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr"/>
-      <c r="H2671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2671" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2672">
@@ -86551,10 +86523,8 @@
       </c>
       <c r="F2672" t="inlineStr"/>
       <c r="G2672" t="inlineStr"/>
-      <c r="H2672" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2672" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2673">
@@ -86581,10 +86551,8 @@
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
-      <c r="H2673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2673" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2674">
@@ -86619,10 +86587,8 @@
           <t>45.3</t>
         </is>
       </c>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2674" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2675">
@@ -86657,10 +86623,8 @@
           <t>44.1</t>
         </is>
       </c>
-      <c r="H2675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2675" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2676">
@@ -86695,10 +86659,8 @@
           <t>46.1</t>
         </is>
       </c>
-      <c r="H2676" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2676" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2677">
@@ -86729,10 +86691,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2677" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2678">
@@ -86767,10 +86727,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H2678" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2678" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2679">
@@ -86797,10 +86755,8 @@
       </c>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
-      <c r="H2679" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2679" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2680">
@@ -86827,10 +86783,8 @@
       </c>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
-      <c r="H2680" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2680" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2681">
@@ -86857,10 +86811,8 @@
       </c>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2681" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2682">
@@ -86887,10 +86839,8 @@
       </c>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
-      <c r="H2682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2682" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2683">
@@ -86917,10 +86867,8 @@
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
-      <c r="H2683" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2683" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2684">
@@ -86947,10 +86895,8 @@
       </c>
       <c r="F2684" t="inlineStr"/>
       <c r="G2684" t="inlineStr"/>
-      <c r="H2684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2684" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2685">
@@ -86977,10 +86923,8 @@
       </c>
       <c r="F2685" t="inlineStr"/>
       <c r="G2685" t="inlineStr"/>
-      <c r="H2685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2685" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2686">
@@ -87007,10 +86951,8 @@
       </c>
       <c r="F2686" t="inlineStr"/>
       <c r="G2686" t="inlineStr"/>
-      <c r="H2686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2686" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2687">
@@ -87041,10 +86983,8 @@
           <t>$ 230B</t>
         </is>
       </c>
-      <c r="H2687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2687" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -87075,10 +87015,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2688" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2689">
@@ -87109,10 +87047,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2689" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2690">
@@ -87139,10 +87075,8 @@
       </c>
       <c r="F2690" t="inlineStr"/>
       <c r="G2690" t="inlineStr"/>
-      <c r="H2690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2690" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2691">
@@ -87169,10 +87103,8 @@
       </c>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2691" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2692">
@@ -87199,10 +87131,8 @@
       </c>
       <c r="F2692" t="inlineStr"/>
       <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2692" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2693">
@@ -87233,10 +87163,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2694">
@@ -87271,10 +87199,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2694" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2694" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2695">
@@ -87305,10 +87231,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H2695" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2695" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2696">
@@ -87339,10 +87263,8 @@
           <t>47</t>
         </is>
       </c>
-      <c r="H2696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2696" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2697">
@@ -87373,10 +87295,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2698">
@@ -87407,10 +87327,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2699">
@@ -87441,10 +87359,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H2699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2700">
@@ -87471,10 +87387,8 @@
       </c>
       <c r="F2700" t="inlineStr"/>
       <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2701">
@@ -87501,10 +87415,8 @@
       </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2702">
@@ -87527,10 +87439,8 @@
       <c r="E2702" t="inlineStr"/>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
-      <c r="H2702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2703">
@@ -87549,10 +87459,8 @@
       <c r="E2703" t="inlineStr"/>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
-      <c r="H2703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2704">
@@ -87579,10 +87487,8 @@
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2705">
@@ -87619,10 +87525,8 @@
       <c r="E2706" t="inlineStr"/>
       <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr"/>
-      <c r="H2706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2707">
@@ -87649,10 +87553,8 @@
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
-      <c r="H2707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -87679,10 +87581,8 @@
       </c>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
-      <c r="H2708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2709">
@@ -87713,10 +87613,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H2709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2710">
@@ -87743,10 +87641,8 @@
       </c>
       <c r="F2710" t="inlineStr"/>
       <c r="G2710" t="inlineStr"/>
-      <c r="H2710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2711">
@@ -87773,10 +87669,8 @@
       </c>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
-      <c r="H2711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2712">
@@ -87803,10 +87697,8 @@
       </c>
       <c r="F2712" t="inlineStr"/>
       <c r="G2712" t="inlineStr"/>
-      <c r="H2712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2713">
@@ -87833,10 +87725,8 @@
       </c>
       <c r="F2713" t="inlineStr"/>
       <c r="G2713" t="inlineStr"/>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2714">
@@ -87867,10 +87757,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2715">
@@ -87897,10 +87785,8 @@
       </c>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2716">
@@ -87923,10 +87809,8 @@
       <c r="E2716" t="inlineStr"/>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2716" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2717">
@@ -87957,10 +87841,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2718">
@@ -87991,10 +87873,8 @@
           <t>8.2%</t>
         </is>
       </c>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2719">
@@ -88025,10 +87905,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2719" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2720">
@@ -88055,10 +87933,8 @@
       </c>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2720" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2721">
@@ -88089,10 +87965,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2721" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2722">
@@ -88123,10 +87997,8 @@
           <t>7.8M</t>
         </is>
       </c>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2722" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2723">
@@ -88157,10 +88029,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2723" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2724">
@@ -88191,10 +88061,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2725">
@@ -88225,10 +88093,8 @@
           <t>3.1M</t>
         </is>
       </c>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2726">
@@ -88259,10 +88125,8 @@
           <t>52.3</t>
         </is>
       </c>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2727">
@@ -88285,10 +88149,8 @@
       <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr"/>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2727" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2728">
@@ -88307,10 +88169,8 @@
       <c r="E2728" t="inlineStr"/>
       <c r="F2728" t="inlineStr"/>
       <c r="G2728" t="inlineStr"/>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2728" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2729">
@@ -88329,10 +88189,8 @@
       <c r="E2729" t="inlineStr"/>
       <c r="F2729" t="inlineStr"/>
       <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2729" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2730">
@@ -88351,10 +88209,8 @@
       <c r="E2730" t="inlineStr"/>
       <c r="F2730" t="inlineStr"/>
       <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2730" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2731">
@@ -88377,10 +88233,8 @@
       </c>
       <c r="F2731" t="inlineStr"/>
       <c r="G2731" t="inlineStr"/>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2732">
@@ -88417,10 +88271,8 @@
       <c r="E2733" t="inlineStr"/>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr"/>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2733" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2734">
@@ -88447,10 +88299,8 @@
       </c>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr"/>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2734" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2735">
@@ -88477,10 +88327,8 @@
       </c>
       <c r="F2735" t="inlineStr"/>
       <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2735" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2736">
@@ -88511,10 +88359,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2736" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2737">
@@ -88545,10 +88391,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2737" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2738">
@@ -88575,10 +88419,8 @@
       </c>
       <c r="F2738" t="inlineStr"/>
       <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2739">
@@ -88605,10 +88447,8 @@
       </c>
       <c r="F2739" t="inlineStr"/>
       <c r="G2739" t="inlineStr"/>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2739" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2740">
@@ -88639,10 +88479,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2741">
@@ -88669,10 +88507,8 @@
       </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2742">
@@ -88707,10 +88543,8 @@
           <t>52.7</t>
         </is>
       </c>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2742" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2743">
@@ -88741,10 +88575,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2744">
@@ -88771,10 +88603,8 @@
       </c>
       <c r="F2744" t="inlineStr"/>
       <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2745">
@@ -88805,10 +88635,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2745" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2746">
@@ -88839,10 +88667,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2747">
@@ -88873,10 +88699,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2747" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2748">
@@ -88907,10 +88731,8 @@
           <t>5.2%</t>
         </is>
       </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2749">
@@ -88941,10 +88763,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2750">
@@ -88979,10 +88799,8 @@
           <t>57.9</t>
         </is>
       </c>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2751">
@@ -89017,10 +88835,8 @@
           <t>56.8</t>
         </is>
       </c>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2752">
@@ -89051,10 +88867,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2752" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2753">
@@ -89085,10 +88899,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2753" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2754">
@@ -89115,10 +88927,8 @@
       </c>
       <c r="F2754" t="inlineStr"/>
       <c r="G2754" t="inlineStr"/>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2755">
@@ -89145,10 +88955,8 @@
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr"/>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2756">
@@ -89175,10 +88983,8 @@
       </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2757">
@@ -89209,10 +89015,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2757" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2758">
@@ -89239,10 +89043,8 @@
       </c>
       <c r="F2758" t="inlineStr"/>
       <c r="G2758" t="inlineStr"/>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2758" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2759">
@@ -89269,10 +89071,8 @@
       </c>
       <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr"/>
-      <c r="H2759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2760">
@@ -89299,10 +89099,8 @@
       </c>
       <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr"/>
-      <c r="H2760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2760" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2761">
@@ -89329,10 +89127,8 @@
       </c>
       <c r="F2761" t="inlineStr"/>
       <c r="G2761" t="inlineStr"/>
-      <c r="H2761" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2761" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2762">
@@ -89367,10 +89163,8 @@
           <t>48.9</t>
         </is>
       </c>
-      <c r="H2762" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2762" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2763">
@@ -89405,10 +89199,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H2763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2763" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2764">
@@ -89443,10 +89235,8 @@
           <t>50.1</t>
         </is>
       </c>
-      <c r="H2764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2764" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2765">
@@ -89481,10 +89271,8 @@
           <t>52.5</t>
         </is>
       </c>
-      <c r="H2765" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2765" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2766">
@@ -89519,10 +89307,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2766" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2766" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2767">
@@ -89557,10 +89343,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H2767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2767" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2768">
@@ -89591,10 +89375,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2768" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2768" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2769">
@@ -89625,10 +89407,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2769" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2770">
@@ -89659,10 +89439,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2770" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2771">
@@ -89697,10 +89475,8 @@
           <t>51.2</t>
         </is>
       </c>
-      <c r="H2771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2772">
@@ -89735,10 +89511,8 @@
           <t>50.9</t>
         </is>
       </c>
-      <c r="H2772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2773">
@@ -89769,10 +89543,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2774">
@@ -89803,10 +89575,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H2774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2775">
@@ -89833,10 +89603,8 @@
       </c>
       <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr"/>
-      <c r="H2775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2775" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2776">
@@ -89863,10 +89631,8 @@
       </c>
       <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr"/>
-      <c r="H2776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2776" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2777">
@@ -89893,10 +89659,8 @@
       </c>
       <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr"/>
-      <c r="H2777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2778">
@@ -89923,10 +89687,8 @@
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr"/>
-      <c r="H2778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2778" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2779">
@@ -89957,10 +89719,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2779" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2780">
@@ -89991,10 +89751,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2781">
@@ -90025,10 +89783,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2781" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2782">
@@ -90059,10 +89815,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H2782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2783">
@@ -90089,10 +89843,8 @@
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr"/>
-      <c r="H2783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2784">
@@ -90119,10 +89871,8 @@
       </c>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
-      <c r="H2784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2785">
@@ -90149,10 +89899,8 @@
       </c>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
-      <c r="H2785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2786">
@@ -90179,10 +89927,8 @@
       </c>
       <c r="F2786" t="inlineStr"/>
       <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2787">
@@ -90209,10 +89955,8 @@
       </c>
       <c r="F2787" t="inlineStr"/>
       <c r="G2787" t="inlineStr"/>
-      <c r="H2787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2788">
@@ -90243,10 +89987,8 @@
           <t>50.2</t>
         </is>
       </c>
-      <c r="H2788" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2788" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2789">
@@ -90277,10 +90019,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H2789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2790">
@@ -90311,10 +90051,8 @@
           <t>115.0K</t>
         </is>
       </c>
-      <c r="H2790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2791">
@@ -90345,10 +90083,8 @@
           <t>C$ -1.3B</t>
         </is>
       </c>
-      <c r="H2791" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2791" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2792">
@@ -90379,10 +90115,8 @@
           <t>C$ 65.8B</t>
         </is>
       </c>
-      <c r="H2792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2793">
@@ -90413,10 +90147,8 @@
           <t>C$ 64.5B</t>
         </is>
       </c>
-      <c r="H2793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2794">
@@ -90447,10 +90179,8 @@
           <t>$ -103.0B</t>
         </is>
       </c>
-      <c r="H2794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2795">
@@ -90481,10 +90211,8 @@
           <t>$ 260B</t>
         </is>
       </c>
-      <c r="H2795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2795" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2796">
@@ -90515,10 +90243,8 @@
           <t>$ 363.0B</t>
         </is>
       </c>
-      <c r="H2796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2796" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2797">
@@ -90541,10 +90267,8 @@
       <c r="E2797" t="inlineStr"/>
       <c r="F2797" t="inlineStr"/>
       <c r="G2797" t="inlineStr"/>
-      <c r="H2797" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2797" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2798">
@@ -90575,10 +90299,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2799">
@@ -90609,10 +90331,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H2799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2800">
@@ -90647,10 +90367,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="H2800" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2800" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2801">
@@ -90685,10 +90403,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="H2801" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2801" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2802">
@@ -90719,10 +90435,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H2802" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2802" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2803">
@@ -90753,10 +90467,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="H2803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2804">
@@ -90787,10 +90499,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="H2804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2805">
@@ -90821,10 +90531,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H2805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2806">
@@ -90855,10 +90563,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="H2806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2807">
@@ -90885,10 +90591,8 @@
       </c>
       <c r="F2807" t="inlineStr"/>
       <c r="G2807" t="inlineStr"/>
-      <c r="H2807" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2807" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2808">
@@ -90915,10 +90619,8 @@
       </c>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr"/>
-      <c r="H2808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2808" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2809">
@@ -90945,10 +90647,8 @@
       </c>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr"/>
-      <c r="H2809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2810">
@@ -90975,10 +90675,8 @@
       </c>
       <c r="F2810" t="inlineStr"/>
       <c r="G2810" t="inlineStr"/>
-      <c r="H2810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2811">
@@ -91005,10 +90703,8 @@
       </c>
       <c r="F2811" t="inlineStr"/>
       <c r="G2811" t="inlineStr"/>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2812">
@@ -91035,10 +90731,8 @@
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -91065,10 +90759,8 @@
       </c>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -91095,10 +90787,8 @@
       </c>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -91125,10 +90815,8 @@
       </c>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2816">
@@ -91159,10 +90847,8 @@
           <t>2.40%</t>
         </is>
       </c>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2817">
@@ -91189,10 +90875,8 @@
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -91219,10 +90903,8 @@
       </c>
       <c r="F2818" t="inlineStr"/>
       <c r="G2818" t="inlineStr"/>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2819">
@@ -91253,10 +90935,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2820">
@@ -91283,10 +90963,8 @@
       </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -91317,10 +90995,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2822">
@@ -91347,10 +91023,8 @@
       </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2823">
@@ -91377,10 +91051,8 @@
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -91403,10 +91075,8 @@
       <c r="E2824" t="inlineStr"/>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2825">
@@ -91429,10 +91099,8 @@
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2826">
@@ -91477,10 +91145,8 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2828">
@@ -91511,10 +91177,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -91545,10 +91209,8 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -91579,10 +91241,8 @@
           <t>$ 8.1B</t>
         </is>
       </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -91609,10 +91269,8 @@
       </c>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -91635,10 +91293,8 @@
       <c r="E2832" t="inlineStr"/>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
@@ -91661,10 +91317,8 @@
       <c r="E2833" t="inlineStr"/>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
@@ -91695,10 +91349,8 @@
           <t>A$ 3.2B</t>
         </is>
       </c>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2834" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2835">
@@ -91725,10 +91377,8 @@
       </c>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2836">
@@ -91755,10 +91405,8 @@
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2837">
@@ -91785,10 +91433,8 @@
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr"/>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2838">
@@ -91815,10 +91461,8 @@
       </c>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr"/>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2839">
@@ -91849,10 +91493,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2840">
@@ -91879,10 +91521,8 @@
       </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2841">
@@ -91909,10 +91549,8 @@
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2842">
@@ -91939,10 +91577,8 @@
       </c>
       <c r="F2842" t="inlineStr"/>
       <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2843">
@@ -91969,10 +91605,8 @@
       </c>
       <c r="F2843" t="inlineStr"/>
       <c r="G2843" t="inlineStr"/>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2844">
@@ -92003,10 +91637,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2845">
@@ -92037,10 +91669,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2846">
@@ -92071,10 +91701,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2847">
@@ -92097,10 +91725,8 @@
       <c r="E2847" t="inlineStr"/>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2848">
@@ -92123,10 +91749,8 @@
       <c r="E2848" t="inlineStr"/>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2849">
@@ -92157,10 +91781,8 @@
           <t>46.5</t>
         </is>
       </c>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2850">
@@ -92195,10 +91817,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2850" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2851">
@@ -92221,10 +91841,8 @@
       <c r="E2851" t="inlineStr"/>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2852">
@@ -92247,10 +91865,8 @@
       <c r="E2852" t="inlineStr"/>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2853">
@@ -92273,10 +91889,8 @@
       <c r="E2853" t="inlineStr"/>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2853" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2854">
@@ -92299,10 +91913,8 @@
       <c r="E2854" t="inlineStr"/>
       <c r="F2854" t="inlineStr"/>
       <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2855">
@@ -92325,10 +91937,8 @@
       <c r="E2855" t="inlineStr"/>
       <c r="F2855" t="inlineStr"/>
       <c r="G2855" t="inlineStr"/>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2856">
@@ -92359,10 +91969,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2857">
@@ -92385,10 +91993,8 @@
       <c r="E2857" t="inlineStr"/>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2858">
@@ -92419,10 +92025,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2859">
@@ -92453,10 +92057,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2860">
@@ -92479,10 +92081,8 @@
       <c r="E2860" t="inlineStr"/>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr"/>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2861">
@@ -92505,10 +92105,8 @@
       <c r="E2861" t="inlineStr"/>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2862">
@@ -92539,10 +92137,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2862" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2863">
@@ -92565,10 +92161,8 @@
       <c r="E2863" t="inlineStr"/>
       <c r="F2863" t="inlineStr"/>
       <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2864">
@@ -92591,10 +92185,8 @@
       <c r="E2864" t="inlineStr"/>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2865">
@@ -92617,10 +92209,8 @@
       <c r="E2865" t="inlineStr"/>
       <c r="F2865" t="inlineStr"/>
       <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2866">
@@ -92647,10 +92237,8 @@
       </c>
       <c r="F2866" t="inlineStr"/>
       <c r="G2866" t="inlineStr"/>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2867">
@@ -92673,10 +92261,8 @@
       <c r="E2867" t="inlineStr"/>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr"/>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2868">
@@ -92699,10 +92285,8 @@
       <c r="E2868" t="inlineStr"/>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr"/>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2869">
@@ -92725,10 +92309,8 @@
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr"/>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2870">
@@ -92751,10 +92333,8 @@
       </c>
       <c r="F2870" t="inlineStr"/>
       <c r="G2870" t="inlineStr"/>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2871">
@@ -92773,10 +92353,8 @@
       <c r="E2871" t="inlineStr"/>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2872">
@@ -92795,10 +92373,8 @@
       <c r="E2872" t="inlineStr"/>
       <c r="F2872" t="inlineStr"/>
       <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2873">
@@ -92817,10 +92393,8 @@
       <c r="E2873" t="inlineStr"/>
       <c r="F2873" t="inlineStr"/>
       <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2874">
@@ -92843,104 +92417,134 @@
       </c>
       <c r="F2874" t="inlineStr"/>
       <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2875" t="inlineStr"/>
-      <c r="C2875" t="inlineStr"/>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2875" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2875" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
       <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr"/>
+      <c r="E2875" t="inlineStr">
+        <is>
+          <t>€57.186B</t>
+        </is>
+      </c>
       <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr"/>
-      <c r="H2875" t="inlineStr"/>
+      <c r="G2875" t="inlineStr">
+        <is>
+          <t>€ 56.9B</t>
+        </is>
+      </c>
+      <c r="H2875" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>20200%</t>
         </is>
       </c>
       <c r="H2876" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
-      <c r="E2877" t="inlineStr"/>
+      <c r="E2877" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2877" t="inlineStr"/>
-      <c r="G2877" t="inlineStr"/>
+      <c r="G2877" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="H2877" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr"/>
+      <c r="E2878" t="inlineStr">
+        <is>
+          <t>S$506.7B</t>
+        </is>
+      </c>
       <c r="F2878" t="inlineStr"/>
       <c r="G2878" t="inlineStr"/>
       <c r="H2878" t="inlineStr">
@@ -92952,89 +92556,81 @@
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>Household Spending MoMDEC</t>
+          <t>FAO Food Price IndexJAN</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr"/>
       <c r="H2879" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Household Spending YoYDEC</t>
+          <t>BBA Mortgage RateJAN</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2880" t="inlineStr"/>
       <c r="H2880" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Foreign Exchange ReservesJAN/31</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
-      <c r="E2881" t="inlineStr">
-        <is>
-          <t>$155.7B</t>
-        </is>
-      </c>
+      <c r="E2881" t="inlineStr"/>
       <c r="F2881" t="inlineStr"/>
       <c r="G2881" t="inlineStr"/>
       <c r="H2881" t="inlineStr">
@@ -93046,145 +92642,165 @@
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
-      <c r="E2882" t="inlineStr"/>
+      <c r="E2882" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
       <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr"/>
+      <c r="G2882" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2882" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2883">
       <c r="A2883" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>RBI Interest Rate Decision</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.83%</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr"/>
+      <c r="G2883" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="H2883" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2884">
       <c r="A2884" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Cash Reserve Ratio</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr"/>
       <c r="E2884" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr"/>
+      <c r="G2884" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2884" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr"/>
       <c r="E2885" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr"/>
+      <c r="G2885" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="H2885" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2886">
       <c r="A2886" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr"/>
       <c r="E2886" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2886" t="inlineStr"/>
       <c r="G2886" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2886" t="inlineStr">
@@ -93196,29 +92812,29 @@
     <row r="2887">
       <c r="A2887" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr"/>
       <c r="E2887" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2887" t="inlineStr"/>
       <c r="G2887" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2887" t="inlineStr">
@@ -93230,163 +92846,167 @@
     <row r="2888">
       <c r="A2888" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr"/>
       <c r="E2888" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2888" t="inlineStr"/>
       <c r="G2888" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2888" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr"/>
       <c r="E2889" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2889" t="inlineStr"/>
       <c r="G2889" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2889" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr"/>
       <c r="E2890" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2890" t="inlineStr"/>
       <c r="G2890" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2890" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr"/>
       <c r="E2891" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2891" t="inlineStr"/>
       <c r="G2891" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2891" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2892">
       <c r="A2892" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr"/>
       <c r="E2892" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr"/>
+      <c r="G2892" t="inlineStr">
+        <is>
+          <t>-3K</t>
+        </is>
+      </c>
       <c r="H2892" t="inlineStr">
         <is>
           <t>2</t>
@@ -93396,27 +93016,31 @@
     <row r="2893">
       <c r="A2893" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr"/>
       <c r="E2893" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
+      <c r="G2893" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2893" t="inlineStr">
         <is>
           <t>2</t>
@@ -93426,23 +93050,31 @@
     <row r="2894">
       <c r="A2894" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr"/>
+      <c r="E2894" t="inlineStr">
+        <is>
+          <t>65.1%</t>
+        </is>
+      </c>
       <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr"/>
+      <c r="G2894" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2894" t="inlineStr">
         <is>
           <t>2</t>
@@ -93452,229 +93084,233 @@
     <row r="2895">
       <c r="A2895" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr"/>
       <c r="E2895" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2895" t="inlineStr"/>
       <c r="G2895" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2896">
       <c r="A2896" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr"/>
       <c r="E2896" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2896" t="inlineStr"/>
       <c r="G2896" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2896" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2897">
       <c r="A2897" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr"/>
       <c r="E2897" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2897" t="inlineStr"/>
       <c r="G2897" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2897" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2898">
       <c r="A2898" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr"/>
       <c r="E2898" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr"/>
+      <c r="G2898" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2898" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2899">
       <c r="A2899" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr"/>
       <c r="E2899" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2899" t="inlineStr"/>
       <c r="G2899" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2899" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2900">
       <c r="A2900" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr"/>
       <c r="E2900" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2900" t="inlineStr"/>
       <c r="G2900" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2900" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2901">
       <c r="A2901" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr"/>
       <c r="E2901" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2901" t="inlineStr"/>
       <c r="G2901" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2901" t="inlineStr">
@@ -93686,27 +93322,31 @@
     <row r="2902">
       <c r="A2902" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr"/>
       <c r="E2902" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr"/>
+      <c r="G2902" t="inlineStr">
+        <is>
+          <t>25K</t>
+        </is>
+      </c>
       <c r="H2902" t="inlineStr">
         <is>
           <t>3</t>
@@ -93716,27 +93356,31 @@
     <row r="2903">
       <c r="A2903" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr"/>
       <c r="E2903" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr"/>
+      <c r="G2903" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2903" t="inlineStr">
         <is>
           <t>3</t>
@@ -93746,27 +93390,31 @@
     <row r="2904">
       <c r="A2904" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr"/>
       <c r="E2904" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr"/>
+      <c r="G2904" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2904" t="inlineStr">
         <is>
           <t>3</t>
@@ -93776,23 +93424,31 @@
     <row r="2905">
       <c r="A2905" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr"/>
+      <c r="E2905" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr"/>
+      <c r="G2905" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2905" t="inlineStr">
         <is>
           <t>3</t>
@@ -93802,165 +93458,149 @@
     <row r="2906">
       <c r="A2906" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
+      <c r="E2906" t="inlineStr"/>
       <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2906" t="inlineStr"/>
       <c r="H2906" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2907">
       <c r="A2907" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2907" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr"/>
       <c r="E2907" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G2907" t="inlineStr"/>
       <c r="H2907" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2908">
       <c r="A2908" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2908" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
+      <c r="E2908" t="inlineStr"/>
       <c r="F2908" t="inlineStr"/>
       <c r="G2908" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2908" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2909" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr"/>
       <c r="E2909" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2909" t="inlineStr"/>
       <c r="G2909" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2909" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2910">
       <c r="A2910" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2910" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr"/>
       <c r="E2910" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2910" t="inlineStr"/>
       <c r="G2910" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2910" t="inlineStr">
@@ -93972,29 +93612,29 @@
     <row r="2911">
       <c r="A2911" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2911" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr"/>
       <c r="E2911" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2911" t="inlineStr"/>
       <c r="G2911" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2911" t="inlineStr">
@@ -94006,29 +93646,29 @@
     <row r="2912">
       <c r="A2912" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2912" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr"/>
       <c r="E2912" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2912" t="inlineStr"/>
       <c r="G2912" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2912" t="inlineStr">
@@ -94040,29 +93680,29 @@
     <row r="2913">
       <c r="A2913" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2913" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr"/>
       <c r="E2913" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2913" t="inlineStr"/>
       <c r="G2913" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2913" t="inlineStr">
@@ -94074,63 +93714,67 @@
     <row r="2914">
       <c r="A2914" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2914" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr"/>
       <c r="E2914" t="inlineStr">
         <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F2914" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2914" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2914" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2914" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2915">
       <c r="A2915" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2915" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2915" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2915" t="inlineStr"/>
       <c r="E2915" t="inlineStr">
         <is>
-          <t>90.9K</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2915" t="inlineStr"/>
       <c r="G2915" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2915" t="inlineStr">
@@ -94142,131 +93786,99 @@
     <row r="2916">
       <c r="A2916" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2916" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2916" t="inlineStr"/>
       <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2916" t="inlineStr"/>
       <c r="H2916" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2917">
       <c r="A2917" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2917" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr">
-        <is>
-          <t>33.5K</t>
-        </is>
-      </c>
+      <c r="E2917" t="inlineStr"/>
       <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr">
-        <is>
-          <t>8K</t>
-        </is>
-      </c>
+      <c r="G2917" t="inlineStr"/>
       <c r="H2917" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2918">
-      <c r="A2918" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2918" t="inlineStr"/>
       <c r="B2918" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2918" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr">
-        <is>
-          <t>65.1%</t>
-        </is>
-      </c>
+      <c r="E2918" t="inlineStr"/>
       <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr">
-        <is>
-          <t>65.0%</t>
-        </is>
-      </c>
+      <c r="G2918" t="inlineStr"/>
       <c r="H2918" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2919">
-      <c r="A2919" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2919" t="inlineStr"/>
       <c r="B2919" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr"/>
       <c r="E2919" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2919" t="inlineStr"/>
       <c r="G2919" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2919" t="inlineStr">
@@ -94276,79 +93888,59 @@
       </c>
     </row>
     <row r="2920">
-      <c r="A2920" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2920" t="inlineStr"/>
       <c r="B2920" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr"/>
-      <c r="E2920" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2920" t="inlineStr"/>
       <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2920" t="inlineStr"/>
       <c r="H2920" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2921">
-      <c r="A2921" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2921" t="inlineStr"/>
       <c r="B2921" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2921" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2921" t="inlineStr"/>
       <c r="E2921" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2921" t="inlineStr"/>
       <c r="G2921" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2921" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2922">
-      <c r="A2922" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2922" t="inlineStr"/>
       <c r="B2922" t="inlineStr">
         <is>
           <t>US</t>
@@ -94356,33 +93948,25 @@
       </c>
       <c r="C2922" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2922" t="inlineStr"/>
       <c r="E2922" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2922" t="inlineStr"/>
       <c r="H2922" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2923">
-      <c r="A2923" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2923" t="inlineStr"/>
       <c r="B2923" t="inlineStr">
         <is>
           <t>US</t>
@@ -94390,87 +93974,63 @@
       </c>
       <c r="C2923" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2923" t="inlineStr"/>
       <c r="E2923" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2923" t="inlineStr"/>
       <c r="H2923" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2924">
       <c r="A2924" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2924" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2924" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2924" t="inlineStr"/>
+      <c r="C2924" t="inlineStr"/>
       <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2924" t="inlineStr"/>
       <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2924" t="inlineStr"/>
+      <c r="H2924" t="inlineStr"/>
     </row>
     <row r="2925">
       <c r="A2925" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2925" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2925" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2925" t="inlineStr"/>
       <c r="E2925" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2925" t="inlineStr"/>
       <c r="G2925" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2925" t="inlineStr">
@@ -94482,7 +94042,7 @@
     <row r="2926">
       <c r="A2926" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2926" t="inlineStr">
@@ -94492,742 +94052,22 @@
       </c>
       <c r="C2926" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2926" t="inlineStr"/>
       <c r="E2926" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2926" t="inlineStr"/>
       <c r="G2926" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2927">
-      <c r="A2927" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2927" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2927" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsJAN</t>
-        </is>
-      </c>
-      <c r="D2927" t="inlineStr"/>
-      <c r="E2927" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
-      <c r="H2927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2928">
-      <c r="A2928" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2928" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2928" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
-      <c r="D2928" t="inlineStr"/>
-      <c r="E2928" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2928" t="inlineStr"/>
-      <c r="G2928" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
-      <c r="H2928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2929">
-      <c r="A2929" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2929" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2929" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment Rate</t>
-        </is>
-      </c>
-      <c r="D2929" t="inlineStr"/>
-      <c r="E2929" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="F2929" t="inlineStr"/>
-      <c r="G2929" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="H2929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2930">
-      <c r="A2930" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B2930" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2930" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2930" t="inlineStr"/>
-      <c r="E2930" t="inlineStr"/>
-      <c r="F2930" t="inlineStr"/>
-      <c r="G2930" t="inlineStr"/>
-      <c r="H2930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2931">
-      <c r="A2931" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2931" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2931" t="inlineStr">
-        <is>
-          <t>Treasury Cash BalanceJAN</t>
-        </is>
-      </c>
-      <c r="D2931" t="inlineStr"/>
-      <c r="E2931" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
-      <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr"/>
-      <c r="H2931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2932">
-      <c r="A2932" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2932" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2932" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2932" t="inlineStr"/>
-      <c r="E2932" t="inlineStr"/>
-      <c r="F2932" t="inlineStr"/>
-      <c r="G2932" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2933">
-      <c r="A2933" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2933" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2933" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2933" t="inlineStr"/>
-      <c r="E2933" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F2933" t="inlineStr"/>
-      <c r="G2933" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H2933" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2934">
-      <c r="A2934" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2934" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2934" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2934" t="inlineStr"/>
-      <c r="E2934" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2934" t="inlineStr"/>
-      <c r="G2934" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2935">
-      <c r="A2935" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2935" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2935" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2935" t="inlineStr"/>
-      <c r="E2935" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2935" t="inlineStr"/>
-      <c r="G2935" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2936">
-      <c r="A2936" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2936" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2936" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2936" t="inlineStr"/>
-      <c r="E2936" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2936" t="inlineStr"/>
-      <c r="G2936" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2937">
-      <c r="A2937" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2937" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2937" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2937" t="inlineStr"/>
-      <c r="E2937" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2937" t="inlineStr"/>
-      <c r="G2937" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2938">
-      <c r="A2938" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2938" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2938" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2938" t="inlineStr"/>
-      <c r="E2938" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2938" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2938" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2939">
-      <c r="A2939" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2939" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2939" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2939" t="inlineStr"/>
-      <c r="E2939" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2939" t="inlineStr"/>
-      <c r="G2939" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2940">
-      <c r="A2940" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2940" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2940" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2940" t="inlineStr"/>
-      <c r="E2940" t="inlineStr"/>
-      <c r="F2940" t="inlineStr"/>
-      <c r="G2940" t="inlineStr"/>
-      <c r="H2940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2941">
-      <c r="A2941" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2941" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2941" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2941" t="inlineStr"/>
-      <c r="E2941" t="inlineStr"/>
-      <c r="F2941" t="inlineStr"/>
-      <c r="G2941" t="inlineStr"/>
-      <c r="H2941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2942">
-      <c r="A2942" t="inlineStr"/>
-      <c r="B2942" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2942" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2942" t="inlineStr"/>
-      <c r="E2942" t="inlineStr"/>
-      <c r="F2942" t="inlineStr"/>
-      <c r="G2942" t="inlineStr"/>
-      <c r="H2942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2943">
-      <c r="A2943" t="inlineStr"/>
-      <c r="B2943" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2943" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2943" t="inlineStr"/>
-      <c r="E2943" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2943" t="inlineStr"/>
-      <c r="G2943" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2944">
-      <c r="A2944" t="inlineStr"/>
-      <c r="B2944" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2944" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2944" t="inlineStr"/>
-      <c r="E2944" t="inlineStr"/>
-      <c r="F2944" t="inlineStr"/>
-      <c r="G2944" t="inlineStr"/>
-      <c r="H2944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2945">
-      <c r="A2945" t="inlineStr"/>
-      <c r="B2945" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2945" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2945" t="inlineStr"/>
-      <c r="E2945" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2945" t="inlineStr"/>
-      <c r="G2945" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2946">
-      <c r="A2946" t="inlineStr"/>
-      <c r="B2946" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2946" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2946" t="inlineStr"/>
-      <c r="E2946" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2946" t="inlineStr"/>
-      <c r="G2946" t="inlineStr"/>
-      <c r="H2946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2947">
-      <c r="A2947" t="inlineStr"/>
-      <c r="B2947" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2947" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2947" t="inlineStr"/>
-      <c r="E2947" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2947" t="inlineStr"/>
-      <c r="G2947" t="inlineStr"/>
-      <c r="H2947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2948">
-      <c r="A2948" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2948" t="inlineStr"/>
-      <c r="C2948" t="inlineStr"/>
-      <c r="D2948" t="inlineStr"/>
-      <c r="E2948" t="inlineStr"/>
-      <c r="F2948" t="inlineStr"/>
-      <c r="G2948" t="inlineStr"/>
-      <c r="H2948" t="inlineStr"/>
-    </row>
-    <row r="2949">
-      <c r="A2949" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B2949" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2949" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2949" t="inlineStr"/>
-      <c r="E2949" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2949" t="inlineStr"/>
-      <c r="G2949" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2950">
-      <c r="A2950" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2950" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2950" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2950" t="inlineStr"/>
-      <c r="E2950" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2950" t="inlineStr"/>
-      <c r="G2950" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2950" t="inlineStr">
         <is>
           <t>3</t>
         </is>
